--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.14024320403283</v>
+        <v>0.1409721805410891</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04805385552810244</v>
+        <v>0.1024365945055808</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0100367996066102</v>
+        <v>0.01983880741407959</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07254473070811392</v>
+        <v>0.05808535886494322</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0650133268659122</v>
+        <v>0.04735216405033876</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08869843081429257</v>
+        <v>0.07658287707330741</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06335249544585293</v>
+        <v>0.009530602154666661</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03954681121741328</v>
+        <v>0.06467156066454222</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003631193927479228</v>
+        <v>0.003476857197833326</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06218668378008124</v>
+        <v>0.06909288681946682</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07722281707338796</v>
+        <v>0.02231648972795265</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05329146879680958</v>
+        <v>0.0538174695113461</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0183118307119088</v>
+        <v>0.009042565412862514</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02798728184278602</v>
+        <v>0.02423307384102569</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08876868240798748</v>
+        <v>0.06832667984587751</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01819621682861554</v>
+        <v>0.02008354676639243</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01416524362464684</v>
+        <v>0.03705887062425548</v>
       </c>
       <c r="V2" t="n">
-        <v>0.007465197214947186</v>
+        <v>0.01555909646150495</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0368266423126077</v>
+        <v>0.05692550575421496</v>
       </c>
       <c r="X2" t="n">
-        <v>0.08081082436212428</v>
+        <v>0.04449922998498736</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006528786054023326</v>
+        <v>0.004717424989489911</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.004289993107139511</v>
+        <v>0.02480084983474268</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.05612839484961971</v>
+        <v>0.09180660099751416</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05694229291953788</v>
+        <v>0.07574488750307501</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1507001035452331</v>
+        <v>0.1700113000516159</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1741675093971892</v>
+        <v>0.2258436500149106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01916649998983683</v>
+        <v>0.05745181359399102</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001183896310341359</v>
+        <v>0.07825670095180021</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04873872729904614</v>
+        <v>0.06121184195703505</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02773877126637404</v>
+        <v>0.02465698219427506</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09618747972098612</v>
+        <v>0.06190160771644347</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09092832264611363</v>
+        <v>0.06823367296449637</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03590310884085942</v>
+        <v>0.002338668558458225</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05013096343575882</v>
+        <v>0.0934185340267857</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09568260296701388</v>
+        <v>0.02613307386386141</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04724397315050823</v>
+        <v>0.03470945264681859</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03010005269477961</v>
+        <v>0.01685293790767357</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.006960361004366683</v>
+        <v>0.04270348903530331</v>
       </c>
       <c r="R3" t="n">
-        <v>0.003526827681441194</v>
+        <v>0.01129467042040715</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08689658713421748</v>
+        <v>0.1004580460326057</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01223995173673499</v>
+        <v>0.01207922103338601</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02348700053549286</v>
+        <v>0.00741315595303736</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06980060739974321</v>
+        <v>0.06918685368079244</v>
       </c>
       <c r="W3" t="n">
-        <v>0.006605923779470392</v>
+        <v>0.05960554880401954</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01889472582331543</v>
+        <v>0.02323113227116203</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.05674050767373807</v>
+        <v>0.02658998719200236</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.05197476013797452</v>
+        <v>0.003762570008460367</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03655303869988476</v>
+        <v>0.01946416590105973</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.08331531007200231</v>
+        <v>0.09904587328612525</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.09705243508885857</v>
+        <v>0.09553884385491446</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2488578160325149</v>
+        <v>0.2465018927984706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06006646790583035</v>
+        <v>0.06614253705998542</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03514669400190567</v>
+        <v>0.02472260150685095</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02246290956044722</v>
+        <v>0.01987031668212656</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004438507453762892</v>
+        <v>0.01130887038962384</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0004999501031668638</v>
+        <v>0.03622652560607593</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02387514446580761</v>
+        <v>0.002037023456214268</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03120192806642249</v>
+        <v>0.02119770416578909</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08030966789940581</v>
+        <v>0.06886213844558448</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04510733700831186</v>
+        <v>0.03981823954337095</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07852539648358189</v>
+        <v>0.07673772732937194</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07730370126592041</v>
+        <v>0.07541978327069253</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001521634458556926</v>
+        <v>0.001089668076456085</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06941765062833515</v>
+        <v>0.05757781081661947</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009735185393006439</v>
+        <v>0.04564407941160614</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09754240341786155</v>
+        <v>0.0299117965511272</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04971794753777699</v>
+        <v>0.05928287351658325</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05652658995483145</v>
+        <v>0.0562325411740171</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02931006883934268</v>
+        <v>0.07516743613147171</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04738642962051529</v>
+        <v>0.04748526470204248</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.05600642913844285</v>
+        <v>0.03269113999557891</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.05731205556178966</v>
+        <v>0.07842836669495405</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01425602958489415</v>
+        <v>0.02157852022098698</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.05232987165008391</v>
+        <v>0.05256703525287055</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.02428298331713703</v>
+        <v>0.01041703237206153</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7451794250622688</v>
+        <v>0.9048424145490727</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07005231347330543</v>
+        <v>0.03570874589691156</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003143433243481681</v>
+        <v>0.0005450242329113087</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008112770591834004</v>
+        <v>0.00371324371561846</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08281055961830949</v>
+        <v>0.1015796691774861</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02353797953617217</v>
+        <v>0.02842693236370439</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0009449860363777907</v>
+        <v>0.02586938398662039</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07785305627679552</v>
+        <v>0.01991548747796769</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05424598261072131</v>
+        <v>0.101140738615135</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06912133959140483</v>
+        <v>0.01151849307587737</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08281954103833739</v>
+        <v>0.06271031024611469</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04023497272081165</v>
+        <v>0.007297700982515443</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.000696766810480081</v>
+        <v>3.645202074354849e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04045047430213485</v>
+        <v>0.0991750429419907</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01483403415295241</v>
+        <v>0.04446676906580001</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04168721041679218</v>
+        <v>0.04380287625403082</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07550076680037189</v>
+        <v>0.08712527692760016</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001877349715354021</v>
+        <v>0.06221481789396194</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07288619726917257</v>
+        <v>0.05260982817669975</v>
       </c>
       <c r="X5" t="n">
-        <v>0.05054213414779045</v>
+        <v>0.07332381903615592</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.05567835618676395</v>
+        <v>0.04145845741340792</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.02127354012258802</v>
+        <v>0.01174132896817163</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.05750987029723093</v>
+        <v>0.0734625021552837</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.06148785857346808</v>
+        <v>0.01215709937529126</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.04049029715599536</v>
+        <v>0.03018724122957809</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1924168802598528</v>
+        <v>0.1903196951587689</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05542519519604803</v>
+        <v>0.02574332950895692</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03802437355364038</v>
+        <v>0.1075535610656706</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04634564380690542</v>
+        <v>0.0493233812058599</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03035154504690684</v>
+        <v>0.01724998084651418</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07185116436168849</v>
+        <v>0.05914987841090493</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01587442541020792</v>
+        <v>0.0008122117070603482</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05168707025239476</v>
+        <v>0.0182853818680395</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01745561760602151</v>
+        <v>0.004924021121998503</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01318215330329412</v>
+        <v>0.02527485226828901</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06021351272696985</v>
+        <v>0.06280475093923728</v>
       </c>
       <c r="P6" t="n">
-        <v>0.06994825378109323</v>
+        <v>0.04336004941711859</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00772943969583094</v>
+        <v>0.0116653826709965</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05398185507669205</v>
+        <v>0.04293424251484185</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04100477255171361</v>
+        <v>0.08026248205412216</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03887993789345205</v>
+        <v>0.0733192538696137</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02764018355410232</v>
+        <v>0.02280235906684021</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0436514659663736</v>
+        <v>0.01527299042077092</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06423346519939922</v>
+        <v>0.06705716102502864</v>
       </c>
       <c r="X6" t="n">
-        <v>0.074893373792858</v>
+        <v>0.1080766425528836</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.05028526171712187</v>
+        <v>0.07377187118445333</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.07530093427295205</v>
+        <v>0.01043885074131393</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02717672912412085</v>
+        <v>0.01221681385849244</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02486362611021311</v>
+        <v>0.06770055168099287</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2392327403737304</v>
+        <v>-0.2073083101560849</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5676279951267558</v>
+        <v>0.5489219367449318</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06251946741600685</v>
+        <v>0.002628981311599893</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01749034113952373</v>
+        <v>0.06978303930645384</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03047070035590184</v>
+        <v>0.06171058065312513</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02735193513590247</v>
+        <v>0.09598667531176452</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004749187852246551</v>
+        <v>0.0324691343458615</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001908431102633563</v>
+        <v>0.05236197831145959</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08988899397790015</v>
+        <v>0.02291517186700038</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01514460184005826</v>
+        <v>0.00140856595643068</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02699437573259564</v>
+        <v>0.00598505870165409</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01044468372596896</v>
+        <v>0.01522259891277978</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0113273243851668</v>
+        <v>0.003165325738022982</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1070663988676296</v>
+        <v>0.1019710955050794</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02729782210899998</v>
+        <v>0.05899796688926005</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02879218795695358</v>
+        <v>0.1059558339225745</v>
       </c>
       <c r="T7" t="n">
-        <v>0.09201365513715637</v>
+        <v>0.01611081999989287</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03664580965390961</v>
+        <v>0.04769706685949129</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02128566196311688</v>
+        <v>0.023292169907196</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09576034061943389</v>
+        <v>0.09496970960639414</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02932923724006565</v>
+        <v>0.002081629764378644</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.05923906442533407</v>
+        <v>0.04639754698450297</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.03014753349552224</v>
+        <v>0.01757761528547854</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0862084459646429</v>
+        <v>0.02549829735461567</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.08792379990333038</v>
+        <v>0.09581313750498351</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.2241377193931592</v>
+        <v>-0.1720103004699615</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1824437351203012</v>
+        <v>0.192078942140295</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02209038647554136</v>
+        <v>0.00112291678799951</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005494002957515676</v>
+        <v>0.007734540309110836</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004885928195905461</v>
+        <v>0.01054502019096674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02812765597438499</v>
+        <v>0.0530960919247529</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02716707063793372</v>
+        <v>0.01422313253723675</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06324265912533603</v>
+        <v>0.0669422168683599</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0170449365849248</v>
+        <v>0.006811592759003175</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005762220137519821</v>
+        <v>0.03951111691265188</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1030143930348353</v>
+        <v>0.03242059715932246</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0225525350822607</v>
+        <v>0.03711405413173256</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1014734234952317</v>
+        <v>0.1047729023146109</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.05578610788247999</v>
+        <v>0.07138641707020134</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03297673432649544</v>
+        <v>0.03147843051502679</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07057652678734036</v>
+        <v>0.05446565828343309</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08422141830296227</v>
+        <v>0.06055925601588833</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09414254919563472</v>
+        <v>0.08356481276430978</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01881803249556058</v>
+        <v>0.0613357598491207</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06935768069088975</v>
+        <v>0.08396078997126528</v>
       </c>
       <c r="X8" t="n">
-        <v>0.009051474830110637</v>
+        <v>0.1017145454376227</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001901338228682766</v>
+        <v>0.008166741250854368</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0719208957314425</v>
+        <v>0.06205013433171393</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.08041949220211986</v>
+        <v>0.0008375371007051375</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.009972537624891774</v>
+        <v>0.006185735514111007</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.4103403951158638</v>
+        <v>-0.3967428515732616</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.4163232328059869</v>
+        <v>0.401523214053825</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08286743931507114</v>
+        <v>0.02149458258405507</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02038042704257877</v>
+        <v>0.001569326823602369</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06300887576309054</v>
+        <v>0.001361258805587788</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04270841166167517</v>
+        <v>0.1185601274980392</v>
       </c>
       <c r="J9" t="n">
-        <v>0.009146773349004888</v>
+        <v>0.088602062590784</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04280710440250868</v>
+        <v>0.02454300220268071</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05855153046872265</v>
+        <v>0.02643830808471252</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01875767470366742</v>
+        <v>0.02276369386317555</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01206651972502379</v>
+        <v>0.02280549461277223</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008722467408344797</v>
+        <v>0.05048861593107945</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05249700932748286</v>
+        <v>0.02024064667933385</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07530479270711046</v>
+        <v>0.01351250055686135</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04597972168414277</v>
+        <v>0.01216131086358218</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01436176538402502</v>
+        <v>0.004193309536970928</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03403001642052504</v>
+        <v>0.02222189158546872</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08325555928483759</v>
+        <v>0.06800541867390711</v>
       </c>
       <c r="V9" t="n">
-        <v>0.005438434717610107</v>
+        <v>0.02979089690853252</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04361323520736386</v>
+        <v>0.09274683037363339</v>
       </c>
       <c r="X9" t="n">
-        <v>0.005102607178630111</v>
+        <v>0.04846247816035647</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02795010559240477</v>
+        <v>0.06984986895087969</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.03024486959034518</v>
+        <v>0.02676756228071605</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1125526916241766</v>
+        <v>0.1172332738572385</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1106519674416579</v>
+        <v>0.09618753857603041</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3989392913191938</v>
+        <v>-0.3903293101199335</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2550365473364415</v>
+        <v>0.2554173379871741</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0280455298656603</v>
+        <v>0.05546941311115348</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001052016919572012</v>
+        <v>0.04577542491357268</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06110986414812744</v>
+        <v>0.05823955760612223</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0541070569198765</v>
+        <v>0.06122419776682178</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03781967598245159</v>
+        <v>0.01902474566785393</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03082016816555306</v>
+        <v>0.02176688063755859</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006351185166854364</v>
+        <v>0.01612994556272642</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06158527807537052</v>
+        <v>0.03290086789594591</v>
       </c>
       <c r="N10" t="n">
-        <v>0.009339036187794858</v>
+        <v>0.0182000977177558</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1059730488473835</v>
+        <v>0.03753571686333294</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0895713844252419</v>
+        <v>0.07408747095538082</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.08320579738113985</v>
+        <v>0.01830882079985163</v>
       </c>
       <c r="R10" t="n">
-        <v>0.09260788248035512</v>
+        <v>0.06643427432628521</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01035674913002035</v>
+        <v>0.05030040412720481</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01036954453136375</v>
+        <v>0.003274601964663781</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0932424003560971</v>
+        <v>0.06837545429671908</v>
       </c>
       <c r="V10" t="n">
-        <v>0.007707492478902078</v>
+        <v>0.006312832436982732</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08752440550542191</v>
+        <v>0.03730733687202224</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001735292476623369</v>
+        <v>0.05958631475677716</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01294333317348126</v>
+        <v>0.06152767620060896</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.03812142575924933</v>
+        <v>0.03649848000702576</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001346003570427334</v>
+        <v>0.07073411210902132</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.07506542845303238</v>
+        <v>0.08098537340461272</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.03467209672272767</v>
+        <v>-0.03938610559419427</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.463837003259974</v>
+        <v>0.493742798986556</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09143196795118588</v>
+        <v>0.1059290885323522</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01288175522531967</v>
+        <v>0.006277921508000058</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01934303710357344</v>
+        <v>0.09692708409830471</v>
       </c>
       <c r="I11" t="n">
-        <v>0.009593809627562741</v>
+        <v>0.06920359056712398</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0545363120186411</v>
+        <v>0.002500957340898192</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05813417519573372</v>
+        <v>0.0220135528646268</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03898233327193872</v>
+        <v>0.02205669940917517</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03425526389781918</v>
+        <v>0.03295690543238404</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01230099180789551</v>
+        <v>0.1166728175816618</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01738163553709551</v>
+        <v>0.02851259422322212</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01063554049699611</v>
+        <v>0.0479571738001359</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002567600575383195</v>
+        <v>0.02550162147515867</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07368156133595612</v>
+        <v>0.0737341052762148</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02288387838943927</v>
+        <v>0.00636256640832096</v>
       </c>
       <c r="T11" t="n">
-        <v>0.006303706877617836</v>
+        <v>0.003764569259802221</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09784441134644921</v>
+        <v>0.04998307319896326</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1179993962558738</v>
+        <v>0.1223005760962628</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06063774023570253</v>
+        <v>0.01055691018621154</v>
       </c>
       <c r="X11" t="n">
-        <v>0.00171372268247783</v>
+        <v>0.009823074589563441</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0673086374883015</v>
+        <v>0.002977116573651911</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02417031497724328</v>
+        <v>0.08779626435955104</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.08110646652373175</v>
+        <v>0.03559951306373656</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.08430574117806221</v>
+        <v>0.0205922241546777</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.09669005355928306</v>
+        <v>0.131229521380489</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.26841679481323</v>
+        <v>0.276303761016722</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03900619792138782</v>
+        <v>0.05245645572194584</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02355780847824027</v>
+        <v>0.0338431179984036</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04860972641943917</v>
+        <v>0.06901764199032802</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0838057253915671</v>
+        <v>0.01354975485257058</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02763332390429555</v>
+        <v>0.01168020090179242</v>
       </c>
       <c r="K12" t="n">
-        <v>0.007543092733664022</v>
+        <v>0.02744902486419026</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03545730996757259</v>
+        <v>0.07877415640196446</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01984333496696754</v>
+        <v>0.04370326380127681</v>
       </c>
       <c r="N12" t="n">
-        <v>0.02610197721935655</v>
+        <v>0.01418120167945742</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03352093183897187</v>
+        <v>0.02699168498935058</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0408358915768777</v>
+        <v>0.08594712695754231</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01702648241275499</v>
+        <v>0.002464230770539973</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09975142038794574</v>
+        <v>0.0308603326536322</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08676648859520349</v>
+        <v>0.07536826845950857</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04682243466913427</v>
+        <v>0.01433062408082995</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07835910723541963</v>
+        <v>0.07114055669135053</v>
       </c>
       <c r="V12" t="n">
-        <v>0.003492953580619952</v>
+        <v>0.007765234891760103</v>
       </c>
       <c r="W12" t="n">
-        <v>0.09011800278421368</v>
+        <v>0.08885649491522435</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05420606407151451</v>
+        <v>0.04501282481620204</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0198200922246916</v>
+        <v>0.08750347946315536</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.001056478894767944</v>
+        <v>0.02479099220269439</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02821764537143879</v>
+        <v>0.02801242734950795</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.08844750935395532</v>
+        <v>0.06630090354677211</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2434823244932432</v>
+        <v>0.2362752755454559</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.492333388718812</v>
+        <v>0.5740615155140188</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1018171861474336</v>
+        <v>0.001681307395501496</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01492453519450815</v>
+        <v>0.01930870938118589</v>
       </c>
       <c r="H13" t="n">
-        <v>0.005363205916640049</v>
+        <v>0.02138775819442322</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02767338650583788</v>
+        <v>0.01512115559782256</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01101433288920846</v>
+        <v>0.1265422232618425</v>
       </c>
       <c r="K13" t="n">
-        <v>0.008614379270199231</v>
+        <v>0.03488938929447977</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03618710027795401</v>
+        <v>0.01398786215730183</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07760217345315615</v>
+        <v>0.1174588418820433</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02674205197246367</v>
+        <v>0.1110104221072072</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0202908879801758</v>
+        <v>0.01811397752139462</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01237950711039607</v>
+        <v>0.01658421682293753</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1042783352823881</v>
+        <v>0.008248162555125855</v>
       </c>
       <c r="R13" t="n">
-        <v>0.06302993332851803</v>
+        <v>0.02623535976968794</v>
       </c>
       <c r="S13" t="n">
-        <v>0.001523530489214475</v>
+        <v>0.0010972067601683</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1106808847790722</v>
+        <v>0.04858590548290043</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01263710012453145</v>
+        <v>0.0007780765424021916</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1028791579666386</v>
+        <v>0.1224603612873659</v>
       </c>
       <c r="W13" t="n">
-        <v>0.003282811250643931</v>
+        <v>0.006684892861516697</v>
       </c>
       <c r="X13" t="n">
-        <v>0.05658218146784894</v>
+        <v>0.07114575683580369</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01595097898646186</v>
+        <v>0.01118718237678382</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.09780530873698498</v>
+        <v>0.02294282814153365</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.002391094035418159</v>
+        <v>0.1152827006979574</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.08634993683430621</v>
+        <v>0.06926570307261425</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2753199032316059</v>
+        <v>0.248005697511277</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2989087443290523</v>
+        <v>0.294939705435685</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004769657434261851</v>
+        <v>0.008259783550553753</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007783816531525479</v>
+        <v>0.004793809604204711</v>
       </c>
       <c r="H14" t="n">
-        <v>0.005599740541132839</v>
+        <v>0.05774347124718966</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0174368203874134</v>
+        <v>0.08484389311847212</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01905176020805307</v>
+        <v>0.0100928147129439</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01623810269057978</v>
+        <v>0.005786689158792192</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09000800180704475</v>
+        <v>0.08284785538143945</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07798593421210642</v>
+        <v>0.02526466784823283</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01079931736237911</v>
+        <v>0.01975548480682975</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05692994186579619</v>
+        <v>0.02539142228336576</v>
       </c>
       <c r="P14" t="n">
-        <v>0.04705153328781694</v>
+        <v>0.06573807691472063</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.04106113187694217</v>
+        <v>0.01798107528716968</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06099890850949778</v>
+        <v>0.08857298275674837</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04803841789381514</v>
+        <v>0.01420081195227918</v>
       </c>
       <c r="T14" t="n">
-        <v>0.08922606851309553</v>
+        <v>0.07226865588813457</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01289779920950109</v>
+        <v>0.005022963937427746</v>
       </c>
       <c r="V14" t="n">
-        <v>0.001651094415702589</v>
+        <v>0.002435277122135258</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07921554671037065</v>
+        <v>0.06494318118001358</v>
       </c>
       <c r="X14" t="n">
-        <v>0.09162923197762761</v>
+        <v>0.08565719350980118</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.05452423199725929</v>
+        <v>0.04384654345690969</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.08377994733354388</v>
+        <v>0.0912772216896323</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01711667436397321</v>
+        <v>0.03903301027181964</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.06620632087056123</v>
+        <v>0.08424311432118399</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.04963856151477548</v>
+        <v>-0.0384776241020057</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.4388028887351786</v>
+        <v>0.4394783340250422</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006860666350895242</v>
+        <v>0.0241987025409316</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01575991202286631</v>
+        <v>0.03083459785190355</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05679026556968424</v>
+        <v>0.08900487619340199</v>
       </c>
       <c r="I15" t="n">
-        <v>0.004732742279210927</v>
+        <v>0.07150158477981561</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02663153363963121</v>
+        <v>0.03023768154004566</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0369643478616757</v>
+        <v>0.001318213424926192</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03583809889199016</v>
+        <v>0.1201939018679691</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04757397500906397</v>
+        <v>0.03020474673069595</v>
       </c>
       <c r="N15" t="n">
-        <v>0.07739279650530967</v>
+        <v>0.03179002987802416</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01120014743409941</v>
+        <v>0.007193185105086981</v>
       </c>
       <c r="P15" t="n">
-        <v>0.006813633107115152</v>
+        <v>0.04588626440014732</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0385153593861832</v>
+        <v>0.01969063491547707</v>
       </c>
       <c r="R15" t="n">
-        <v>0.03989594517253628</v>
+        <v>0.08503778035154515</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06119097259513732</v>
+        <v>0.09796181912897312</v>
       </c>
       <c r="T15" t="n">
-        <v>0.06940253115701928</v>
+        <v>0.00703746082647967</v>
       </c>
       <c r="U15" t="n">
-        <v>0.008538821183819517</v>
+        <v>0.01440536845863357</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1045881716361289</v>
+        <v>0.108817592018268</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1034056704130533</v>
+        <v>0.03534238678560252</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0209489258114746</v>
+        <v>0.01641080710849065</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0117823417262307</v>
+        <v>0.004576299761338884</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.07272174052077515</v>
+        <v>0.03251935628524939</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.03750706856981564</v>
+        <v>0.02558998361879168</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.1049443331562838</v>
+        <v>0.07024672642820221</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.003895771650562771</v>
+        <v>0.02573307032820443</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3142990810423197</v>
+        <v>0.3172021334659479</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03080532965625905</v>
+        <v>0.06197230902225895</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04322860649015674</v>
+        <v>0.05936283826328737</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03092024273390291</v>
+        <v>0.03619170980919284</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09061790039943347</v>
+        <v>0.07318182372457799</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05485722700189775</v>
+        <v>0.003787354151154082</v>
       </c>
       <c r="K16" t="n">
-        <v>0.08436415861522528</v>
+        <v>0.01296544661164145</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02012293657970924</v>
+        <v>0.02322511367682675</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04899127985938527</v>
+        <v>0.0238206518438908</v>
       </c>
       <c r="N16" t="n">
-        <v>0.009032801051100809</v>
+        <v>0.01066794059147561</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02422624822690875</v>
+        <v>0.03120910103503581</v>
       </c>
       <c r="P16" t="n">
-        <v>0.09870725762198497</v>
+        <v>0.07683128662397527</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03656926060164353</v>
+        <v>0.07219104106697341</v>
       </c>
       <c r="R16" t="n">
-        <v>0.05071719946087585</v>
+        <v>0.006722276270762146</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06337380779848964</v>
+        <v>0.07574469602186712</v>
       </c>
       <c r="T16" t="n">
-        <v>0.007969723751430211</v>
+        <v>0.06746244613049386</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01581445459589861</v>
+        <v>0.03761659489985541</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01398404426848628</v>
+        <v>0.03920829022524894</v>
       </c>
       <c r="W16" t="n">
-        <v>0.04652203312908286</v>
+        <v>0.08993873515499011</v>
       </c>
       <c r="X16" t="n">
-        <v>0.06832565312727958</v>
+        <v>0.02502573752192348</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0548637212085133</v>
+        <v>0.05493225290559298</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.03275087731888426</v>
+        <v>0.01878685495780585</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01416409579246501</v>
+        <v>0.01127608130273149</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.05907114071098671</v>
+        <v>0.08787941818843817</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1617994073148615</v>
+        <v>0.1647343929924573</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3721597455844026</v>
+        <v>0.3949236026239325</v>
       </c>
       <c r="F17" t="n">
-        <v>0.058154017327388</v>
+        <v>0.001522832797846785</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04885068089439699</v>
+        <v>0.01857499672416962</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08582829111480167</v>
+        <v>0.01527141752783618</v>
       </c>
       <c r="I17" t="n">
-        <v>0.009496029040902691</v>
+        <v>0.03500143949420503</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03867204335817456</v>
+        <v>0.05100205871353004</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0654766658906392</v>
+        <v>0.006257954062030133</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03924182103454307</v>
+        <v>0.008676656938356465</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0174577984210527</v>
+        <v>0.01469689599665327</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01215417928572465</v>
+        <v>0.003647163515993368</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01539373521602225</v>
+        <v>0.02950030868135848</v>
       </c>
       <c r="P17" t="n">
-        <v>0.007283079269111006</v>
+        <v>0.08691489252830534</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.03006625973493619</v>
+        <v>0.07835482797339961</v>
       </c>
       <c r="R17" t="n">
-        <v>0.06240195794658747</v>
+        <v>0.01767765524399207</v>
       </c>
       <c r="S17" t="n">
-        <v>0.06645597216403372</v>
+        <v>0.09506946902337039</v>
       </c>
       <c r="T17" t="n">
-        <v>0.01863214868201659</v>
+        <v>0.1022329350943636</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0235475973820739</v>
+        <v>0.0661928318165045</v>
       </c>
       <c r="V17" t="n">
-        <v>0.08898652761288571</v>
+        <v>0.1253630243834106</v>
       </c>
       <c r="W17" t="n">
-        <v>0.08893820284116749</v>
+        <v>0.006222430369583515</v>
       </c>
       <c r="X17" t="n">
-        <v>0.06691430713559843</v>
+        <v>0.01101051401229056</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01790446454901783</v>
+        <v>0.04866826280756233</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.05092961009689451</v>
+        <v>0.04569660591474758</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.003705700268056643</v>
+        <v>0.004999377190838099</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0835089107339748</v>
+        <v>0.1274454491896525</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2063897480315817</v>
+        <v>0.2150641022976667</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3855805392954135</v>
+        <v>0.3650309615266141</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05003959516758853</v>
+        <v>0.04428599427292706</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06561623407758427</v>
+        <v>0.06064589562784359</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002181840330791821</v>
+        <v>0.001349026600262213</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07455058323018623</v>
+        <v>0.0009514657715612623</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01223172755122238</v>
+        <v>0.003253601533544176</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03519698415804355</v>
+        <v>0.08502705593867391</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002003480998544036</v>
+        <v>0.01351662242780231</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02667021341658159</v>
+        <v>0.06087049418086871</v>
       </c>
       <c r="N18" t="n">
-        <v>0.03363080741098229</v>
+        <v>0.07687027966099333</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01406674494878478</v>
+        <v>0.07635306739018177</v>
       </c>
       <c r="P18" t="n">
-        <v>0.05839626471958031</v>
+        <v>0.07246703305692451</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.06367824896694144</v>
+        <v>0.04315308811338912</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05780836369086009</v>
+        <v>0.05771203499085562</v>
       </c>
       <c r="S18" t="n">
-        <v>0.04220280395398789</v>
+        <v>0.005213652519921811</v>
       </c>
       <c r="T18" t="n">
-        <v>0.06817629753690489</v>
+        <v>0.008740907308253821</v>
       </c>
       <c r="U18" t="n">
-        <v>0.021532561587858</v>
+        <v>0.02057735676807648</v>
       </c>
       <c r="V18" t="n">
-        <v>0.07921173896026221</v>
+        <v>0.05813095302378417</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0380463995557612</v>
+        <v>0.0790460269061149</v>
       </c>
       <c r="X18" t="n">
-        <v>0.08342450283307432</v>
+        <v>0.05834349152145732</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.01145393561139646</v>
+        <v>0.07302117778163263</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.07677075677244455</v>
+        <v>0.08708500979023827</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.05967664894996264</v>
+        <v>0.01222023075418001</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0234332655706564</v>
+        <v>0.001165534060512964</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.04832982509996714</v>
+        <v>0.05223190306592695</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.8136494584569443</v>
+        <v>0.7713539147006631</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04055399393339656</v>
+        <v>0.04957040271892221</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002079206422622288</v>
+        <v>0.004995760420174807</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03165829072093924</v>
+        <v>0.02389139797821557</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02515639075402989</v>
+        <v>0.01627497296508939</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08598246047902659</v>
+        <v>0.08523133084540113</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05799826389499353</v>
+        <v>0.06444522410445469</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03110955670326166</v>
+        <v>0.02218936905690986</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03712567170475614</v>
+        <v>0.02407939193390635</v>
       </c>
       <c r="N19" t="n">
-        <v>0.07503084230369837</v>
+        <v>0.00541273755323131</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003522999163902089</v>
+        <v>0.007682071049218694</v>
       </c>
       <c r="P19" t="n">
-        <v>0.03264695909376544</v>
+        <v>0.06126420568922102</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01050371489046925</v>
+        <v>0.006714289850816019</v>
       </c>
       <c r="R19" t="n">
-        <v>0.07195683123791784</v>
+        <v>0.07553084102057578</v>
       </c>
       <c r="S19" t="n">
-        <v>0.07951658169554346</v>
+        <v>0.09514393998936156</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02946364885853679</v>
+        <v>0.01486929577180548</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0712888101827079</v>
+        <v>0.07866021282731317</v>
       </c>
       <c r="V19" t="n">
-        <v>0.07660392876670356</v>
+        <v>0.04508121573625015</v>
       </c>
       <c r="W19" t="n">
-        <v>0.02901939733692458</v>
+        <v>0.04733192220269128</v>
       </c>
       <c r="X19" t="n">
-        <v>0.03706240307141651</v>
+        <v>0.05927628070733326</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02174243823406469</v>
+        <v>0.07393348263174834</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.08487170644171749</v>
+        <v>0.07713434002475743</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.00339051836038418</v>
+        <v>0.001517161810773886</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.06171538574922188</v>
+        <v>0.0597701531118285</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.07854571335335328</v>
+        <v>0.06848999353972837</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2239416411180859</v>
+        <v>0.2270869908239457</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02562747980739612</v>
+        <v>0.06446962736986282</v>
       </c>
       <c r="G20" t="n">
-        <v>0.002113820786414753</v>
+        <v>0.008634446004474737</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05796452349603928</v>
+        <v>0.06062972642977137</v>
       </c>
       <c r="I20" t="n">
-        <v>0.023811436181701</v>
+        <v>0.06609231109187173</v>
       </c>
       <c r="J20" t="n">
-        <v>0.08011044050811619</v>
+        <v>0.07090653666094882</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01366712502128694</v>
+        <v>0.0004138097423069783</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05521543106794807</v>
+        <v>0.005016523963878798</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08134356448113292</v>
+        <v>0.07315899264954004</v>
       </c>
       <c r="N20" t="n">
-        <v>0.04509538202925684</v>
+        <v>0.07719966266509772</v>
       </c>
       <c r="O20" t="n">
-        <v>0.08004324122042622</v>
+        <v>0.05500850717201027</v>
       </c>
       <c r="P20" t="n">
-        <v>0.04969102190391752</v>
+        <v>0.05341067104437988</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01479962077839467</v>
+        <v>0.06458919939505429</v>
       </c>
       <c r="R20" t="n">
-        <v>0.03641657552226723</v>
+        <v>0.0383694836752281</v>
       </c>
       <c r="S20" t="n">
-        <v>0.004376121913372862</v>
+        <v>0.01333991071991235</v>
       </c>
       <c r="T20" t="n">
-        <v>0.02581333781245024</v>
+        <v>0.04109691287053616</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02570899376393544</v>
+        <v>0.07655073210571418</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0007969113878732114</v>
+        <v>0.01378280613438899</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0006831399496471855</v>
+        <v>0.03617597049155728</v>
       </c>
       <c r="X20" t="n">
-        <v>0.08985787317893647</v>
+        <v>0.05962319161303065</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.06384226973187904</v>
+        <v>0.06953014033402996</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.08321144529857986</v>
+        <v>0.03503173508766338</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.08865552776064202</v>
+        <v>0.01671889279079615</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.05115471639838597</v>
+        <v>0.0002502099879455426</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.2001037373536783</v>
+        <v>-0.1788752086667082</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.4529558269423798</v>
+        <v>0.53691552614334</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01370830316707943</v>
+        <v>0.03702670446412794</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0389189571643116</v>
+        <v>0.02886259781085391</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07083757397484598</v>
+        <v>0.06719926357279377</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06779032626789804</v>
+        <v>0.01393073527915515</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0008477006834448537</v>
+        <v>0.003123525935068293</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001617606346937884</v>
+        <v>0.01142063637416058</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001948092622799365</v>
+        <v>0.03186194585415701</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06324277102116933</v>
+        <v>0.03229495868288791</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03316762281929574</v>
+        <v>0.06497374821026429</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03471654647021106</v>
+        <v>0.05511500175951458</v>
       </c>
       <c r="P21" t="n">
-        <v>0.07603284649193434</v>
+        <v>0.04831450095028245</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01125983415274776</v>
+        <v>0.07190690045125596</v>
       </c>
       <c r="R21" t="n">
-        <v>0.009619322639060478</v>
+        <v>0.002360838328734267</v>
       </c>
       <c r="S21" t="n">
-        <v>0.07781943813409298</v>
+        <v>0.08723649723550077</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02373501292138367</v>
+        <v>0.04218637750651585</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08806868792342426</v>
+        <v>0.08643289479585858</v>
       </c>
       <c r="V21" t="n">
-        <v>0.009526867996754755</v>
+        <v>0.0002852196678481727</v>
       </c>
       <c r="W21" t="n">
-        <v>0.04960581923332951</v>
+        <v>0.00564124947369557</v>
       </c>
       <c r="X21" t="n">
-        <v>0.06166527596734083</v>
+        <v>0.05384854168125058</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0986114880964625</v>
+        <v>0.07885055227056786</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.09156352614297671</v>
+        <v>0.06886530894724134</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.05404726260230372</v>
+        <v>0.02964178178415484</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.02340240052071456</v>
+        <v>0.07862021896411038</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.1602163572996657</v>
+        <v>-0.1838935699811558</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2014338676825404</v>
+        <v>0.1942824743758434</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02052376005926053</v>
+        <v>0.03203920711025597</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08266329074590369</v>
+        <v>0.0154275110133106</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04166284679714549</v>
+        <v>0.011472584812443</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04673787983535457</v>
+        <v>0.07999825948828031</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0388693782580553</v>
+        <v>0.01076089297439803</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01916107534096042</v>
+        <v>0.005229179238171842</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01268520587192942</v>
+        <v>0.007207312923249853</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03798149339641101</v>
+        <v>0.06475235781469509</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02647408457611408</v>
+        <v>0.01090968682723885</v>
       </c>
       <c r="O22" t="n">
-        <v>0.05179574135233058</v>
+        <v>0.08250038919216578</v>
       </c>
       <c r="P22" t="n">
-        <v>0.06768058695917548</v>
+        <v>0.07820736974145488</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.05969314147066062</v>
+        <v>0.02522722624883857</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0776085768679699</v>
+        <v>0.09931827080954567</v>
       </c>
       <c r="S22" t="n">
-        <v>0.04141398800350524</v>
+        <v>0.04448736256152918</v>
       </c>
       <c r="T22" t="n">
-        <v>0.003185560396729425</v>
+        <v>0.01332603137683517</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09118024402168873</v>
+        <v>0.02460364110955019</v>
       </c>
       <c r="V22" t="n">
-        <v>0.008309961809488538</v>
+        <v>0.02418197008910413</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07991156317103594</v>
+        <v>0.09908277892088135</v>
       </c>
       <c r="X22" t="n">
-        <v>0.009804257726822646</v>
+        <v>0.006206202847494824</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.09502809296856675</v>
+        <v>0.08166740381207004</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.03866037899575757</v>
+        <v>0.07880940039758233</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03096066915548944</v>
+        <v>0.06739998559039237</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.01800822221964456</v>
+        <v>0.037184975100512</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.04955691611582571</v>
+        <v>0.04237595348718298</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2911826687488979</v>
+        <v>0.2945155899316048</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1097095454011393</v>
+        <v>0.09200624175729778</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04155760751923422</v>
+        <v>0.02373879856659083</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00755210555680363</v>
+        <v>0.002540033069524331</v>
       </c>
       <c r="I23" t="n">
-        <v>0.006131908572419647</v>
+        <v>0.001308723725926834</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0493881217098228</v>
+        <v>0.08761656111256733</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07949152552441441</v>
+        <v>0.09073477544889355</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08419607546397692</v>
+        <v>0.06935629043975769</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05568079506065842</v>
+        <v>0.04032239115299369</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01682212530930268</v>
+        <v>0.004716095508106368</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01505703012854067</v>
+        <v>0.004306991319776125</v>
       </c>
       <c r="P23" t="n">
-        <v>0.002526727944568136</v>
+        <v>0.08709245909316955</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.009765768646553199</v>
+        <v>0.04836965169364103</v>
       </c>
       <c r="R23" t="n">
-        <v>0.06755145126824309</v>
+        <v>0.02508249784615731</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01055591354577329</v>
+        <v>0.06776422046973574</v>
       </c>
       <c r="T23" t="n">
-        <v>0.001151803721982509</v>
+        <v>0.009446467909585084</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08523628626901675</v>
+        <v>0.02443266873501145</v>
       </c>
       <c r="V23" t="n">
-        <v>0.06508936041130819</v>
+        <v>0.03641170475545131</v>
       </c>
       <c r="W23" t="n">
-        <v>0.1052358253835786</v>
+        <v>0.03732722854524819</v>
       </c>
       <c r="X23" t="n">
-        <v>0.00167338531895862</v>
+        <v>0.04941075610995182</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.003191294050128024</v>
+        <v>0.007316061179421755</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.06241039579255216</v>
+        <v>0.09423311873231656</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.01412348623845621</v>
+        <v>0.03919185581359169</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.1059014611625685</v>
+        <v>0.05727440701528382</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.05361298090094202</v>
+        <v>0.05559011495589583</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.199067470132057</v>
+        <v>0.1982178458699019</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01016087001711412</v>
+        <v>0.07872172153308162</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02592804419224839</v>
+        <v>0.02569859187133686</v>
       </c>
       <c r="H24" t="n">
-        <v>0.003054693049359163</v>
+        <v>0.009711268997494393</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03980791424308935</v>
+        <v>0.01902321839895211</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03565863872766414</v>
+        <v>0.02606799088366637</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03718522199741037</v>
+        <v>0.005379128675418101</v>
       </c>
       <c r="L24" t="n">
-        <v>0.006204725738088218</v>
+        <v>0.07979961693709144</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0544001008634354</v>
+        <v>0.06621408242402542</v>
       </c>
       <c r="N24" t="n">
-        <v>0.04668490608360502</v>
+        <v>0.05102237614651448</v>
       </c>
       <c r="O24" t="n">
-        <v>0.09202840317290693</v>
+        <v>0.02444897092151554</v>
       </c>
       <c r="P24" t="n">
-        <v>0.06002703094938787</v>
+        <v>0.05542603383112592</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02301173682652381</v>
+        <v>0.04078370289237854</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1155579203270248</v>
+        <v>0.07154535978415105</v>
       </c>
       <c r="S24" t="n">
-        <v>0.08879745283695903</v>
+        <v>0.04715995807122378</v>
       </c>
       <c r="T24" t="n">
-        <v>0.003591286044388438</v>
+        <v>0.00537785764835805</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01633368641329</v>
+        <v>0.06669052654574407</v>
       </c>
       <c r="V24" t="n">
-        <v>0.09431624858361787</v>
+        <v>0.03833416829075208</v>
       </c>
       <c r="W24" t="n">
-        <v>0.06523318576656839</v>
+        <v>0.08400767655193918</v>
       </c>
       <c r="X24" t="n">
-        <v>0.02816499982165412</v>
+        <v>0.01335730488034413</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.02427516858366105</v>
+        <v>0.0007757448733773217</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.04773734583246139</v>
+        <v>0.08396755989654486</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.08085384534264943</v>
+        <v>0.08003154912458793</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0009865745868926459</v>
+        <v>0.02645559082037699</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1154692243797254</v>
+        <v>0.1307625426463148</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2292006614634237</v>
+        <v>0.2186952145243531</v>
       </c>
       <c r="F25" t="n">
-        <v>0.078176181186367</v>
+        <v>0.01607732660043976</v>
       </c>
       <c r="G25" t="n">
-        <v>0.005504269456040828</v>
+        <v>0.02385714819137452</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08029994840381388</v>
+        <v>0.04243878664126302</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07727242559187507</v>
+        <v>0.01112134270892562</v>
       </c>
       <c r="J25" t="n">
-        <v>0.08680891259411852</v>
+        <v>0.003754224463538204</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06690333423854042</v>
+        <v>0.08966076721756151</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01977999074170921</v>
+        <v>0.03641340105970861</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01098107132765126</v>
+        <v>0.004159049193297649</v>
       </c>
       <c r="N25" t="n">
-        <v>0.001846658957544418</v>
+        <v>0.01262762599758615</v>
       </c>
       <c r="O25" t="n">
-        <v>0.08003926657687789</v>
+        <v>0.05517571904466426</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0440537629097072</v>
+        <v>0.03764152895504152</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01995058210314078</v>
+        <v>0.004387107301787129</v>
       </c>
       <c r="R25" t="n">
-        <v>0.07680589757393635</v>
+        <v>0.09869183055392453</v>
       </c>
       <c r="S25" t="n">
-        <v>0.003431072106145021</v>
+        <v>0.05373499468041312</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01377167879991881</v>
+        <v>0.02963825297929206</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06986045435801684</v>
+        <v>0.1032521937811942</v>
       </c>
       <c r="V25" t="n">
-        <v>0.007732044346302811</v>
+        <v>0.08871400810795227</v>
       </c>
       <c r="W25" t="n">
-        <v>0.08173732299426062</v>
+        <v>0.09703156818552848</v>
       </c>
       <c r="X25" t="n">
-        <v>0.006340310066538724</v>
+        <v>0.01127996538305498</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.006373394387232494</v>
+        <v>0.004254808900842014</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.06985118295367639</v>
+        <v>0.08488582453175629</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.001512107597416201</v>
+        <v>0.008275299281582943</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.09096813072916914</v>
+        <v>0.08292722623927103</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1780029377838465</v>
+        <v>0.1622800922161463</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2472946141651876</v>
+        <v>0.2413665123632751</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01365700783308624</v>
+        <v>0.02213081947508391</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03238124699345956</v>
+        <v>0.05829920065218219</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08292043919002882</v>
+        <v>0.03998997400485098</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02912409924679064</v>
+        <v>0.00221879455057606</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06122092350920544</v>
+        <v>0.0741914860761263</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02605945367623439</v>
+        <v>0.02432300531654062</v>
       </c>
       <c r="L26" t="n">
-        <v>0.09964811814931053</v>
+        <v>0.07142039543300729</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0515859026606575</v>
+        <v>0.06542318572140983</v>
       </c>
       <c r="N26" t="n">
-        <v>0.003576482183285534</v>
+        <v>0.06852796629969514</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04481862602004036</v>
+        <v>0.01245525257133879</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1016552300829631</v>
+        <v>0.07173189634807417</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.03223036839865095</v>
+        <v>0.04180953644738419</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08166993993282734</v>
+        <v>0.06910686388777995</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02871993337595032</v>
+        <v>0.08036888273098521</v>
       </c>
       <c r="T26" t="n">
-        <v>0.05651693331682461</v>
+        <v>0.02009555686521415</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09004278447665273</v>
+        <v>0.06987399729108669</v>
       </c>
       <c r="V26" t="n">
-        <v>0.06890222636931634</v>
+        <v>0.04878464798844814</v>
       </c>
       <c r="W26" t="n">
-        <v>0.004607918735724022</v>
+        <v>0.004517268420791873</v>
       </c>
       <c r="X26" t="n">
-        <v>0.004813685194689134</v>
+        <v>0.0133860080141586</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.06794850111550983</v>
+        <v>0.0541309983915854</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.001123893533067938</v>
+        <v>0.001424118920779546</v>
       </c>
       <c r="AA26" t="n">
-        <v>4.978740172373772e-05</v>
+        <v>0.06868681086752347</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01672649860400101</v>
+        <v>0.01710333372537757</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01709577193865367</v>
+        <v>0.005713554100652987</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.3353928790217208</v>
+        <v>0.3171690565470814</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09199900134605932</v>
+        <v>0.08088453305238646</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08509344876506278</v>
+        <v>0.04526709728963891</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07553126944442319</v>
+        <v>0.08825346149562333</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09454653249535716</v>
+        <v>0.06349695383178555</v>
       </c>
       <c r="J27" t="n">
-        <v>0.04366090752529708</v>
+        <v>0.05264656915866021</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05604945245195304</v>
+        <v>0.08078903082691341</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02853168182616245</v>
+        <v>0.09131173148356388</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04099586780287235</v>
+        <v>0.04007843736198372</v>
       </c>
       <c r="N27" t="n">
-        <v>0.00571522121566104</v>
+        <v>0.02624459751831319</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0471401281002899</v>
+        <v>0.05620503934016197</v>
       </c>
       <c r="P27" t="n">
-        <v>0.005223867836659979</v>
+        <v>0.03986563867421739</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01499788836176312</v>
+        <v>0.02177414422764387</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01338931630572766</v>
+        <v>0.0006557843204066302</v>
       </c>
       <c r="S27" t="n">
-        <v>0.03716184843344463</v>
+        <v>0.01108087651583593</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02958009661387035</v>
+        <v>0.009309316946079376</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06921611615148721</v>
+        <v>0.09791793127082545</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03677628066823944</v>
+        <v>0.002081726191096023</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02175014639150809</v>
+        <v>0.01945138396755672</v>
       </c>
       <c r="X27" t="n">
-        <v>0.09595397419043993</v>
+        <v>0.04926004607641035</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0111105983268276</v>
+        <v>0.07188935625505058</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.008032770951929325</v>
+        <v>0.0009464639318016828</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.06247328166722961</v>
+        <v>0.02061668949390675</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.02507030312773476</v>
+        <v>0.02997319077013841</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.05550285939577769</v>
+        <v>0.03574884830703168</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2712772369940015</v>
+        <v>0.2800664917492006</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003321170435098583</v>
+        <v>0.009362853881159948</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0274004966008644</v>
+        <v>0.07620250267741001</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0966505123145559</v>
+        <v>0.04116124698505892</v>
       </c>
       <c r="I28" t="n">
-        <v>0.005475888266681723</v>
+        <v>0.000945452929574466</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0005035026070334274</v>
+        <v>0.02108982327426544</v>
       </c>
       <c r="K28" t="n">
-        <v>0.005526423806529839</v>
+        <v>0.01411451443260447</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08762973381651722</v>
+        <v>0.05737817792485135</v>
       </c>
       <c r="M28" t="n">
-        <v>0.09258396575523876</v>
+        <v>0.07233515432657221</v>
       </c>
       <c r="N28" t="n">
-        <v>0.07988022823793237</v>
+        <v>0.07953261733588318</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02902076802139817</v>
+        <v>0.01099974486522925</v>
       </c>
       <c r="P28" t="n">
-        <v>0.1004372409007922</v>
+        <v>0.00671407289740883</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.002518181432082609</v>
+        <v>0.02019847952436648</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07622801758027296</v>
+        <v>0.06977424434289661</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03626827610197404</v>
+        <v>0.02945236269038314</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01048149567694901</v>
+        <v>0.009667435295312344</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08586107588979876</v>
+        <v>0.07408992496458433</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01746161425933254</v>
+        <v>0.03745335098748192</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01355536046228135</v>
+        <v>0.0492164809799609</v>
       </c>
       <c r="X28" t="n">
-        <v>0.02180952993893602</v>
+        <v>0.07453846006968183</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.08989318892175135</v>
+        <v>0.08739777130987712</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01637551365605703</v>
+        <v>0.07391403554991095</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0851496489115332</v>
+        <v>0.07947429582338969</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01596816640638832</v>
+        <v>0.004986996932136577</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.170454880122183</v>
+        <v>0.1446675415400978</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5767411498942348</v>
+        <v>0.7649124418557106</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08815903439175551</v>
+        <v>0.08671508259113556</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01400779385045115</v>
+        <v>0.003996315880268076</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0535256341310413</v>
+        <v>0.08031762201409362</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02003200262902296</v>
+        <v>0.05126744412975842</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02876159833379968</v>
+        <v>0.01527397490211281</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01405994516354796</v>
+        <v>0.01271605108384125</v>
       </c>
       <c r="L29" t="n">
-        <v>0.08143221168215965</v>
+        <v>0.01123278132237312</v>
       </c>
       <c r="M29" t="n">
-        <v>0.017745397113279</v>
+        <v>0.086707176524837</v>
       </c>
       <c r="N29" t="n">
-        <v>0.06065233807449895</v>
+        <v>0.09351201913985382</v>
       </c>
       <c r="O29" t="n">
-        <v>0.002809424859153247</v>
+        <v>0.001681290478590694</v>
       </c>
       <c r="P29" t="n">
-        <v>0.07877457573972718</v>
+        <v>0.04407564079491368</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.03651850280789806</v>
+        <v>0.02840474155002046</v>
       </c>
       <c r="R29" t="n">
-        <v>0.04969268732505695</v>
+        <v>0.00229572940364424</v>
       </c>
       <c r="S29" t="n">
-        <v>0.09712570164688789</v>
+        <v>0.07798989931453805</v>
       </c>
       <c r="T29" t="n">
-        <v>0.00487991949037315</v>
+        <v>0.03947719874243082</v>
       </c>
       <c r="U29" t="n">
-        <v>0.007385782587664474</v>
+        <v>0.08386790620500298</v>
       </c>
       <c r="V29" t="n">
-        <v>0.05306688111116189</v>
+        <v>0.01492611489332864</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01627640137977619</v>
+        <v>0.05921566724193325</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0889356376509175</v>
+        <v>0.01313152292369286</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.08132175913392978</v>
+        <v>0.0702764349325757</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.08696337790437184</v>
+        <v>0.05505705860063254</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.002439220351659898</v>
+        <v>0.02633175564329656</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.01543417264186585</v>
+        <v>0.04153057168712593</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.1573080498946807</v>
+        <v>0.1504233297723364</v>
       </c>
     </row>
     <row r="30">
@@ -3255,79 +3255,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.193689467502565</v>
+        <v>0.1980376979907946</v>
       </c>
       <c r="F30" t="n">
-        <v>0.046549917190533</v>
+        <v>0.003396170941505365</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06426460758400915</v>
+        <v>0.002030748521740697</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08151642903658002</v>
+        <v>0.05860186140068804</v>
       </c>
       <c r="I30" t="n">
-        <v>0.006483169074788899</v>
+        <v>0.01838430152827464</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01966468149526641</v>
+        <v>0.08563961226440707</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01608313247088315</v>
+        <v>0.002189575631711819</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02056485862348137</v>
+        <v>0.02715794755852044</v>
       </c>
       <c r="M30" t="n">
-        <v>0.08702588609549014</v>
+        <v>0.05992478063622485</v>
       </c>
       <c r="N30" t="n">
-        <v>0.005615230339761488</v>
+        <v>0.04427394848228198</v>
       </c>
       <c r="O30" t="n">
-        <v>0.06059973085558389</v>
+        <v>0.01953248188014845</v>
       </c>
       <c r="P30" t="n">
-        <v>0.001387103813759589</v>
+        <v>0.0005734749390285615</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.04683686149884613</v>
+        <v>0.08921679901150757</v>
       </c>
       <c r="R30" t="n">
-        <v>0.05756433140733928</v>
+        <v>0.08866763984355046</v>
       </c>
       <c r="S30" t="n">
-        <v>0.09067827372268158</v>
+        <v>0.01070519369153504</v>
       </c>
       <c r="T30" t="n">
-        <v>0.07013577130181316</v>
+        <v>0.0740122296825312</v>
       </c>
       <c r="U30" t="n">
-        <v>0.007308490354547102</v>
+        <v>0.003248487868460697</v>
       </c>
       <c r="V30" t="n">
-        <v>0.07352523435240094</v>
+        <v>0.009957067094012947</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01831124435539782</v>
+        <v>0.03121603611743942</v>
       </c>
       <c r="X30" t="n">
-        <v>0.02218565821419576</v>
+        <v>0.03808131001246149</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.07312340975074116</v>
+        <v>0.08881073528176256</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.05188208459452399</v>
+        <v>0.08472150236026209</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.05529294063836237</v>
+        <v>0.08664110254031927</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.02340095322901353</v>
+        <v>0.07301699271162516</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.03489246331960633</v>
+        <v>0.03686650458446161</v>
       </c>
     </row>
     <row r="31">
@@ -3350,79 +3350,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.343025423083185</v>
+        <v>0.2691466807148268</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05818839052981302</v>
+        <v>0.08619478262249382</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0089921941636311</v>
+        <v>0.06195595526763727</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08077154021396687</v>
+        <v>0.04936542346057878</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0399100281477334</v>
+        <v>0.01587351517501199</v>
       </c>
       <c r="J31" t="n">
-        <v>0.009239127562258502</v>
+        <v>0.05794547860756669</v>
       </c>
       <c r="K31" t="n">
-        <v>0.09269044828720545</v>
+        <v>0.0704525477969323</v>
       </c>
       <c r="L31" t="n">
-        <v>0.07856866178607584</v>
+        <v>0.05164304279372346</v>
       </c>
       <c r="M31" t="n">
-        <v>0.009875850000844288</v>
+        <v>0.06085314978531088</v>
       </c>
       <c r="N31" t="n">
-        <v>0.059476582313653</v>
+        <v>0.0006845119129930505</v>
       </c>
       <c r="O31" t="n">
-        <v>0.08305755067906608</v>
+        <v>0.08753620092416414</v>
       </c>
       <c r="P31" t="n">
-        <v>0.02188826630118782</v>
+        <v>0.01947140887323624</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.003575764016598366</v>
+        <v>0.07224869715801584</v>
       </c>
       <c r="R31" t="n">
-        <v>0.03107932870363241</v>
+        <v>0.004415227936586481</v>
       </c>
       <c r="S31" t="n">
-        <v>0.03072934478216835</v>
+        <v>0.04514471185798707</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02042546797204885</v>
+        <v>0.04044373618408428</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02152346078917304</v>
+        <v>0.04766206080096927</v>
       </c>
       <c r="V31" t="n">
-        <v>0.08611889264686197</v>
+        <v>0.08826477687757923</v>
       </c>
       <c r="W31" t="n">
-        <v>0.06739370290691286</v>
+        <v>0.03977439973849243</v>
       </c>
       <c r="X31" t="n">
-        <v>0.05983151532685049</v>
+        <v>0.0206029828365046</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02145152923784063</v>
+        <v>0.01269744374602119</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0103006368788116</v>
+        <v>0.002699384035341873</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.06728919826657805</v>
+        <v>0.02042092238430153</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.03762251848708802</v>
+        <v>0.04364963922446776</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.02556219459158982</v>
+        <v>0.03731925139650764</v>
       </c>
     </row>
     <row r="32">
@@ -3445,79 +3445,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1731953561605876</v>
+        <v>0.1797580221376698</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08733296587962862</v>
+        <v>0.03518050223405551</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02227404846171803</v>
+        <v>0.009620516986873624</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04962539932287038</v>
+        <v>0.09303761412090378</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04459346174721555</v>
+        <v>0.01749384607605033</v>
       </c>
       <c r="J32" t="n">
-        <v>0.001909637681256128</v>
+        <v>0.04443998091824011</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03588924564523005</v>
+        <v>0.05267639752071987</v>
       </c>
       <c r="L32" t="n">
-        <v>0.008064933166249308</v>
+        <v>0.009756406458106624</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01975933273304293</v>
+        <v>0.004031715607220765</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0845672056179966</v>
+        <v>0.09901607941493928</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02609306655006439</v>
+        <v>0.03641616828531155</v>
       </c>
       <c r="P32" t="n">
-        <v>0.01794024911376758</v>
+        <v>0.0008546719408542404</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.04948508624679007</v>
+        <v>0.05261691198991521</v>
       </c>
       <c r="R32" t="n">
-        <v>0.08789957918228715</v>
+        <v>0.07946384238980002</v>
       </c>
       <c r="S32" t="n">
-        <v>0.08434482546620439</v>
+        <v>0.04492889745569651</v>
       </c>
       <c r="T32" t="n">
-        <v>0.007721083526849976</v>
+        <v>0.06761296756153977</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07582555756011282</v>
+        <v>0.05369865957445742</v>
       </c>
       <c r="V32" t="n">
-        <v>0.05646507084205328</v>
+        <v>0.001711019482910671</v>
       </c>
       <c r="W32" t="n">
-        <v>0.04561158828268631</v>
+        <v>0.01001086988114198</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01504521429403421</v>
+        <v>0.02051876112493846</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.02677574036493839</v>
+        <v>0.07769884648900537</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.07114387420246554</v>
+        <v>0.08231147845480426</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.04282147599880514</v>
+        <v>0.09958806130303119</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.03881135811373317</v>
+        <v>0.007315784729483542</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.009768422826175032</v>
+        <v>-0.02204040112013462</v>
       </c>
     </row>
     <row r="33">
@@ -3540,79 +3540,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2140540584157913</v>
+        <v>0.2800770285494281</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08151230121570183</v>
+        <v>0.000523947940774456</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03505960190987836</v>
+        <v>0.02918698899035363</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06443231470537281</v>
+        <v>0.07989330559066803</v>
       </c>
       <c r="I33" t="n">
-        <v>0.07524457431121424</v>
+        <v>0.03555514610547968</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01689538669109185</v>
+        <v>0.009238230348726279</v>
       </c>
       <c r="K33" t="n">
-        <v>0.09583367265034641</v>
+        <v>0.1127920352422588</v>
       </c>
       <c r="L33" t="n">
-        <v>0.08387179211523803</v>
+        <v>0.07263056674346674</v>
       </c>
       <c r="M33" t="n">
-        <v>0.00181188390030315</v>
+        <v>0.09068660514784561</v>
       </c>
       <c r="N33" t="n">
-        <v>0.05367686451653204</v>
+        <v>0.01393272670932116</v>
       </c>
       <c r="O33" t="n">
-        <v>0.02623188175848484</v>
+        <v>0.01394942286741523</v>
       </c>
       <c r="P33" t="n">
-        <v>0.02060657533738264</v>
+        <v>0.08428324013811109</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.008654270145722771</v>
+        <v>0.05404399841921829</v>
       </c>
       <c r="R33" t="n">
-        <v>0.09511314105483593</v>
+        <v>0.04280871714882842</v>
       </c>
       <c r="S33" t="n">
-        <v>0.08324915477794811</v>
+        <v>0.03808451443068081</v>
       </c>
       <c r="T33" t="n">
-        <v>0.03091869734768768</v>
+        <v>0.008422081451845337</v>
       </c>
       <c r="U33" t="n">
-        <v>0.033569802296602</v>
+        <v>0.08481163805634551</v>
       </c>
       <c r="V33" t="n">
-        <v>0.04969991663508647</v>
+        <v>0.1041976579228936</v>
       </c>
       <c r="W33" t="n">
-        <v>0.04258660476985186</v>
+        <v>1.937952959941892e-06</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01448411885081751</v>
+        <v>0.03434268785002893</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.02572622685267103</v>
+        <v>0.03525704948864954</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.01814362005343606</v>
+        <v>0.0051797633574546</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.03250456325460647</v>
+        <v>0.02566896672449659</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01017303484918774</v>
+        <v>0.02450877137217794</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.01337259829181168</v>
+        <v>0.001302360005632001</v>
       </c>
     </row>
     <row r="34">
@@ -3635,79 +3635,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1726916268082336</v>
+        <v>0.1709972278829509</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05731317766120409</v>
+        <v>0.03983815537583412</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001788993610335191</v>
+        <v>0.04034098280014679</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08789660250051062</v>
+        <v>0.07616404775796455</v>
       </c>
       <c r="I34" t="n">
-        <v>0.05429185173202931</v>
+        <v>0.02481136279805136</v>
       </c>
       <c r="J34" t="n">
-        <v>0.03389631553480763</v>
+        <v>0.0118271894620477</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003645843771660908</v>
+        <v>0.001561607191649357</v>
       </c>
       <c r="L34" t="n">
-        <v>0.07090984450522436</v>
+        <v>0.07141387722790928</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06184883977168313</v>
+        <v>0.04184979671880394</v>
       </c>
       <c r="N34" t="n">
-        <v>0.01029093423301126</v>
+        <v>0.03145190986731392</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01063710248687747</v>
+        <v>0.03915852339302281</v>
       </c>
       <c r="P34" t="n">
-        <v>0.06451343096665282</v>
+        <v>0.06459863634764992</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.04624190992187436</v>
+        <v>0.08582186329286465</v>
       </c>
       <c r="R34" t="n">
-        <v>0.06823919805424793</v>
+        <v>0.02598381144274261</v>
       </c>
       <c r="S34" t="n">
-        <v>0.005770895644503933</v>
+        <v>0.01307076998483988</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0807831147511761</v>
+        <v>0.0700796969395775</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0049193405754084</v>
+        <v>0.02820305932447918</v>
       </c>
       <c r="V34" t="n">
-        <v>0.01884115674626945</v>
+        <v>0.000699153328284719</v>
       </c>
       <c r="W34" t="n">
-        <v>0.07104154983999549</v>
+        <v>0.02453401796785015</v>
       </c>
       <c r="X34" t="n">
-        <v>0.05727422932749223</v>
+        <v>0.077183115275237</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.03416382212719341</v>
+        <v>0.01165647082147439</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0512437061607362</v>
+        <v>0.05999364789015466</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.02529456666355148</v>
+        <v>0.08476207330885227</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.07915357341355428</v>
+        <v>0.07499623148324926</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.1303309101017716</v>
+        <v>0.09656640136724229</v>
       </c>
     </row>
     <row r="35">
@@ -3730,79 +3730,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2268979644442034</v>
+        <v>0.2726542225371287</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001788997806938978</v>
+        <v>0.04314100410881643</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0938673194028553</v>
+        <v>0.01054405683613225</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02119860514683327</v>
+        <v>0.0686238394017705</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0422289851218992</v>
+        <v>0.0765522813095853</v>
       </c>
       <c r="J35" t="n">
-        <v>0.08476427490645867</v>
+        <v>0.04091347236680034</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06198011746412232</v>
+        <v>0.0791505030866383</v>
       </c>
       <c r="L35" t="n">
-        <v>0.03895775982419109</v>
+        <v>0.0404074445297281</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09064647919760638</v>
+        <v>0.08558742038824167</v>
       </c>
       <c r="N35" t="n">
-        <v>0.02620720326593861</v>
+        <v>0.02163121632061657</v>
       </c>
       <c r="O35" t="n">
-        <v>0.02278248910839568</v>
+        <v>0.008222300500945953</v>
       </c>
       <c r="P35" t="n">
-        <v>0.09639480433072996</v>
+        <v>0.1132107068058187</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.03613519253872186</v>
+        <v>0.003227818278120387</v>
       </c>
       <c r="R35" t="n">
-        <v>0.05361834865623693</v>
+        <v>0.07225833079802664</v>
       </c>
       <c r="S35" t="n">
-        <v>0.02732428852639392</v>
+        <v>0.005014611676355423</v>
       </c>
       <c r="T35" t="n">
-        <v>0.01966267946501739</v>
+        <v>0.004340215292454438</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06491851341995611</v>
+        <v>0.005359650041869718</v>
       </c>
       <c r="V35" t="n">
-        <v>0.02445767476213267</v>
+        <v>0.08412204878614113</v>
       </c>
       <c r="W35" t="n">
-        <v>0.02428410888346793</v>
+        <v>0.0910588358059599</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0419461972696339</v>
+        <v>0.01591960667688807</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.02779961181809362</v>
+        <v>0.002693353036381981</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.08248875420203625</v>
+        <v>0.07369844791000682</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.002177067912887719</v>
+        <v>0.02706000877508356</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.01437052696945224</v>
+        <v>0.02726282726761756</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1279487694111744</v>
+        <v>0.1697810557233021</v>
       </c>
     </row>
     <row r="36">
@@ -3825,79 +3825,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1587718352202822</v>
+        <v>0.1612368834156259</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06638450093448919</v>
+        <v>0.07408215080172761</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05723141714215471</v>
+        <v>0.02762894599593305</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05996265822284033</v>
+        <v>0.07038826059894263</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02708418920880847</v>
+        <v>0.001652900207925358</v>
       </c>
       <c r="J36" t="n">
-        <v>0.009115776893395664</v>
+        <v>0.006921738091321905</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01813058314378619</v>
+        <v>0.00658363878881876</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03084067917949268</v>
+        <v>0.006700206226297753</v>
       </c>
       <c r="M36" t="n">
-        <v>0.07998598772913842</v>
+        <v>0.0367237567158647</v>
       </c>
       <c r="N36" t="n">
-        <v>0.02810472632520301</v>
+        <v>0.05088190520546861</v>
       </c>
       <c r="O36" t="n">
-        <v>0.07539612829625141</v>
+        <v>0.03874220692931514</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0033375055314449</v>
+        <v>0.02962973892987628</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.05548899641118756</v>
+        <v>0.06711214952984729</v>
       </c>
       <c r="R36" t="n">
-        <v>0.08235541791959143</v>
+        <v>0.07179621014873369</v>
       </c>
       <c r="S36" t="n">
-        <v>0.05457330345788711</v>
+        <v>0.0544991864416152</v>
       </c>
       <c r="T36" t="n">
-        <v>0.001702179743226583</v>
+        <v>0.01793742410482145</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07224801781221564</v>
+        <v>0.007965052390094162</v>
       </c>
       <c r="V36" t="n">
-        <v>0.03954140959929146</v>
+        <v>0.06805441571986499</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01732221831775381</v>
+        <v>0.0428352644908972</v>
       </c>
       <c r="X36" t="n">
-        <v>0.002948645739048707</v>
+        <v>0.05911449866595776</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.03906046386667966</v>
+        <v>0.07503222574591802</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.06356793386505619</v>
+        <v>0.07036804469277724</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.07179494209712249</v>
+        <v>0.06427813093912929</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.04382231856393446</v>
+        <v>0.05107194863885191</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.0236796474825606</v>
+        <v>-0.04102729632469536</v>
       </c>
     </row>
     <row r="37">
@@ -3920,79 +3920,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1983838205052335</v>
+        <v>0.2166221987776458</v>
       </c>
       <c r="F37" t="n">
-        <v>0.002994004675360706</v>
+        <v>0.005843898391323912</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02159546464743421</v>
+        <v>0.02045175754613603</v>
       </c>
       <c r="H37" t="n">
-        <v>0.06850197649010621</v>
+        <v>0.03463361609906426</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07684031947110723</v>
+        <v>0.06889406270653414</v>
       </c>
       <c r="J37" t="n">
-        <v>0.08765151796029975</v>
+        <v>0.06780468431415763</v>
       </c>
       <c r="K37" t="n">
-        <v>0.03989622816365133</v>
+        <v>0.08767722381468264</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01299722469996479</v>
+        <v>0.01274324042467382</v>
       </c>
       <c r="M37" t="n">
-        <v>0.004006365804201476</v>
+        <v>0.01823733855121672</v>
       </c>
       <c r="N37" t="n">
-        <v>0.006557756623332892</v>
+        <v>0.01849947086863932</v>
       </c>
       <c r="O37" t="n">
-        <v>0.06800294886556876</v>
+        <v>0.04227119240239217</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0875153652457598</v>
+        <v>0.01418588913945671</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.03393415181028109</v>
+        <v>0.005190849411094153</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0559054666010047</v>
+        <v>0.0843535642139193</v>
       </c>
       <c r="S37" t="n">
-        <v>0.01142335888866724</v>
+        <v>0.02242935769755495</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01748892633142433</v>
+        <v>0.07219243778026892</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07489255994265653</v>
+        <v>0.08747231419810729</v>
       </c>
       <c r="V37" t="n">
-        <v>0.07995174839280224</v>
+        <v>0.06114500868695969</v>
       </c>
       <c r="W37" t="n">
-        <v>0.08956156785710896</v>
+        <v>0.08495791940361215</v>
       </c>
       <c r="X37" t="n">
-        <v>0.06983856789622282</v>
+        <v>0.05329479538432462</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.005228632634961027</v>
+        <v>0.02002111718041218</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.0186862611361408</v>
+        <v>0.05247437209694097</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.02095272753265149</v>
+        <v>0.0002069169357837504</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.04557685832929145</v>
+        <v>0.06501897275274478</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.0202850970174027</v>
+        <v>-0.02215038138807492</v>
       </c>
     </row>
     <row r="38">
@@ -4015,79 +4015,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2040692178376248</v>
+        <v>0.2037366227841013</v>
       </c>
       <c r="F38" t="n">
-        <v>0.055063864800212</v>
+        <v>0.04537832259369459</v>
       </c>
       <c r="G38" t="n">
-        <v>0.009260823857373703</v>
+        <v>0.01188848017737082</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00300610566476867</v>
+        <v>0.03466888072645116</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04864990714834012</v>
+        <v>0.03673932231131587</v>
       </c>
       <c r="J38" t="n">
-        <v>0.09745974584022228</v>
+        <v>0.04222848561186365</v>
       </c>
       <c r="K38" t="n">
-        <v>0.04215023342297606</v>
+        <v>0.0491639443994806</v>
       </c>
       <c r="L38" t="n">
-        <v>0.009183783874971865</v>
+        <v>0.007032604633552601</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02527117090394132</v>
+        <v>0.02926574498883832</v>
       </c>
       <c r="N38" t="n">
-        <v>0.005419755280921753</v>
+        <v>0.06108638085432129</v>
       </c>
       <c r="O38" t="n">
-        <v>0.09427824785183563</v>
+        <v>0.0316383679054014</v>
       </c>
       <c r="P38" t="n">
-        <v>0.04598158924535692</v>
+        <v>0.06393143570688871</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.02467448667304803</v>
+        <v>0.01638565613536051</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0213043250219014</v>
+        <v>0.0393381205768692</v>
       </c>
       <c r="S38" t="n">
-        <v>0.001443390946957205</v>
+        <v>0.01159910094148451</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0777121355980028</v>
+        <v>0.08094506927606192</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09003584289773402</v>
+        <v>0.03771156859843387</v>
       </c>
       <c r="V38" t="n">
-        <v>0.06895234595559378</v>
+        <v>0.09336412981452151</v>
       </c>
       <c r="W38" t="n">
-        <v>0.08140944857867059</v>
+        <v>0.09189422550741248</v>
       </c>
       <c r="X38" t="n">
-        <v>0.05039272095859851</v>
+        <v>0.09312039480165765</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.03015590433918313</v>
+        <v>0.007330114873065411</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.005776400014448431</v>
+        <v>0.005251947170801983</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.03605432485704203</v>
+        <v>0.07980104102369713</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.07636344626789957</v>
+        <v>0.0302366613714546</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.03222736096870454</v>
+        <v>-0.05827896936535189</v>
       </c>
     </row>
     <row r="39">
@@ -4110,79 +4110,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2764400935337334</v>
+        <v>0.320805801814307</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08946284183641096</v>
+        <v>0.07918698552407144</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0101762074488997</v>
+        <v>0.05153107312925174</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04454728479496702</v>
+        <v>0.03581096957143005</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03679795775602866</v>
+        <v>0.01465636783880906</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01573966656369362</v>
+        <v>0.01590774990608706</v>
       </c>
       <c r="K39" t="n">
-        <v>0.09285784129349443</v>
+        <v>0.07830140295629433</v>
       </c>
       <c r="L39" t="n">
-        <v>0.013970086625626</v>
+        <v>0.02355333292162188</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04310240514881729</v>
+        <v>0.07071455617659855</v>
       </c>
       <c r="N39" t="n">
-        <v>0.05146521747622564</v>
+        <v>0.03490402061444672</v>
       </c>
       <c r="O39" t="n">
-        <v>0.04305498599057032</v>
+        <v>0.02266131816163716</v>
       </c>
       <c r="P39" t="n">
-        <v>0.1056120801672753</v>
+        <v>0.0520961225871876</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.03340275724779317</v>
+        <v>0.003373109294127213</v>
       </c>
       <c r="R39" t="n">
-        <v>0.04003118165152147</v>
+        <v>0.02017169688863234</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0446352727826323</v>
+        <v>0.04642416973974433</v>
       </c>
       <c r="T39" t="n">
-        <v>0.03444962669970034</v>
+        <v>0.09304495590210336</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03115068121455242</v>
+        <v>0.09533488001188352</v>
       </c>
       <c r="V39" t="n">
-        <v>0.1115866575427652</v>
+        <v>0.1032856760464769</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01374802805429283</v>
+        <v>0.00994138712154783</v>
       </c>
       <c r="X39" t="n">
-        <v>0.03677182322798452</v>
+        <v>0.004289498808470397</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.005060073007738882</v>
+        <v>0.02117648526883528</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0544005036818156</v>
+        <v>0.07319702317861729</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.03808742676625061</v>
+        <v>0.03807686636189208</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.009889393020943972</v>
+        <v>0.0123603519902338</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.03441125542364715</v>
+        <v>-0.02541269692003024</v>
       </c>
     </row>
     <row r="40">
@@ -4205,79 +4205,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.210564015770569</v>
+        <v>0.2101799669783669</v>
       </c>
       <c r="F40" t="n">
-        <v>0.002185013822787589</v>
+        <v>0.001558834432054109</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04274968880333251</v>
+        <v>0.06916247583841509</v>
       </c>
       <c r="H40" t="n">
-        <v>0.06270070505354761</v>
+        <v>0.04609450532372043</v>
       </c>
       <c r="I40" t="n">
-        <v>0.001703320520433773</v>
+        <v>0.0100503009314114</v>
       </c>
       <c r="J40" t="n">
-        <v>0.07439017453618267</v>
+        <v>0.04880117449879887</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03897430827033193</v>
+        <v>0.02307758884208642</v>
       </c>
       <c r="L40" t="n">
-        <v>0.08921544971127876</v>
+        <v>0.0147218156651416</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01195646254333978</v>
+        <v>0.06863250026184974</v>
       </c>
       <c r="N40" t="n">
-        <v>0.04575437557886923</v>
+        <v>0.05701384742942076</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0007093028561848602</v>
+        <v>0.04570936691744228</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0136070972361609</v>
+        <v>0.02212637386411226</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.06368997381841943</v>
+        <v>0.05889983332680038</v>
       </c>
       <c r="R40" t="n">
-        <v>0.04870708208337089</v>
+        <v>0.0459470475245638</v>
       </c>
       <c r="S40" t="n">
-        <v>0.06393909535424257</v>
+        <v>0.02565513029944776</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03707488397377908</v>
+        <v>0.02210175315734638</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09953372114545785</v>
+        <v>0.07667345464154197</v>
       </c>
       <c r="V40" t="n">
-        <v>0.04569491990834344</v>
+        <v>0.03915979352485392</v>
       </c>
       <c r="W40" t="n">
-        <v>0.03293042663606274</v>
+        <v>0.07334292188013279</v>
       </c>
       <c r="X40" t="n">
-        <v>0.08496181697585316</v>
+        <v>0.06137733073915845</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.02528321304071345</v>
+        <v>0.00906165731236736</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.06220118630979329</v>
+        <v>0.05517844123145679</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.04500811742029811</v>
+        <v>0.06739396863402584</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.007029664401216381</v>
+        <v>0.05825988372385163</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1396198565970651</v>
+        <v>0.1364616655626349</v>
       </c>
     </row>
     <row r="41">
@@ -4300,79 +4300,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.6283888355812262</v>
+        <v>0.6628384852828119</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1009701738842858</v>
+        <v>0.1062811504296639</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03297130168289684</v>
+        <v>0.1019691825058206</v>
       </c>
       <c r="H41" t="n">
-        <v>0.008153510021615058</v>
+        <v>0.03303870588417535</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01971070352451516</v>
+        <v>0.007302376027057264</v>
       </c>
       <c r="J41" t="n">
-        <v>0.001556715561241225</v>
+        <v>0.01254595166012598</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03951385360188731</v>
+        <v>0.02310919677345473</v>
       </c>
       <c r="L41" t="n">
-        <v>0.09141459624596789</v>
+        <v>0.0572897527969384</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01928607010761132</v>
+        <v>0.04062294955320046</v>
       </c>
       <c r="N41" t="n">
-        <v>0.02124558025093722</v>
+        <v>0.02816352366603598</v>
       </c>
       <c r="O41" t="n">
-        <v>0.02558247416140548</v>
+        <v>0.01599939718552777</v>
       </c>
       <c r="P41" t="n">
-        <v>0.03857871309097565</v>
+        <v>0.07304004523775377</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.005461750404839489</v>
+        <v>0.05431703481558146</v>
       </c>
       <c r="R41" t="n">
-        <v>0.04304326765367009</v>
+        <v>0.009547364105724238</v>
       </c>
       <c r="S41" t="n">
-        <v>0.01013539647145789</v>
+        <v>0.07456886981852917</v>
       </c>
       <c r="T41" t="n">
-        <v>0.08105870997383294</v>
+        <v>0.07040395181277961</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05859921699094692</v>
+        <v>0.08765069584618862</v>
       </c>
       <c r="V41" t="n">
-        <v>0.08620000713258411</v>
+        <v>0.005351964030033975</v>
       </c>
       <c r="W41" t="n">
-        <v>0.03461831404863368</v>
+        <v>0.06311027467407576</v>
       </c>
       <c r="X41" t="n">
-        <v>0.03540358023710686</v>
+        <v>0.001560073755409222</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.05127259894914732</v>
+        <v>0.007580222347642224</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.1012700602024558</v>
+        <v>0.08501783349542698</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.06315362831239832</v>
+        <v>0.03746823563786882</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.03079977748958765</v>
+        <v>0.004061247940985749</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1510939831484697</v>
+        <v>0.1350205909486641</v>
       </c>
     </row>
     <row r="42">
@@ -4395,79 +4395,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2072938175443747</v>
+        <v>0.2076211367793734</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02089258572929861</v>
+        <v>0.1051929791698308</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06025211230225353</v>
+        <v>0.06249665915929059</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04624174154772837</v>
+        <v>0.0359125991330199</v>
       </c>
       <c r="I42" t="n">
-        <v>0.038139718244246</v>
+        <v>0.05103303120184237</v>
       </c>
       <c r="J42" t="n">
-        <v>0.04191509235997106</v>
+        <v>0.01484809132474264</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0440838096785856</v>
+        <v>0.06167606080517969</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02888219514121248</v>
+        <v>0.02923652215978457</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0957066684896738</v>
+        <v>0.1040921870572135</v>
       </c>
       <c r="N42" t="n">
-        <v>0.02582290392373034</v>
+        <v>0.02520841944402847</v>
       </c>
       <c r="O42" t="n">
-        <v>0.005978610882319244</v>
+        <v>0.006815209934463427</v>
       </c>
       <c r="P42" t="n">
-        <v>0.01684164397927281</v>
+        <v>0.06769813408519684</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.07361931035287701</v>
+        <v>0.01210245055281499</v>
       </c>
       <c r="R42" t="n">
-        <v>0.0818105475979866</v>
+        <v>0.0787588394678566</v>
       </c>
       <c r="S42" t="n">
-        <v>0.053097611582308</v>
+        <v>0.0007462166554607064</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02970584913877432</v>
+        <v>0.01259677225717444</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04706702417992845</v>
+        <v>0.02993272751913838</v>
       </c>
       <c r="V42" t="n">
-        <v>0.03470139188952552</v>
+        <v>0.05528517585106349</v>
       </c>
       <c r="W42" t="n">
-        <v>0.06323366226329391</v>
+        <v>0.008698851253031298</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0991323119612781</v>
+        <v>0.0903147621084025</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.04793693397139537</v>
+        <v>0.06424758853513968</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.03715808640087056</v>
+        <v>0.0737758385513321</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.00281387219070158</v>
+        <v>0.003643676102421893</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.004966316192768821</v>
+        <v>0.005687207671571295</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.05994046350944271</v>
+        <v>0.07116193170672798</v>
       </c>
     </row>
     <row r="43">
@@ -4490,79 +4490,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.9868276499045457</v>
+        <v>1.299295257640974</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04270613740695887</v>
+        <v>0.0517502008814865</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04144858516148245</v>
+        <v>0.04177449670851451</v>
       </c>
       <c r="H43" t="n">
-        <v>0.08215635659299493</v>
+        <v>0.0415242160047961</v>
       </c>
       <c r="I43" t="n">
-        <v>0.07861177673354595</v>
+        <v>0.06432487062733756</v>
       </c>
       <c r="J43" t="n">
-        <v>0.05874464710192484</v>
+        <v>0.04144573624303634</v>
       </c>
       <c r="K43" t="n">
-        <v>0.008918886392931483</v>
+        <v>0.01208183582955267</v>
       </c>
       <c r="L43" t="n">
-        <v>0.07031467912895104</v>
+        <v>0.03064845154724486</v>
       </c>
       <c r="M43" t="n">
-        <v>0.09546306940796331</v>
+        <v>0.1223955039642455</v>
       </c>
       <c r="N43" t="n">
-        <v>0.00121810937199326</v>
+        <v>0.001375845057537586</v>
       </c>
       <c r="O43" t="n">
-        <v>0.01136766797659841</v>
+        <v>0.002245961846643247</v>
       </c>
       <c r="P43" t="n">
-        <v>0.07926008767836275</v>
+        <v>0.09418926254675115</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.004413629478143774</v>
+        <v>0.004470694198461715</v>
       </c>
       <c r="R43" t="n">
-        <v>0.001332463130013466</v>
+        <v>0.09891116553284326</v>
       </c>
       <c r="S43" t="n">
-        <v>0.07339304211695283</v>
+        <v>0.01682224908301556</v>
       </c>
       <c r="T43" t="n">
-        <v>0.004542328295222138</v>
+        <v>0.01159145861038914</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1070079676120187</v>
+        <v>0.0001432387091964965</v>
       </c>
       <c r="V43" t="n">
-        <v>0.004086943059670233</v>
+        <v>0.0470466880852425</v>
       </c>
       <c r="W43" t="n">
-        <v>0.008489373784140834</v>
+        <v>0.07894667092509018</v>
       </c>
       <c r="X43" t="n">
-        <v>0.006797654996305081</v>
+        <v>0.001022321755398444</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.05681009757410877</v>
+        <v>0.05330175949409654</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.003619680648129546</v>
+        <v>0.03672219423932579</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.1055714829925237</v>
+        <v>0.1388982298036377</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.0537253333590637</v>
+        <v>0.008366948306156818</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.03908044444707088</v>
+        <v>0.06067289311419088</v>
       </c>
     </row>
     <row r="44">
@@ -4585,79 +4585,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.2168060734197244</v>
+        <v>0.2250510982402824</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04863271004408182</v>
+        <v>0.0650678496267568</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01165481717675123</v>
+        <v>0.01247744644337202</v>
       </c>
       <c r="H44" t="n">
-        <v>0.08236416041951755</v>
+        <v>0.02570664218654486</v>
       </c>
       <c r="I44" t="n">
-        <v>0.004781740771514183</v>
+        <v>0.04107340158248491</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0790010397690657</v>
+        <v>0.07522554363840743</v>
       </c>
       <c r="K44" t="n">
-        <v>0.09354348783006029</v>
+        <v>0.04860736214872941</v>
       </c>
       <c r="L44" t="n">
-        <v>0.03700699536020061</v>
+        <v>0.08822387647788572</v>
       </c>
       <c r="M44" t="n">
-        <v>0.07311186720688398</v>
+        <v>0.07141598045985575</v>
       </c>
       <c r="N44" t="n">
-        <v>0.06086716466451925</v>
+        <v>0.08272747818001122</v>
       </c>
       <c r="O44" t="n">
-        <v>0.07659466604029039</v>
+        <v>0.09053019888656107</v>
       </c>
       <c r="P44" t="n">
-        <v>0.02275085708655469</v>
+        <v>0.008659687545573542</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.02860096757401813</v>
+        <v>0.00616194637613504</v>
       </c>
       <c r="R44" t="n">
-        <v>0.04727334342243825</v>
+        <v>0.01637235216526362</v>
       </c>
       <c r="S44" t="n">
-        <v>0.03219641660830205</v>
+        <v>0.04745900194134086</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0666707198381145</v>
+        <v>0.0802266360961406</v>
       </c>
       <c r="U44" t="n">
-        <v>0.009300846052029023</v>
+        <v>0.003677045911947869</v>
       </c>
       <c r="V44" t="n">
-        <v>0.01216480589109538</v>
+        <v>0.0009299382362931611</v>
       </c>
       <c r="W44" t="n">
-        <v>0.009525223304630447</v>
+        <v>0.002672954600626937</v>
       </c>
       <c r="X44" t="n">
-        <v>0.07400299171691797</v>
+        <v>0.06346580387150694</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.03791318751183444</v>
+        <v>0.04004729239104713</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.03848766091807022</v>
+        <v>0.02074941900908424</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.04328048007374288</v>
+        <v>0.0475228380081555</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.01027385071936689</v>
+        <v>0.06099930421627529</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.04766647269244769</v>
+        <v>0.04280101998521783</v>
       </c>
     </row>
     <row r="45">
@@ -4680,79 +4680,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.4336237497489005</v>
+        <v>0.52689787553833</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02428037743743059</v>
+        <v>0.004548546683842077</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09847863233138074</v>
+        <v>0.07995289811727047</v>
       </c>
       <c r="H45" t="n">
-        <v>0.008115035977944015</v>
+        <v>0.03887130419211862</v>
       </c>
       <c r="I45" t="n">
-        <v>0.005583136768368483</v>
+        <v>0.04874167522781239</v>
       </c>
       <c r="J45" t="n">
-        <v>0.09869108617238827</v>
+        <v>0.04668349341960257</v>
       </c>
       <c r="K45" t="n">
-        <v>0.05361261128826956</v>
+        <v>0.02959324391684896</v>
       </c>
       <c r="L45" t="n">
-        <v>0.04895118391746132</v>
+        <v>0.0001396040945295666</v>
       </c>
       <c r="M45" t="n">
-        <v>0.03080739590258723</v>
+        <v>0.04156057971050744</v>
       </c>
       <c r="N45" t="n">
-        <v>0.02231796854986053</v>
+        <v>0.0301193758206531</v>
       </c>
       <c r="O45" t="n">
-        <v>0.02012344772631156</v>
+        <v>0.1482789955981867</v>
       </c>
       <c r="P45" t="n">
-        <v>0.01269178880909162</v>
+        <v>0.03027640150848473</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0981285666578002</v>
+        <v>0.03818524693449071</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01962173793752847</v>
+        <v>0.01071601850390384</v>
       </c>
       <c r="S45" t="n">
-        <v>0.08055697442125236</v>
+        <v>0.03614229664573049</v>
       </c>
       <c r="T45" t="n">
-        <v>0.02083367708318308</v>
+        <v>0.04929980795053378</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0942263443885608</v>
+        <v>0.1104723202964947</v>
       </c>
       <c r="V45" t="n">
-        <v>0.02022037385929617</v>
+        <v>0.02285921066696504</v>
       </c>
       <c r="W45" t="n">
-        <v>0.02219652321726549</v>
+        <v>0.01847635259809659</v>
       </c>
       <c r="X45" t="n">
-        <v>0.07168113396978573</v>
+        <v>0.02727442744565697</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.03044192872513956</v>
+        <v>0.01226755255044296</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.02344882754758078</v>
+        <v>0.03600064403768384</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.07670608482775179</v>
+        <v>0.08325667878792047</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.01828516248376181</v>
+        <v>0.0562833252922242</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.0201826906054266</v>
+        <v>0.03808508437875471</v>
       </c>
     </row>
     <row r="46">
@@ -4775,79 +4775,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1694135554815737</v>
+        <v>0.1708660923267223</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0002670452926362811</v>
+        <v>0.008130305011219252</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03101470553079464</v>
+        <v>0.03719901900889785</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01219911363321425</v>
+        <v>0.02579924890391683</v>
       </c>
       <c r="I46" t="n">
-        <v>0.07987420466618743</v>
+        <v>0.05620842722790393</v>
       </c>
       <c r="J46" t="n">
-        <v>0.08152318793157029</v>
+        <v>0.06614723584407153</v>
       </c>
       <c r="K46" t="n">
-        <v>0.04640173288970892</v>
+        <v>0.04210855170425148</v>
       </c>
       <c r="L46" t="n">
-        <v>0.05887267479483225</v>
+        <v>0.06296240577717377</v>
       </c>
       <c r="M46" t="n">
-        <v>0.07002252787940851</v>
+        <v>0.03825840872390614</v>
       </c>
       <c r="N46" t="n">
-        <v>0.000728118414195287</v>
+        <v>0.02143003192057131</v>
       </c>
       <c r="O46" t="n">
-        <v>0.009505959276404102</v>
+        <v>0.03867841693030752</v>
       </c>
       <c r="P46" t="n">
-        <v>0.04813712077140835</v>
+        <v>0.0627802641663061</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02611280484351317</v>
+        <v>0.0673223625373013</v>
       </c>
       <c r="R46" t="n">
-        <v>0.07107392473340435</v>
+        <v>0.07553503504119999</v>
       </c>
       <c r="S46" t="n">
-        <v>0.0395150310574159</v>
+        <v>0.0710297773085104</v>
       </c>
       <c r="T46" t="n">
-        <v>0.07483801513565866</v>
+        <v>0.05780445297118006</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08129363490544966</v>
+        <v>0.06439369915122842</v>
       </c>
       <c r="V46" t="n">
-        <v>0.02078923976879122</v>
+        <v>0.005523144711752942</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07994979898106017</v>
+        <v>0.02381253925720276</v>
       </c>
       <c r="X46" t="n">
-        <v>0.03122790682439833</v>
+        <v>0.03275964181844821</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.05757954948444924</v>
+        <v>0.05035160568522557</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.05824658118065947</v>
+        <v>0.03492387884995063</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.01521347435128457</v>
+        <v>0.05620489819644913</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.005613647653555008</v>
+        <v>0.000636649253024975</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.04719945396433953</v>
+        <v>-0.06522490415401151</v>
       </c>
     </row>
     <row r="47">
@@ -4870,79 +4870,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.6798578981484414</v>
+        <v>0.8979880169014467</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01922747159342445</v>
+        <v>0.009579074355398037</v>
       </c>
       <c r="G47" t="n">
-        <v>0.004697503178485957</v>
+        <v>0.03825524662978423</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0652305017160846</v>
+        <v>0.0279544363631783</v>
       </c>
       <c r="I47" t="n">
-        <v>0.04454372715299012</v>
+        <v>0.0206488346152623</v>
       </c>
       <c r="J47" t="n">
-        <v>0.021078660199749</v>
+        <v>0.07172455128751537</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0709520279303283</v>
+        <v>0.005647052277660456</v>
       </c>
       <c r="L47" t="n">
-        <v>0.02377652849270078</v>
+        <v>0.04130347051708957</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0805706157488158</v>
+        <v>0.09449031233267427</v>
       </c>
       <c r="N47" t="n">
-        <v>0.07195662867387323</v>
+        <v>0.08097718262363642</v>
       </c>
       <c r="O47" t="n">
-        <v>0.07700639341460165</v>
+        <v>0.03943144746551311</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0266635501477728</v>
+        <v>0.04779197726155911</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.02629658586268932</v>
+        <v>0.04488361149336698</v>
       </c>
       <c r="R47" t="n">
-        <v>0.07453889185436115</v>
+        <v>0.01426137220406619</v>
       </c>
       <c r="S47" t="n">
-        <v>0.08141804403193628</v>
+        <v>0.01034697603643796</v>
       </c>
       <c r="T47" t="n">
-        <v>0.007501157544504955</v>
+        <v>0.06700145603174373</v>
       </c>
       <c r="U47" t="n">
-        <v>0.08345362194695036</v>
+        <v>0.07420059379666243</v>
       </c>
       <c r="V47" t="n">
-        <v>0.007187029041696658</v>
+        <v>0.0007129166836951619</v>
       </c>
       <c r="W47" t="n">
-        <v>0.02224902412672619</v>
+        <v>0.05677599299521688</v>
       </c>
       <c r="X47" t="n">
-        <v>0.02026976158140359</v>
+        <v>0.001534444101178312</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.03505150372193462</v>
+        <v>0.07640386327648954</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.03250429747457097</v>
+        <v>0.05671957499421858</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.02065738734263223</v>
+        <v>0.008971670207416439</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.08316908722176684</v>
+        <v>0.1103839424502367</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.08610552790038281</v>
+        <v>-0.0939668769660478</v>
       </c>
     </row>
     <row r="48">
@@ -4965,79 +4965,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1370227827130188</v>
+        <v>0.1312043594766581</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03149175891973125</v>
+        <v>0.04110967311688439</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05229590809906897</v>
+        <v>0.05281593099158455</v>
       </c>
       <c r="H48" t="n">
-        <v>0.09678049366457912</v>
+        <v>0.05351661712846686</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02208758252137587</v>
+        <v>0.004585410150086249</v>
       </c>
       <c r="J48" t="n">
-        <v>0.07468800700539491</v>
+        <v>0.0888572839066535</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0263956694411608</v>
+        <v>0.02316337435320715</v>
       </c>
       <c r="L48" t="n">
-        <v>0.003840483220432189</v>
+        <v>0.009994021385037917</v>
       </c>
       <c r="M48" t="n">
-        <v>0.01063482249881567</v>
+        <v>0.03243668764840753</v>
       </c>
       <c r="N48" t="n">
-        <v>0.01497630481843313</v>
+        <v>0.06081449972193696</v>
       </c>
       <c r="O48" t="n">
-        <v>0.01874410138761503</v>
+        <v>0.008924796429907966</v>
       </c>
       <c r="P48" t="n">
-        <v>0.04930211361400654</v>
+        <v>0.08964796624075581</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0542373995327076</v>
+        <v>0.0616970963676637</v>
       </c>
       <c r="R48" t="n">
-        <v>0.03153902785095532</v>
+        <v>0.01567186936737648</v>
       </c>
       <c r="S48" t="n">
-        <v>0.07038233731581373</v>
+        <v>0.02688303996959362</v>
       </c>
       <c r="T48" t="n">
-        <v>0.08513243781692206</v>
+        <v>0.06828444105018229</v>
       </c>
       <c r="U48" t="n">
-        <v>0.09333624439376642</v>
+        <v>0.01205056831276208</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0151899529091593</v>
+        <v>0.01949811098227789</v>
       </c>
       <c r="W48" t="n">
-        <v>0.08551237414083347</v>
+        <v>0.07452623105475081</v>
       </c>
       <c r="X48" t="n">
-        <v>0.00747745343853184</v>
+        <v>0.08874607396266292</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.03814846521451414</v>
+        <v>0.02943775976448997</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.08263859539319764</v>
+        <v>0.05050372871712813</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.01903233807336767</v>
+        <v>0.01585193089507862</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.01613612872961716</v>
+        <v>0.07098288848310448</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.1586204885656599</v>
+        <v>-0.0989509775500266</v>
       </c>
     </row>
     <row r="49">
@@ -5060,79 +5060,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.2070281165421059</v>
+        <v>0.1921155663396338</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02295379479861528</v>
+        <v>0.07820266704149821</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08152045348975911</v>
+        <v>0.08376396218777814</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03052128234804983</v>
+        <v>0.00534649658556911</v>
       </c>
       <c r="I49" t="n">
-        <v>0.07636874345947679</v>
+        <v>0.02139382157659148</v>
       </c>
       <c r="J49" t="n">
-        <v>0.01645733756972223</v>
+        <v>0.02318417720566794</v>
       </c>
       <c r="K49" t="n">
-        <v>0.03549008315068152</v>
+        <v>0.027453004672657</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01240503479999957</v>
+        <v>0.01867284793711977</v>
       </c>
       <c r="M49" t="n">
-        <v>0.09337639174079472</v>
+        <v>0.08277377190524365</v>
       </c>
       <c r="N49" t="n">
-        <v>0.02593409815997696</v>
+        <v>0.01641015384786172</v>
       </c>
       <c r="O49" t="n">
-        <v>0.09007188627469925</v>
+        <v>0.07465023386872799</v>
       </c>
       <c r="P49" t="n">
-        <v>0.07032950111129184</v>
+        <v>0.01160300382036699</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.07241606598764787</v>
+        <v>0.01214994881998812</v>
       </c>
       <c r="R49" t="n">
-        <v>0.03047373851899932</v>
+        <v>0.03149049327976668</v>
       </c>
       <c r="S49" t="n">
-        <v>0.001739833057524601</v>
+        <v>0.005920009868623395</v>
       </c>
       <c r="T49" t="n">
-        <v>0.01235439024129685</v>
+        <v>0.0253603754269683</v>
       </c>
       <c r="U49" t="n">
-        <v>0.01068545949091339</v>
+        <v>0.08056247465744723</v>
       </c>
       <c r="V49" t="n">
-        <v>0.001304318978209505</v>
+        <v>0.03079731019016332</v>
       </c>
       <c r="W49" t="n">
-        <v>0.04760953448724977</v>
+        <v>0.05015409244659167</v>
       </c>
       <c r="X49" t="n">
-        <v>0.04906902230825789</v>
+        <v>0.03301252637635694</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.09476331463599469</v>
+        <v>0.08649230270834936</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.09211820132400783</v>
+        <v>0.07745418569559052</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.009965785638511526</v>
+        <v>0.07534873761683933</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.02207172842831958</v>
+        <v>0.04780340226423322</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.1188900629536321</v>
+        <v>-0.1107892339138908</v>
       </c>
     </row>
     <row r="50">
@@ -5155,79 +5155,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1247166454921791</v>
+        <v>0.1219352493802871</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0007406922079329776</v>
+        <v>0.008246587132425192</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07334722642415561</v>
+        <v>0.011416917151007</v>
       </c>
       <c r="H50" t="n">
-        <v>0.06371026378644136</v>
+        <v>0.06059168697125163</v>
       </c>
       <c r="I50" t="n">
-        <v>0.03826246103990331</v>
+        <v>0.0555744315325031</v>
       </c>
       <c r="J50" t="n">
-        <v>0.02681509490880901</v>
+        <v>0.09640875176715932</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02546194487241898</v>
+        <v>0.04033533723070182</v>
       </c>
       <c r="L50" t="n">
-        <v>0.07107480165440302</v>
+        <v>0.05237613323728902</v>
       </c>
       <c r="M50" t="n">
-        <v>0.03757984453238582</v>
+        <v>0.03270225286532642</v>
       </c>
       <c r="N50" t="n">
-        <v>0.017725139918456</v>
+        <v>0.003572327892366096</v>
       </c>
       <c r="O50" t="n">
-        <v>0.06584073022204899</v>
+        <v>0.01759673901317706</v>
       </c>
       <c r="P50" t="n">
-        <v>0.06375887329014834</v>
+        <v>0.08918383647642952</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.05020242500701519</v>
+        <v>0.08641637029741914</v>
       </c>
       <c r="R50" t="n">
-        <v>0.03289625417983314</v>
+        <v>0.001829475473783947</v>
       </c>
       <c r="S50" t="n">
-        <v>0.002374004661393777</v>
+        <v>0.003817726429047816</v>
       </c>
       <c r="T50" t="n">
-        <v>0.04070925756352747</v>
+        <v>0.01389873590565385</v>
       </c>
       <c r="U50" t="n">
-        <v>0.06436066125934768</v>
+        <v>0.0820125098515138</v>
       </c>
       <c r="V50" t="n">
-        <v>0.05316205750127251</v>
+        <v>0.06977689154174234</v>
       </c>
       <c r="W50" t="n">
-        <v>0.03438006623427556</v>
+        <v>0.06468313292502449</v>
       </c>
       <c r="X50" t="n">
-        <v>0.05515244617300753</v>
+        <v>0.04229873639903776</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.04200402191077018</v>
+        <v>0.01033428113403203</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.04441452171230818</v>
+        <v>0.01365947490417837</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.05833205435619308</v>
+        <v>0.08187892308147765</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.03769515658395256</v>
+        <v>0.06138874078745241</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.09601594970130509</v>
+        <v>0.04625888833092191</v>
       </c>
     </row>
     <row r="51">
@@ -5250,79 +5250,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.16068997930646</v>
+        <v>0.1647113046838787</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1069923636444889</v>
+        <v>0.1109928237766953</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03199026933225967</v>
+        <v>0.03073334563862231</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03550096471874221</v>
+        <v>0.008596701736347651</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01338895460280233</v>
+        <v>0.006178231117692473</v>
       </c>
       <c r="J51" t="n">
-        <v>0.004073560238901553</v>
+        <v>0.07777375376038212</v>
       </c>
       <c r="K51" t="n">
-        <v>0.05862428256105422</v>
+        <v>0.01623783318219108</v>
       </c>
       <c r="L51" t="n">
-        <v>0.04213346943639677</v>
+        <v>0.0621108552763572</v>
       </c>
       <c r="M51" t="n">
-        <v>0.09545541348893645</v>
+        <v>0.130539042444364</v>
       </c>
       <c r="N51" t="n">
-        <v>0.005078428918388619</v>
+        <v>0.05445998286541207</v>
       </c>
       <c r="O51" t="n">
-        <v>0.005519249837298861</v>
+        <v>0.05796386903084937</v>
       </c>
       <c r="P51" t="n">
-        <v>0.07561803630043944</v>
+        <v>0.04175662712093613</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.03500491720520588</v>
+        <v>0.01659425871897616</v>
       </c>
       <c r="R51" t="n">
-        <v>0.009896534265209039</v>
+        <v>0.0006831400500353889</v>
       </c>
       <c r="S51" t="n">
-        <v>0.04273695442893764</v>
+        <v>0.008830520700483383</v>
       </c>
       <c r="T51" t="n">
-        <v>0.04931313502729263</v>
+        <v>0.001782969543944843</v>
       </c>
       <c r="U51" t="n">
-        <v>0.04682696436188296</v>
+        <v>0.03660735459858451</v>
       </c>
       <c r="V51" t="n">
-        <v>0.02410642798870853</v>
+        <v>0.08407364421413543</v>
       </c>
       <c r="W51" t="n">
-        <v>0.002605653982628015</v>
+        <v>0.0158538416429286</v>
       </c>
       <c r="X51" t="n">
-        <v>0.1019816088213193</v>
+        <v>0.08991363301995074</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.1040763883486058</v>
+        <v>0.08325049103602662</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.08796501589130154</v>
+        <v>0.03999020763498404</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.01132144048174105</v>
+        <v>0.01557208682951522</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.009789966117458604</v>
+        <v>0.009504786060585428</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1578407735910219</v>
+        <v>0.1201541862885204</v>
       </c>
     </row>
     <row r="52">
@@ -5345,79 +5345,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.141604231238517</v>
+        <v>0.1441534158119764</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01010518393476768</v>
+        <v>0.0009419035419544917</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07370668071495046</v>
+        <v>0.06414767507348422</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02910141625646894</v>
+        <v>0.05712414071712566</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01243729638307013</v>
+        <v>0.02323904960091951</v>
       </c>
       <c r="J52" t="n">
-        <v>0.08000387530746007</v>
+        <v>0.09103091703067971</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01606331240665798</v>
+        <v>0.0790262811070888</v>
       </c>
       <c r="L52" t="n">
-        <v>0.07649982153141624</v>
+        <v>0.06045587897688375</v>
       </c>
       <c r="M52" t="n">
-        <v>0.004454164951968372</v>
+        <v>0.0005810068960895893</v>
       </c>
       <c r="N52" t="n">
-        <v>0.04667661623492551</v>
+        <v>0.07166938460928615</v>
       </c>
       <c r="O52" t="n">
-        <v>0.08346086720623393</v>
+        <v>0.04257208735180555</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0511141611824301</v>
+        <v>0.0471935822148478</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.06862725278960972</v>
+        <v>0.08245423294658344</v>
       </c>
       <c r="R52" t="n">
-        <v>0.03991323895896547</v>
+        <v>0.01402788351304007</v>
       </c>
       <c r="S52" t="n">
-        <v>0.06944499967684678</v>
+        <v>0.01836353609346336</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0567725725872511</v>
+        <v>0.05958397604187073</v>
       </c>
       <c r="U52" t="n">
-        <v>0.04285845079570651</v>
+        <v>0.08434586103670959</v>
       </c>
       <c r="V52" t="n">
-        <v>0.005944820534286222</v>
+        <v>0.01611676484717555</v>
       </c>
       <c r="W52" t="n">
-        <v>0.03164632025317193</v>
+        <v>0.04742108737236323</v>
       </c>
       <c r="X52" t="n">
-        <v>0.02573301192074352</v>
+        <v>0.02112578258731953</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.0103141682004761</v>
+        <v>0.008829555305493089</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.04071713666066623</v>
+        <v>0.01402894827925124</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.05284707702391813</v>
+        <v>0.009122108831905743</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.07155755448800888</v>
+        <v>0.08659835602465904</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.04985311437345007</v>
+        <v>0.04571569971152875</v>
       </c>
     </row>
     <row r="53">
@@ -5440,79 +5440,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.3164014158116064</v>
+        <v>0.3830903105625783</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07484799286242677</v>
+        <v>0.09330898997885011</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03407042727478914</v>
+        <v>0.0256413096377377</v>
       </c>
       <c r="H53" t="n">
-        <v>0.05703468381442247</v>
+        <v>0.06662001255002641</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01649386552470229</v>
+        <v>0.006251869496398565</v>
       </c>
       <c r="J53" t="n">
-        <v>0.08025228766115136</v>
+        <v>0.02459896649005344</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01687620223454706</v>
+        <v>0.001592474529393081</v>
       </c>
       <c r="L53" t="n">
-        <v>0.02277302959213314</v>
+        <v>0.0108084704295223</v>
       </c>
       <c r="M53" t="n">
-        <v>0.004727055203592624</v>
+        <v>0.003525833406110928</v>
       </c>
       <c r="N53" t="n">
-        <v>0.07246525742165214</v>
+        <v>0.04960443829298984</v>
       </c>
       <c r="O53" t="n">
-        <v>0.03477166028700889</v>
+        <v>0.07539731252729359</v>
       </c>
       <c r="P53" t="n">
-        <v>0.02226817522116737</v>
+        <v>0.06984591453906075</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.06920347283691813</v>
+        <v>0.07039662181176272</v>
       </c>
       <c r="R53" t="n">
-        <v>0.08300025647829126</v>
+        <v>0.0709747512734471</v>
       </c>
       <c r="S53" t="n">
-        <v>0.03033999528508517</v>
+        <v>0.03819103131233059</v>
       </c>
       <c r="T53" t="n">
-        <v>0.07149134816106399</v>
+        <v>0.02306119745364175</v>
       </c>
       <c r="U53" t="n">
-        <v>0.002328628593631372</v>
+        <v>0.02900274934530743</v>
       </c>
       <c r="V53" t="n">
-        <v>0.02801245757206761</v>
+        <v>0.07680866607161869</v>
       </c>
       <c r="W53" t="n">
-        <v>0.03332997896916322</v>
+        <v>0.0158850036246921</v>
       </c>
       <c r="X53" t="n">
-        <v>0.04815600552316149</v>
+        <v>0.003837712033410079</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.002170778243650511</v>
+        <v>0.001848390644222653</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.08289009702851718</v>
+        <v>0.07829272718040102</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.05786264853303542</v>
+        <v>0.073906563005951</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.0546336956778214</v>
+        <v>0.09059899436577815</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.04451237638426821</v>
+        <v>0.05906170640851614</v>
       </c>
     </row>
     <row r="54">
@@ -5535,79 +5535,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1894374931883821</v>
+        <v>0.1682630071302641</v>
       </c>
       <c r="F54" t="n">
-        <v>0.05233113262442514</v>
+        <v>0.03443834913731886</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03495485115629229</v>
+        <v>0.03323624086539857</v>
       </c>
       <c r="H54" t="n">
-        <v>0.02866997791148935</v>
+        <v>0.01905674774242705</v>
       </c>
       <c r="I54" t="n">
-        <v>0.03243977915580522</v>
+        <v>0.03420727634039055</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01908758746306931</v>
+        <v>0.0347874448212066</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0404746513330061</v>
+        <v>0.01809826048825824</v>
       </c>
       <c r="L54" t="n">
-        <v>0.06601038608691692</v>
+        <v>0.05518611279759649</v>
       </c>
       <c r="M54" t="n">
-        <v>0.05632523845869962</v>
+        <v>0.06965068782455135</v>
       </c>
       <c r="N54" t="n">
-        <v>0.05124200874072719</v>
+        <v>0.01813156096737778</v>
       </c>
       <c r="O54" t="n">
-        <v>0.003393430698819921</v>
+        <v>0.003195253865886603</v>
       </c>
       <c r="P54" t="n">
-        <v>0.04861136299528186</v>
+        <v>0.07901940650312217</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.07858000580133841</v>
+        <v>0.08596168489141132</v>
       </c>
       <c r="R54" t="n">
-        <v>0.06468179606609631</v>
+        <v>0.06784828630572223</v>
       </c>
       <c r="S54" t="n">
-        <v>0.07808223218845045</v>
+        <v>0.05409379896178419</v>
       </c>
       <c r="T54" t="n">
-        <v>0.03843309232827313</v>
+        <v>0.01766226325183327</v>
       </c>
       <c r="U54" t="n">
-        <v>0.06477797022488926</v>
+        <v>0.04087275174377301</v>
       </c>
       <c r="V54" t="n">
-        <v>0.01839641600222652</v>
+        <v>0.0969025332801909</v>
       </c>
       <c r="W54" t="n">
-        <v>0.04666852236701989</v>
+        <v>0.08443248293159142</v>
       </c>
       <c r="X54" t="n">
-        <v>0.02151383047328777</v>
+        <v>0.03474743297830234</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.02588161140613219</v>
+        <v>0.02530384418305411</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.0002056437991314793</v>
+        <v>0.008385715370789052</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.07598276334558775</v>
+        <v>0.05573973973079886</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.0532557093730338</v>
+        <v>0.02904212501721515</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.09847841050599218</v>
+        <v>-0.06740290996951226</v>
       </c>
     </row>
     <row r="55">
@@ -5630,79 +5630,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1938475798903882</v>
+        <v>0.3011061398566915</v>
       </c>
       <c r="F55" t="n">
-        <v>0.08905494708594093</v>
+        <v>0.0560991001800655</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07678198661853043</v>
+        <v>0.0282431269936463</v>
       </c>
       <c r="H55" t="n">
-        <v>0.02005881687642242</v>
+        <v>0.01469323722404411</v>
       </c>
       <c r="I55" t="n">
-        <v>0.03143524930681515</v>
+        <v>0.0371237210822227</v>
       </c>
       <c r="J55" t="n">
-        <v>0.02099999169343963</v>
+        <v>1.898171778631462e-05</v>
       </c>
       <c r="K55" t="n">
-        <v>0.02663480169956501</v>
+        <v>0.02807795551896337</v>
       </c>
       <c r="L55" t="n">
-        <v>0.007732431180574986</v>
+        <v>0.03201316879675803</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0770096703789817</v>
+        <v>0.1006666330584967</v>
       </c>
       <c r="N55" t="n">
-        <v>0.03998809567603294</v>
+        <v>0.01101397716637677</v>
       </c>
       <c r="O55" t="n">
-        <v>0.004235110465266276</v>
+        <v>0.01051308158293319</v>
       </c>
       <c r="P55" t="n">
-        <v>0.05922538110860374</v>
+        <v>0.085343082183634</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.05441015512235275</v>
+        <v>0.05284783750955026</v>
       </c>
       <c r="R55" t="n">
-        <v>0.08593954642483824</v>
+        <v>0.08438877666552468</v>
       </c>
       <c r="S55" t="n">
-        <v>0.002407305445120592</v>
+        <v>0.02228980009949408</v>
       </c>
       <c r="T55" t="n">
-        <v>0.03731748218256709</v>
+        <v>0.0003286286511170262</v>
       </c>
       <c r="U55" t="n">
-        <v>0.03351512529570307</v>
+        <v>0.05798884511450812</v>
       </c>
       <c r="V55" t="n">
-        <v>0.08483159584712457</v>
+        <v>0.02812824383062597</v>
       </c>
       <c r="W55" t="n">
-        <v>0.06435809622801876</v>
+        <v>0.07605041966318213</v>
       </c>
       <c r="X55" t="n">
-        <v>0.001068636566269528</v>
+        <v>0.05771050837843604</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.07842648644060042</v>
+        <v>0.1010927446172678</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.0004103720456341285</v>
+        <v>0.03615066832014105</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.06898585556220849</v>
+        <v>0.002053931389056203</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.03517286074938912</v>
+        <v>0.07716353025616972</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.0566681060067506</v>
+        <v>-0.04325139647440099</v>
       </c>
     </row>
     <row r="56">
@@ -5725,79 +5725,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2233237826045004</v>
+        <v>0.2185586386844048</v>
       </c>
       <c r="F56" t="n">
-        <v>0.08640902412303185</v>
+        <v>0.05676731847034685</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0246173633222391</v>
+        <v>0.02703728903340037</v>
       </c>
       <c r="H56" t="n">
-        <v>0.001749940342651301</v>
+        <v>0.001206994752903926</v>
       </c>
       <c r="I56" t="n">
-        <v>0.08173407478999435</v>
+        <v>0.06357320329114433</v>
       </c>
       <c r="J56" t="n">
-        <v>0.01350791987518663</v>
+        <v>0.05507230612203163</v>
       </c>
       <c r="K56" t="n">
-        <v>0.05480332951001298</v>
+        <v>0.01353390482569586</v>
       </c>
       <c r="L56" t="n">
-        <v>0.003167875384900748</v>
+        <v>0.02611381797397129</v>
       </c>
       <c r="M56" t="n">
-        <v>0.008013836429010329</v>
+        <v>0.05822226106241175</v>
       </c>
       <c r="N56" t="n">
-        <v>0.007028746281113369</v>
+        <v>0.005649897352132918</v>
       </c>
       <c r="O56" t="n">
-        <v>0.07429115788364692</v>
+        <v>0.08808688125544507</v>
       </c>
       <c r="P56" t="n">
-        <v>0.08157924120651956</v>
+        <v>0.09358718699382362</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.07834386718034278</v>
+        <v>0.01749574255901231</v>
       </c>
       <c r="R56" t="n">
-        <v>0.06351813596163416</v>
+        <v>0.08580806271514946</v>
       </c>
       <c r="S56" t="n">
-        <v>0.01401712699000879</v>
+        <v>0.06114650872540747</v>
       </c>
       <c r="T56" t="n">
-        <v>0.02582581506790431</v>
+        <v>0.04491385008003993</v>
       </c>
       <c r="U56" t="n">
-        <v>0.06891130693418912</v>
+        <v>0.08022033638420799</v>
       </c>
       <c r="V56" t="n">
-        <v>0.04002610860757731</v>
+        <v>0.01349837286387411</v>
       </c>
       <c r="W56" t="n">
-        <v>0.05581845574520535</v>
+        <v>0.09208804533620378</v>
       </c>
       <c r="X56" t="n">
-        <v>0.01565679488041657</v>
+        <v>0.002522995926658109</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.01618505635054196</v>
+        <v>0.005000281875156257</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.07613224505767045</v>
+        <v>0.07374772368247355</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.05221033913826652</v>
+        <v>0.00120768757672976</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.05645223893793547</v>
+        <v>0.03349933114177987</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.07363016642710804</v>
+        <v>0.06389822096236623</v>
       </c>
     </row>
     <row r="57">
@@ -5820,79 +5820,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2798894428947557</v>
+        <v>0.2944631399076375</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07613045811921711</v>
+        <v>0.08714896519088683</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03703259088129632</v>
+        <v>0.05244972629420677</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02035598428899845</v>
+        <v>0.02078042896324075</v>
       </c>
       <c r="I57" t="n">
-        <v>0.09423132831289044</v>
+        <v>0.01734029396616574</v>
       </c>
       <c r="J57" t="n">
-        <v>0.06089473118757451</v>
+        <v>0.05150967411339648</v>
       </c>
       <c r="K57" t="n">
-        <v>0.03280837865669011</v>
+        <v>0.04496512316985889</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0003671341547898322</v>
+        <v>0.004262642355464741</v>
       </c>
       <c r="M57" t="n">
-        <v>0.08568598892623253</v>
+        <v>0.09050377528908457</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0415134892434794</v>
+        <v>0.007426327136565035</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0573217767801675</v>
+        <v>0.01737572262722719</v>
       </c>
       <c r="P57" t="n">
-        <v>0.02348414403607564</v>
+        <v>0.04557222679664685</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0230127974536434</v>
+        <v>0.02506982188352129</v>
       </c>
       <c r="R57" t="n">
-        <v>0.009254983555933153</v>
+        <v>0.05849909358324148</v>
       </c>
       <c r="S57" t="n">
-        <v>0.02480339043421743</v>
+        <v>0.004332528317352621</v>
       </c>
       <c r="T57" t="n">
-        <v>0.007947691307150374</v>
+        <v>0.06088808423370334</v>
       </c>
       <c r="U57" t="n">
-        <v>0.001593398241298308</v>
+        <v>0.01348173220114668</v>
       </c>
       <c r="V57" t="n">
-        <v>0.04525397637830566</v>
+        <v>0.0437634533292383</v>
       </c>
       <c r="W57" t="n">
-        <v>0.09601286551192285</v>
+        <v>0.04304686938037149</v>
       </c>
       <c r="X57" t="n">
-        <v>0.08235590624971974</v>
+        <v>0.08687136734758187</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.06153132227146507</v>
+        <v>0.09815674803548972</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.09373278941449319</v>
+        <v>0.08339919370993941</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.01727745050168338</v>
+        <v>0.02571044286829319</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.007397424092755505</v>
+        <v>0.01744575920737665</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.07305721316793833</v>
+        <v>0.09823300568525047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1409721805410891</v>
+        <v>0.1418034513123743</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1024365945055808</v>
+        <v>0.06079881646342118</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01983880741407959</v>
+        <v>0.02448473359037114</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05808535886494322</v>
+        <v>0.07515691678893674</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04735216405033876</v>
+        <v>0.0238718848834304</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07658287707330741</v>
+        <v>0.06171070702162422</v>
       </c>
       <c r="K2" t="n">
-        <v>0.009530602154666661</v>
+        <v>0.03968500531866746</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06467156066454222</v>
+        <v>0.02715019085089129</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003476857197833326</v>
+        <v>0.007560483079204447</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06909288681946682</v>
+        <v>0.07916391947073542</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02231648972795265</v>
+        <v>0.0389911801432147</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0538174695113461</v>
+        <v>0.07021028624159754</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.009042565412862514</v>
+        <v>0.0114164364800679</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02423307384102569</v>
+        <v>0.0008961791218486015</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06832667984587751</v>
+        <v>0.05884485584301698</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02008354676639243</v>
+        <v>0.002106087598061626</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03705887062425548</v>
+        <v>0.06418472431229735</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01555909646150495</v>
+        <v>0.08059068149740216</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05692550575421496</v>
+        <v>0.05102339483712144</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04449922998498736</v>
+        <v>0.002575623550178295</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.004717424989489911</v>
+        <v>0.04540285150487958</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.02480084983474268</v>
+        <v>0.02125714545029024</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.09180660099751416</v>
+        <v>0.08419642321219846</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.07574488750307501</v>
+        <v>0.06872147274054256</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1700113000516159</v>
+        <v>0.1458753443493564</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2258436500149106</v>
+        <v>0.1819624945998058</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05745181359399102</v>
+        <v>0.007136795271882958</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07825670095180021</v>
+        <v>0.002622843075176807</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06121184195703505</v>
+        <v>0.07939875511507885</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02465698219427506</v>
+        <v>0.03851761836058105</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06190160771644347</v>
+        <v>0.09473853638454503</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06823367296449637</v>
+        <v>0.09378693995335588</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002338668558458225</v>
+        <v>0.08639071671554542</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0934185340267857</v>
+        <v>0.06246241517587389</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02613307386386141</v>
+        <v>0.04668668104495274</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03470945264681859</v>
+        <v>0.01465526577931181</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01685293790767357</v>
+        <v>0.02296043247381867</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04270348903530331</v>
+        <v>0.005988379956265923</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01129467042040715</v>
+        <v>0.0296311406187012</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1004580460326057</v>
+        <v>0.06222035503360201</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01207922103338601</v>
+        <v>0.008079121231870426</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00741315595303736</v>
+        <v>0.06550518897419678</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06918685368079244</v>
+        <v>0.05847957246627164</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05960554880401954</v>
+        <v>0.06232054373803226</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02323113227116203</v>
+        <v>0.0002911804140242267</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02658998719200236</v>
+        <v>0.02143535196746632</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.003762570008460367</v>
+        <v>0.03412184736716822</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01946416590105973</v>
+        <v>0.0119615872957322</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.09904587328612525</v>
+        <v>0.09060873158654535</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.09553884385491446</v>
+        <v>0.1234700994835908</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2465018927984706</v>
+        <v>0.2197846284321236</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06614253705998542</v>
+        <v>0.0659772164844127</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02472260150685095</v>
+        <v>0.07246957573299345</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01987031668212656</v>
+        <v>0.01056938949379007</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01130887038962384</v>
+        <v>0.01140303633323254</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03622652560607593</v>
+        <v>0.06199271349296553</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002037023456214268</v>
+        <v>0.05424273440160825</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02119770416578909</v>
+        <v>0.006464199118753553</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06886213844558448</v>
+        <v>0.05419797818609293</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03981823954337095</v>
+        <v>0.03426007259615403</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07673772732937194</v>
+        <v>0.0521812135731443</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07541978327069253</v>
+        <v>0.07348488582163853</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001089668076456085</v>
+        <v>0.003045897190354864</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05757781081661947</v>
+        <v>0.06251172276780866</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04564407941160614</v>
+        <v>0.01714962047965942</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0299117965511272</v>
+        <v>0.03888430090865603</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05928287351658325</v>
+        <v>0.07653324489449809</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0562325411740171</v>
+        <v>0.07524412781683915</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07516743613147171</v>
+        <v>0.03107848735852814</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04748526470204248</v>
+        <v>0.05701178307660468</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03269113999557891</v>
+        <v>0.02693079262887242</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.07842836669495405</v>
+        <v>0.07320521461674559</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02157852022098698</v>
+        <v>0.00991486147444773</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.05256703525287055</v>
+        <v>0.03124693155219912</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01041703237206153</v>
+        <v>-0.02037819279444188</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9048424145490727</v>
+        <v>0.2626668050856477</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03570874589691156</v>
+        <v>0.02611216917061198</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0005450242329113087</v>
+        <v>0.03849993817726129</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00371324371561846</v>
+        <v>0.02376810794361733</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1015796691774861</v>
+        <v>0.01671186972678412</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02842693236370439</v>
+        <v>0.08116067498281326</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02586938398662039</v>
+        <v>0.001467792792108872</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01991548747796769</v>
+        <v>8.164887087114065e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>0.101140738615135</v>
+        <v>0.08799286275413026</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01151849307587737</v>
+        <v>0.07500916166329337</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06271031024611469</v>
+        <v>0.04427484431328485</v>
       </c>
       <c r="P5" t="n">
-        <v>0.007297700982515443</v>
+        <v>0.05608248165360724</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.645202074354849e-05</v>
+        <v>0.002297436097655076</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0991750429419907</v>
+        <v>0.004643559977356631</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04446676906580001</v>
+        <v>0.08559446600386195</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04380287625403082</v>
+        <v>0.02608827432999032</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08712527692760016</v>
+        <v>0.03923609681905497</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06221481789396194</v>
+        <v>0.09002943005343779</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05260982817669975</v>
+        <v>0.08245555057740354</v>
       </c>
       <c r="X5" t="n">
-        <v>0.07332381903615592</v>
+        <v>0.03584141303706135</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04145845741340792</v>
+        <v>0.09015539696783793</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01174132896817163</v>
+        <v>0.01166582287459055</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0734625021552837</v>
+        <v>0.02379286796845657</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01215709937529126</v>
+        <v>0.05711161722869364</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.03018724122957809</v>
+        <v>-0.00068131118147376</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1903196951587689</v>
+        <v>0.189290067295403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02574332950895692</v>
+        <v>0.04638668444938268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1075535610656706</v>
+        <v>0.01182653278162916</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0493233812058599</v>
+        <v>0.05289356240491621</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01724998084651418</v>
+        <v>0.0206430447737225</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05914987841090493</v>
+        <v>0.09643711371196471</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0008122117070603482</v>
+        <v>0.035983645653932</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0182853818680395</v>
+        <v>0.02925624683875935</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004924021121998503</v>
+        <v>0.009053873166003298</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02527485226828901</v>
+        <v>0.006025173735264444</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06280475093923728</v>
+        <v>0.07840763446538146</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04336004941711859</v>
+        <v>0.09839159960812396</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0116653826709965</v>
+        <v>0.001901358876115572</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04293424251484185</v>
+        <v>0.07996470892785953</v>
       </c>
       <c r="S6" t="n">
-        <v>0.08026248205412216</v>
+        <v>0.06513202728447894</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0733192538696137</v>
+        <v>0.03855887894133367</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02280235906684021</v>
+        <v>0.007129319661591316</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01527299042077092</v>
+        <v>0.07387992543609991</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06705716102502864</v>
+        <v>0.05133465844925251</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1080766425528836</v>
+        <v>0.02922960987600226</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.07377187118445333</v>
+        <v>0.09083895388259879</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01043885074131393</v>
+        <v>0.03627922797568502</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01221681385849244</v>
+        <v>0.007208693281710095</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06770055168099287</v>
+        <v>0.03323752581819269</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2073083101560849</v>
+        <v>-0.2346069703862957</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5489219367449318</v>
+        <v>1.006072833759267</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002628981311599893</v>
+        <v>0.04326447025984253</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06978303930645384</v>
+        <v>0.04570962662006312</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06171058065312513</v>
+        <v>0.004118022566362421</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09598667531176452</v>
+        <v>0.01404812809997797</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0324691343458615</v>
+        <v>0.03219254211388038</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05236197831145959</v>
+        <v>0.01450126988197305</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02291517186700038</v>
+        <v>0.05007425582831228</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00140856595643068</v>
+        <v>0.0006735897769039829</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00598505870165409</v>
+        <v>0.01071840647267532</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01522259891277978</v>
+        <v>0.02055344097033622</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003165325738022982</v>
+        <v>0.01460817103079571</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1019710955050794</v>
+        <v>0.1071729505989061</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05899796688926005</v>
+        <v>0.06275057386803995</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1059558339225745</v>
+        <v>0.01773319739758069</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01611081999989287</v>
+        <v>0.07620228479484066</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04769706685949129</v>
+        <v>0.01332649302901635</v>
       </c>
       <c r="V7" t="n">
-        <v>0.023292169907196</v>
+        <v>0.05802802261177165</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09496970960639414</v>
+        <v>0.07178820100910058</v>
       </c>
       <c r="X7" t="n">
-        <v>0.002081629764378644</v>
+        <v>0.027335080193399</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.04639754698450297</v>
+        <v>0.01852584634372679</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01757761528547854</v>
+        <v>0.08333736287005032</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.02549829735461567</v>
+        <v>0.1055602970884222</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.09581313750498351</v>
+        <v>0.1077777665740229</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.1720103004699615</v>
+        <v>-0.2152809577559405</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.192078942140295</v>
+        <v>0.1936963543280334</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00112291678799951</v>
+        <v>0.006938241857890244</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007734540309110836</v>
+        <v>0.02011661735914802</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01054502019096674</v>
+        <v>0.02021318312518882</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0530960919247529</v>
+        <v>0.08965860639523571</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01422313253723675</v>
+        <v>0.03587159231179507</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0669422168683599</v>
+        <v>0.05723637491182942</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006811592759003175</v>
+        <v>0.02148955269064001</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03951111691265188</v>
+        <v>0.0113806217291231</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03242059715932246</v>
+        <v>0.06370652387647824</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03711405413173256</v>
+        <v>0.006379379511814072</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1047729023146109</v>
+        <v>0.05467674959602171</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.07138641707020134</v>
+        <v>0.03105048998358129</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03147843051502679</v>
+        <v>0.06051054126218457</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05446565828343309</v>
+        <v>0.07742304472313459</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06055925601588833</v>
+        <v>0.06181977105220222</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08356481276430978</v>
+        <v>0.08945245738621602</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0613357598491207</v>
+        <v>0.03856518099033199</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08396078997126528</v>
+        <v>0.06514467209677705</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1017145454376227</v>
+        <v>0.07532273995262571</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.008166741250854368</v>
+        <v>0.007017907912930923</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.06205013433171393</v>
+        <v>0.0862233107805668</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0008375371007051375</v>
+        <v>0.01878988007038674</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.006185735514111007</v>
+        <v>0.001012560423897656</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.3967428515732616</v>
+        <v>-0.3839107956671844</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.401523214053825</v>
+        <v>0.4387882988825446</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02149458258405507</v>
+        <v>0.05197617598694979</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001569326823602369</v>
+        <v>0.03897484398109535</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001361258805587788</v>
+        <v>0.04912413524229519</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1185601274980392</v>
+        <v>0.1005354224770081</v>
       </c>
       <c r="J9" t="n">
-        <v>0.088602062590784</v>
+        <v>0.06717602915902825</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02454300220268071</v>
+        <v>0.002907352575557669</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02643830808471252</v>
+        <v>0.02005801358391142</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02276369386317555</v>
+        <v>0.02108199568805021</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02280549461277223</v>
+        <v>0.01641120350187316</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05048861593107945</v>
+        <v>0.009916319571163014</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02024064667933385</v>
+        <v>0.04685244700332933</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01351250055686135</v>
+        <v>0.06183527367197806</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01216131086358218</v>
+        <v>0.05844319722488508</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004193309536970928</v>
+        <v>0.003449932938693434</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02222189158546872</v>
+        <v>0.005090133381882129</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06800541867390711</v>
+        <v>0.08675771141456619</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02979089690853252</v>
+        <v>0.004330157093498026</v>
       </c>
       <c r="W9" t="n">
-        <v>0.09274683037363339</v>
+        <v>0.08767252121244487</v>
       </c>
       <c r="X9" t="n">
-        <v>0.04846247816035647</v>
+        <v>0.01011335047009227</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.06984986895087969</v>
+        <v>0.08122332274833116</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.02676756228071605</v>
+        <v>0.0396808754607658</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1172332738572385</v>
+        <v>0.03100392115415236</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.09618753857603041</v>
+        <v>0.1053856644584489</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3903293101199335</v>
+        <v>-0.3408035595991667</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2554173379871741</v>
+        <v>0.2599564889320864</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05546941311115348</v>
+        <v>0.09006834717251511</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04577542491357268</v>
+        <v>0.008378357413289192</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05823955760612223</v>
+        <v>0.01406170871328443</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06122419776682178</v>
+        <v>0.03033320581577044</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01902474566785393</v>
+        <v>0.0176927870026487</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02176688063755859</v>
+        <v>0.01621692112196672</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01612994556272642</v>
+        <v>0.02051780219396538</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03290086789594591</v>
+        <v>0.03467776043479631</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0182000977177558</v>
+        <v>0.003630083690142195</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03753571686333294</v>
+        <v>0.04858174001560961</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07408747095538082</v>
+        <v>0.04774739535420303</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01830882079985163</v>
+        <v>0.02270342482369961</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06643427432628521</v>
+        <v>0.08352913884873053</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05030040412720481</v>
+        <v>0.007429128971238392</v>
       </c>
       <c r="T10" t="n">
-        <v>0.003274601964663781</v>
+        <v>0.03881188019661679</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06837545429671908</v>
+        <v>0.07762394121349353</v>
       </c>
       <c r="V10" t="n">
-        <v>0.006312832436982732</v>
+        <v>0.007761102398282893</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03730733687202224</v>
+        <v>0.07703040538645567</v>
       </c>
       <c r="X10" t="n">
-        <v>0.05958631475677716</v>
+        <v>0.08803506576119421</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.06152767620060896</v>
+        <v>0.06818632054237435</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.03649848000702576</v>
+        <v>0.05696923422475104</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.07073411210902132</v>
+        <v>0.06795611045100917</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.08098537340461272</v>
+        <v>0.07205813825396268</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.03938610559419427</v>
+        <v>-0.03526918340668327</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.493742798986556</v>
+        <v>0.4730874477281807</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1059290885323522</v>
+        <v>0.05781263699302364</v>
       </c>
       <c r="G11" t="n">
-        <v>0.006277921508000058</v>
+        <v>0.01859765350463288</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09692708409830471</v>
+        <v>0.02339786559510468</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06920359056712398</v>
+        <v>0.005400782669993614</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002500957340898192</v>
+        <v>0.01770133816029201</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0220135528646268</v>
+        <v>0.06593394785670122</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02205669940917517</v>
+        <v>0.0353295732063268</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03295690543238404</v>
+        <v>0.02997518457570326</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1166728175816618</v>
+        <v>0.0229905654484313</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02851259422322212</v>
+        <v>0.02757145526723302</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0479571738001359</v>
+        <v>0.04495360794494669</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02550162147515867</v>
+        <v>0.001868463667067638</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0737341052762148</v>
+        <v>0.01110271347205303</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00636256640832096</v>
+        <v>0.07765847403637918</v>
       </c>
       <c r="T11" t="n">
-        <v>0.003764569259802221</v>
+        <v>0.08128046353365473</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04998307319896326</v>
+        <v>0.004725826157916185</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1223005760962628</v>
+        <v>0.1089323733256515</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01055691018621154</v>
+        <v>0.07482089227392837</v>
       </c>
       <c r="X11" t="n">
-        <v>0.009823074589563441</v>
+        <v>0.08694623069708844</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.002977116573651911</v>
+        <v>0.04827815266825652</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.08779626435955104</v>
+        <v>0.04556298116420289</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.03559951306373656</v>
+        <v>0.01261297654564652</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0205922241546777</v>
+        <v>0.09654584123576597</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.131229521380489</v>
+        <v>0.06993920524861373</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.276303761016722</v>
+        <v>0.2718697899047438</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05245645572194584</v>
+        <v>0.02843321670121001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0338431179984036</v>
+        <v>0.08242162593847961</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06901764199032802</v>
+        <v>0.02286923662146894</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01354975485257058</v>
+        <v>0.003688084949800431</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01168020090179242</v>
+        <v>0.01432412581312859</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02744902486419026</v>
+        <v>0.05164578450583659</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07877415640196446</v>
+        <v>0.01353033262808157</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04370326380127681</v>
+        <v>0.009157175921363735</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01418120167945742</v>
+        <v>0.007364176960752801</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02699168498935058</v>
+        <v>0.02940325987514907</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08594712695754231</v>
+        <v>0.07990201947813357</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.002464230770539973</v>
+        <v>0.02367649732475857</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0308603326536322</v>
+        <v>0.1038992833230087</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07536826845950857</v>
+        <v>0.07025087388555584</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01433062408082995</v>
+        <v>0.006750929586277345</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07114055669135053</v>
+        <v>0.0543113063870579</v>
       </c>
       <c r="V12" t="n">
-        <v>0.007765234891760103</v>
+        <v>0.01963113729466443</v>
       </c>
       <c r="W12" t="n">
-        <v>0.08885649491522435</v>
+        <v>0.1216591522080504</v>
       </c>
       <c r="X12" t="n">
-        <v>0.04501282481620204</v>
+        <v>0.07530423769209708</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.08750347946315536</v>
+        <v>0.07114628039254392</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.02479099220269439</v>
+        <v>0.02772356060801858</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02801242734950795</v>
+        <v>0.02143762613347276</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06630090354677211</v>
+        <v>0.06147007577108947</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2362752755454559</v>
+        <v>0.2071601475528648</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5740615155140188</v>
+        <v>0.5126387872957797</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001681307395501496</v>
+        <v>0.06390162934179816</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01930870938118589</v>
+        <v>0.06322335405837384</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02138775819442322</v>
+        <v>0.01130239472506443</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01512115559782256</v>
+        <v>0.03810676862770061</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1265422232618425</v>
+        <v>0.001704642826970784</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03488938929447977</v>
+        <v>0.01459686602962861</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01398786215730183</v>
+        <v>0.03719187330104513</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1174588418820433</v>
+        <v>0.01733063253561359</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1110104221072072</v>
+        <v>0.09627059868280302</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01811397752139462</v>
+        <v>0.06309135456255612</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01658421682293753</v>
+        <v>0.04911848593658785</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.008248162555125855</v>
+        <v>0.043765749190633</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02623535976968794</v>
+        <v>0.1037873314743898</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0010972067601683</v>
+        <v>0.05104076416868168</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04858590548290043</v>
+        <v>0.004784697088894456</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0007780765424021916</v>
+        <v>0.01629459071046763</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1224603612873659</v>
+        <v>0.1202006660004227</v>
       </c>
       <c r="W13" t="n">
-        <v>0.006684892861516697</v>
+        <v>0.04719168058692413</v>
       </c>
       <c r="X13" t="n">
-        <v>0.07114575683580369</v>
+        <v>0.03675597280658215</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01118718237678382</v>
+        <v>0.01746320021831062</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02294282814153365</v>
+        <v>0.05438853423736312</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1152827006979574</v>
+        <v>0.04597521499720513</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.06926570307261425</v>
+        <v>0.002512997891983396</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.248005697511277</v>
+        <v>0.2443211867806952</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.294939705435685</v>
+        <v>0.296522040358141</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008259783550553753</v>
+        <v>0.04392339469713063</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004793809604204711</v>
+        <v>0.003212810710269467</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05774347124718966</v>
+        <v>0.04183064712337097</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08484389311847212</v>
+        <v>0.01174624766507987</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0100928147129439</v>
+        <v>0.03297415467196052</v>
       </c>
       <c r="K14" t="n">
-        <v>0.005786689158792192</v>
+        <v>0.002914109050944583</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08284785538143945</v>
+        <v>0.005411693516147914</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02526466784823283</v>
+        <v>0.1054754317350737</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01975548480682975</v>
+        <v>0.02003393343457752</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02539142228336576</v>
+        <v>0.01631545296816421</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06573807691472063</v>
+        <v>0.09929105695717032</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01798107528716968</v>
+        <v>0.05386831407614705</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08857298275674837</v>
+        <v>0.1110097918809716</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01420081195227918</v>
+        <v>0.07782789909424603</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07226865588813457</v>
+        <v>0.08152895833551656</v>
       </c>
       <c r="U14" t="n">
-        <v>0.005022963937427746</v>
+        <v>0.002051270131689244</v>
       </c>
       <c r="V14" t="n">
-        <v>0.002435277122135258</v>
+        <v>0.0141570559831938</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06494318118001358</v>
+        <v>0.05280913184201681</v>
       </c>
       <c r="X14" t="n">
-        <v>0.08565719350980118</v>
+        <v>0.1107959143100726</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.04384654345690969</v>
+        <v>0.03673272337519443</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0912772216896323</v>
+        <v>0.00537623006503709</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.03903301027181964</v>
+        <v>0.05896172726245722</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.08424311432118399</v>
+        <v>0.01175205111356795</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.0384776241020057</v>
+        <v>-0.04773665934998565</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.4394783340250422</v>
+        <v>0.4202458380390753</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0241987025409316</v>
+        <v>0.02337610343274889</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03083459785190355</v>
+        <v>0.003539251021241452</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08900487619340199</v>
+        <v>0.09460627490950176</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07150158477981561</v>
+        <v>0.02736269667944421</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03023768154004566</v>
+        <v>0.00483099313031671</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001318213424926192</v>
+        <v>0.008086772072371519</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1201939018679691</v>
+        <v>0.006932952836031815</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03020474673069595</v>
+        <v>0.002711189541420698</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03179002987802416</v>
+        <v>0.08372842014293996</v>
       </c>
       <c r="O15" t="n">
-        <v>0.007193185105086981</v>
+        <v>0.02331108435624531</v>
       </c>
       <c r="P15" t="n">
-        <v>0.04588626440014732</v>
+        <v>0.06264457178259528</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01969063491547707</v>
+        <v>0.06792510721284994</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08503778035154515</v>
+        <v>0.04860663068474871</v>
       </c>
       <c r="S15" t="n">
-        <v>0.09796181912897312</v>
+        <v>0.04281208440056049</v>
       </c>
       <c r="T15" t="n">
-        <v>0.00703746082647967</v>
+        <v>0.09185793571150351</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01440536845863357</v>
+        <v>0.05775209533356566</v>
       </c>
       <c r="V15" t="n">
-        <v>0.108817592018268</v>
+        <v>0.08587505885813763</v>
       </c>
       <c r="W15" t="n">
-        <v>0.03534238678560252</v>
+        <v>0.03605006671276269</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01641080710849065</v>
+        <v>0.006796614460792754</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.004576299761338884</v>
+        <v>0.005784130935043594</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.03251935628524939</v>
+        <v>0.04530475586423623</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.02558998361879168</v>
+        <v>0.07793236488155364</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.07024672642820221</v>
+        <v>0.09217284503938762</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.02573307032820443</v>
+        <v>-0.02417858951285413</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3172021334659479</v>
+        <v>0.2959360853800202</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06197230902225895</v>
+        <v>0.03235615402029884</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05936283826328737</v>
+        <v>0.06428421972628413</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03619170980919284</v>
+        <v>0.08017665856479815</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07318182372457799</v>
+        <v>0.06154920897718494</v>
       </c>
       <c r="J16" t="n">
-        <v>0.003787354151154082</v>
+        <v>0.01234288645347329</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01296544661164145</v>
+        <v>0.0436503394836127</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02322511367682675</v>
+        <v>0.02127409513527608</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0238206518438908</v>
+        <v>0.03876348871329812</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01066794059147561</v>
+        <v>0.002467549701320571</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03120910103503581</v>
+        <v>0.02311030475788396</v>
       </c>
       <c r="P16" t="n">
-        <v>0.07683128662397527</v>
+        <v>0.05858233962266245</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07219104106697341</v>
+        <v>0.05265438389434145</v>
       </c>
       <c r="R16" t="n">
-        <v>0.006722276270762146</v>
+        <v>0.04169935136674653</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07574469602186712</v>
+        <v>0.06338104731106486</v>
       </c>
       <c r="T16" t="n">
-        <v>0.06746244613049386</v>
+        <v>0.004819641616320616</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03761659489985541</v>
+        <v>0.01904268387299071</v>
       </c>
       <c r="V16" t="n">
-        <v>0.03920829022524894</v>
+        <v>0.0112862494972682</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08993873515499011</v>
+        <v>0.06601475215495102</v>
       </c>
       <c r="X16" t="n">
-        <v>0.02502573752192348</v>
+        <v>0.08330637754772202</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.05493225290559298</v>
+        <v>0.05630682248711632</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.01878685495780585</v>
+        <v>0.08381321052226681</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01127608130273149</v>
+        <v>0.008241470937924754</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.08787941818843817</v>
+        <v>0.07087676363519355</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1647343929924573</v>
+        <v>0.1504293699359908</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3949236026239325</v>
+        <v>0.3698126318102902</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001522832797846785</v>
+        <v>0.03900624661359629</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01857499672416962</v>
+        <v>0.008735539840459425</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01527141752783618</v>
+        <v>0.0939640132079924</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03500143949420503</v>
+        <v>0.09425333160168969</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05100205871353004</v>
+        <v>0.06358654308260918</v>
       </c>
       <c r="K17" t="n">
-        <v>0.006257954062030133</v>
+        <v>0.03267923907980128</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008676656938356465</v>
+        <v>0.0325128999052598</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01469689599665327</v>
+        <v>0.001665902737618008</v>
       </c>
       <c r="N17" t="n">
-        <v>0.003647163515993368</v>
+        <v>0.02853273909323768</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02950030868135848</v>
+        <v>0.00795342750119103</v>
       </c>
       <c r="P17" t="n">
-        <v>0.08691489252830534</v>
+        <v>0.03617281350861897</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.07835482797339961</v>
+        <v>0.09220865713423623</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01767765524399207</v>
+        <v>0.04888706012857723</v>
       </c>
       <c r="S17" t="n">
-        <v>0.09506946902337039</v>
+        <v>0.05028003765863213</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1022329350943636</v>
+        <v>0.0362051312942216</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0661928318165045</v>
+        <v>0.0226245851488536</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1253630243834106</v>
+        <v>0.09568800430934425</v>
       </c>
       <c r="W17" t="n">
-        <v>0.006222430369583515</v>
+        <v>0.06719507588512408</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01101051401229056</v>
+        <v>0.02511558134013459</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.04866826280756233</v>
+        <v>0.01139934429191326</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.04569660591474758</v>
+        <v>0.02684011865377547</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.004999377190838099</v>
+        <v>0.007202280415073366</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.1274454491896525</v>
+        <v>0.07729142756804028</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2150641022976667</v>
+        <v>0.2109588251478912</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3650309615266141</v>
+        <v>0.3735276253145698</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04428599427292706</v>
+        <v>0.04124582083814763</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06064589562784359</v>
+        <v>0.1004648039349406</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001349026600262213</v>
+        <v>0.005322996555328702</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0009514657715612623</v>
+        <v>0.01890273180520426</v>
       </c>
       <c r="J18" t="n">
-        <v>0.003253601533544176</v>
+        <v>0.01399123206136119</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08502705593867391</v>
+        <v>0.008656636789945153</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01351662242780231</v>
+        <v>0.009769948885473412</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06087049418086871</v>
+        <v>0.07863161765602059</v>
       </c>
       <c r="N18" t="n">
-        <v>0.07687027966099333</v>
+        <v>0.09461292646841417</v>
       </c>
       <c r="O18" t="n">
-        <v>0.07635306739018177</v>
+        <v>0.08832759171334281</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07246703305692451</v>
+        <v>0.04346723146620234</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04315308811338912</v>
+        <v>0.05464550915457689</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05771203499085562</v>
+        <v>0.07931403993319165</v>
       </c>
       <c r="S18" t="n">
-        <v>0.005213652519921811</v>
+        <v>0.02403584642184647</v>
       </c>
       <c r="T18" t="n">
-        <v>0.008740907308253821</v>
+        <v>0.02065721683189231</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02057735676807648</v>
+        <v>0.0203299109334267</v>
       </c>
       <c r="V18" t="n">
-        <v>0.05813095302378417</v>
+        <v>0.01443746816042483</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0790460269061149</v>
+        <v>0.09038026570771121</v>
       </c>
       <c r="X18" t="n">
-        <v>0.05834349152145732</v>
+        <v>0.004104648730058448</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.07302117778163263</v>
+        <v>0.1047083577433013</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.08708500979023827</v>
+        <v>0.03376309479031486</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01222023075418001</v>
+        <v>0.04868324961671917</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.001165534060512964</v>
+        <v>0.001546853802155029</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.05223190306592695</v>
+        <v>0.03633657518354649</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7713539147006631</v>
+        <v>1.092979677293513</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04957040271892221</v>
+        <v>0.06800890498545696</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004995760420174807</v>
+        <v>0.05257956206863823</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02389139797821557</v>
+        <v>0.03256088880506541</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01627497296508939</v>
+        <v>0.03016132801553706</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08523133084540113</v>
+        <v>0.09995527839090922</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06444522410445469</v>
+        <v>0.09330625985169824</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02218936905690986</v>
+        <v>0.01220481168965395</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02407939193390635</v>
+        <v>0.003523854611437657</v>
       </c>
       <c r="N19" t="n">
-        <v>0.00541273755323131</v>
+        <v>0.002678313172412444</v>
       </c>
       <c r="O19" t="n">
-        <v>0.007682071049218694</v>
+        <v>0.03784196546789904</v>
       </c>
       <c r="P19" t="n">
-        <v>0.06126420568922102</v>
+        <v>0.06769089827822847</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.006714289850816019</v>
+        <v>0.008482157378295984</v>
       </c>
       <c r="R19" t="n">
-        <v>0.07553084102057578</v>
+        <v>0.103479335119271</v>
       </c>
       <c r="S19" t="n">
-        <v>0.09514393998936156</v>
+        <v>0.03664856677477042</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01486929577180548</v>
+        <v>0.009384081286831247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07866021282731317</v>
+        <v>0.006047601683140448</v>
       </c>
       <c r="V19" t="n">
-        <v>0.04508121573625015</v>
+        <v>0.06387010770977566</v>
       </c>
       <c r="W19" t="n">
-        <v>0.04733192220269128</v>
+        <v>0.02009052438566436</v>
       </c>
       <c r="X19" t="n">
-        <v>0.05927628070733326</v>
+        <v>0.07406094409390999</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.07393348263174834</v>
+        <v>0.007271846672449048</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.07713434002475743</v>
+        <v>0.05838023215695613</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.001517161810773886</v>
+        <v>0.004404737683750342</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0597701531118285</v>
+        <v>0.1073677997182488</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.06848999353972837</v>
+        <v>0.0932611936553083</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2270869908239457</v>
+        <v>0.2157315039053524</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06446962736986282</v>
+        <v>0.02929034990371892</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008634446004474737</v>
+        <v>0.07594994019145922</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06062972642977137</v>
+        <v>0.07085991912454061</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06609231109187173</v>
+        <v>0.01657881206483055</v>
       </c>
       <c r="J20" t="n">
-        <v>0.07090653666094882</v>
+        <v>0.07665724870993082</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0004138097423069783</v>
+        <v>0.005905250904522367</v>
       </c>
       <c r="L20" t="n">
-        <v>0.005016523963878798</v>
+        <v>0.03552077704472496</v>
       </c>
       <c r="M20" t="n">
-        <v>0.07315899264954004</v>
+        <v>0.04886567899011377</v>
       </c>
       <c r="N20" t="n">
-        <v>0.07719966266509772</v>
+        <v>0.0391443785420116</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05500850717201027</v>
+        <v>0.04811354521899285</v>
       </c>
       <c r="P20" t="n">
-        <v>0.05341067104437988</v>
+        <v>0.02438224243543003</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.06458919939505429</v>
+        <v>0.04803384516628569</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0383694836752281</v>
+        <v>0.06670782902481535</v>
       </c>
       <c r="S20" t="n">
-        <v>0.01333991071991235</v>
+        <v>0.0009575815138461067</v>
       </c>
       <c r="T20" t="n">
-        <v>0.04109691287053616</v>
+        <v>0.0352147898305009</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07655073210571418</v>
+        <v>0.06600764628991955</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01378280613438899</v>
+        <v>0.001059080529369168</v>
       </c>
       <c r="W20" t="n">
-        <v>0.03617597049155728</v>
+        <v>0.03783438742059667</v>
       </c>
       <c r="X20" t="n">
-        <v>0.05962319161303065</v>
+        <v>0.0626566283733223</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.06953014033402996</v>
+        <v>0.07901127429463488</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.03503173508766338</v>
+        <v>0.07527981290127893</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01671889279079615</v>
+        <v>0.02066369770815824</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0002502099879455426</v>
+        <v>0.03530528381699657</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.1788752086667082</v>
+        <v>-0.1861103111122736</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.53691552614334</v>
+        <v>0.3967493143561655</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03702670446412794</v>
+        <v>0.07567786218422154</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02886259781085391</v>
+        <v>0.01074238008463623</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06719926357279377</v>
+        <v>0.08918619533268175</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01393073527915515</v>
+        <v>0.0006533218608620353</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003123525935068293</v>
+        <v>0.0725443159749409</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01142063637416058</v>
+        <v>0.07460427171544423</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03186194585415701</v>
+        <v>0.05073985416665061</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03229495868288791</v>
+        <v>0.01059629078593225</v>
       </c>
       <c r="N21" t="n">
-        <v>0.06497374821026429</v>
+        <v>0.04264243329299479</v>
       </c>
       <c r="O21" t="n">
-        <v>0.05511500175951458</v>
+        <v>0.01829991169465416</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04831450095028245</v>
+        <v>0.08315976190960919</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.07190690045125596</v>
+        <v>0.02154395558749504</v>
       </c>
       <c r="R21" t="n">
-        <v>0.002360838328734267</v>
+        <v>0.03356473645308333</v>
       </c>
       <c r="S21" t="n">
-        <v>0.08723649723550077</v>
+        <v>0.01783531458524248</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04218637750651585</v>
+        <v>0.009196082266161599</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08643289479585858</v>
+        <v>0.01514512817332407</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0002852196678481727</v>
+        <v>0.03762961375391588</v>
       </c>
       <c r="W21" t="n">
-        <v>0.00564124947369557</v>
+        <v>0.06564115123031918</v>
       </c>
       <c r="X21" t="n">
-        <v>0.05384854168125058</v>
+        <v>0.01479387395120547</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.07885055227056786</v>
+        <v>0.01105264066480389</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.06886530894724134</v>
+        <v>0.09451562279760822</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02964178178415484</v>
+        <v>0.03631361144995698</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.07862021896411038</v>
+        <v>0.1139216700842561</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.1838935699811558</v>
+        <v>-0.1941817681723289</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1942824743758434</v>
+        <v>0.1990157902230834</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03203920711025597</v>
+        <v>0.004969613872375127</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0154275110133106</v>
+        <v>0.08101961647011986</v>
       </c>
       <c r="H22" t="n">
-        <v>0.011472584812443</v>
+        <v>0.04657517574101005</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07999825948828031</v>
+        <v>0.02916755115741214</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01076089297439803</v>
+        <v>0.04155089814878075</v>
       </c>
       <c r="K22" t="n">
-        <v>0.005229179238171842</v>
+        <v>0.003780219215510882</v>
       </c>
       <c r="L22" t="n">
-        <v>0.007207312923249853</v>
+        <v>0.01302085361887025</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06475235781469509</v>
+        <v>0.04433554313120942</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01090968682723885</v>
+        <v>0.008498743710491537</v>
       </c>
       <c r="O22" t="n">
-        <v>0.08250038919216578</v>
+        <v>0.07179910490392361</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07820736974145488</v>
+        <v>0.0898233155386553</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02522722624883857</v>
+        <v>0.04300098003304455</v>
       </c>
       <c r="R22" t="n">
-        <v>0.09931827080954567</v>
+        <v>0.06409885680890241</v>
       </c>
       <c r="S22" t="n">
-        <v>0.04448736256152918</v>
+        <v>0.02829338376951904</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01332603137683517</v>
+        <v>0.03763947450199876</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02460364110955019</v>
+        <v>0.0796256758870024</v>
       </c>
       <c r="V22" t="n">
-        <v>0.02418197008910413</v>
+        <v>0.02804296108363855</v>
       </c>
       <c r="W22" t="n">
-        <v>0.09908277892088135</v>
+        <v>0.07606531628960328</v>
       </c>
       <c r="X22" t="n">
-        <v>0.006206202847494824</v>
+        <v>0.01597159552528434</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.08166740381207004</v>
+        <v>0.04559632097039235</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.07880940039758233</v>
+        <v>0.05939452920026643</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.06739998559039237</v>
+        <v>0.05956283504584652</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.037184975100512</v>
+        <v>0.02816743537614249</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.04237595348718298</v>
+        <v>0.03684709212262297</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2945155899316048</v>
+        <v>0.3237154543141467</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09200624175729778</v>
+        <v>0.1019066809223771</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02373879856659083</v>
+        <v>0.06992025843900154</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002540033069524331</v>
+        <v>0.03211793302481707</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001308723725926834</v>
+        <v>0.0323927911423362</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08761656111256733</v>
+        <v>0.05533175129976876</v>
       </c>
       <c r="K23" t="n">
-        <v>0.09073477544889355</v>
+        <v>0.09465146317595491</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06935629043975769</v>
+        <v>0.006019857680658866</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04032239115299369</v>
+        <v>0.07949585910625792</v>
       </c>
       <c r="N23" t="n">
-        <v>0.004716095508106368</v>
+        <v>0.0004858347648501711</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004306991319776125</v>
+        <v>0.007289345193097724</v>
       </c>
       <c r="P23" t="n">
-        <v>0.08709245909316955</v>
+        <v>0.07547630745562479</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.04836965169364103</v>
+        <v>0.02424617063494899</v>
       </c>
       <c r="R23" t="n">
-        <v>0.02508249784615731</v>
+        <v>0.02498980833661526</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06776422046973574</v>
+        <v>0.1031403593434647</v>
       </c>
       <c r="T23" t="n">
-        <v>0.009446467909585084</v>
+        <v>0.003229774067527701</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02443266873501145</v>
+        <v>0.01792160521069058</v>
       </c>
       <c r="V23" t="n">
-        <v>0.03641170475545131</v>
+        <v>0.1016246513575642</v>
       </c>
       <c r="W23" t="n">
-        <v>0.03732722854524819</v>
+        <v>0.05182881525087799</v>
       </c>
       <c r="X23" t="n">
-        <v>0.04941075610995182</v>
+        <v>0.0162895870353752</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.007316061179421755</v>
+        <v>0.02732605311390585</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.09423311873231656</v>
+        <v>0.0351431141470114</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.03919185581359169</v>
+        <v>0.004684726835978347</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.05727440701528382</v>
+        <v>0.03448725246129462</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.05559011495589583</v>
+        <v>0.05051096004855238</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1982178458699019</v>
+        <v>0.1973456284133518</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07872172153308162</v>
+        <v>0.07593717865452496</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02569859187133686</v>
+        <v>0.03691956484393332</v>
       </c>
       <c r="H24" t="n">
-        <v>0.009711268997494393</v>
+        <v>0.001202275379180886</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01902321839895211</v>
+        <v>0.06827731288154236</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02606799088366637</v>
+        <v>0.02896687724101221</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005379128675418101</v>
+        <v>0.0005470246819280089</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07979961693709144</v>
+        <v>0.08724351176666104</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06621408242402542</v>
+        <v>0.07401472455842986</v>
       </c>
       <c r="N24" t="n">
-        <v>0.05102237614651448</v>
+        <v>0.004931954275072766</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02444897092151554</v>
+        <v>0.04661483974573791</v>
       </c>
       <c r="P24" t="n">
-        <v>0.05542603383112592</v>
+        <v>0.09524449706501745</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.04078370289237854</v>
+        <v>0.01527017917960542</v>
       </c>
       <c r="R24" t="n">
-        <v>0.07154535978415105</v>
+        <v>0.03730213833693707</v>
       </c>
       <c r="S24" t="n">
-        <v>0.04715995807122378</v>
+        <v>0.0845602794472209</v>
       </c>
       <c r="T24" t="n">
-        <v>0.00537785764835805</v>
+        <v>0.0004487599446784267</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06669052654574407</v>
+        <v>0.0701106470095846</v>
       </c>
       <c r="V24" t="n">
-        <v>0.03833416829075208</v>
+        <v>0.0297474496801199</v>
       </c>
       <c r="W24" t="n">
-        <v>0.08400767655193918</v>
+        <v>0.06753806897999134</v>
       </c>
       <c r="X24" t="n">
-        <v>0.01335730488034413</v>
+        <v>0.01491601926836527</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0007757448733773217</v>
+        <v>0.07592286491773877</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.08396755989654486</v>
+        <v>0.04011693752633564</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.08003154912458793</v>
+        <v>0.02952824244711736</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.02645559082037699</v>
+        <v>0.01463865216926453</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1307625426463148</v>
+        <v>0.1168416187481957</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2186952145243531</v>
+        <v>0.2105264870074958</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01607732660043976</v>
+        <v>0.04575732740149338</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02385714819137452</v>
+        <v>0.03469406218058525</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04243878664126302</v>
+        <v>0.04465887814081014</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01112134270892562</v>
+        <v>0.05428772079414394</v>
       </c>
       <c r="J25" t="n">
-        <v>0.003754224463538204</v>
+        <v>0.007042929112219873</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08966076721756151</v>
+        <v>0.05766315884054463</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03641340105970861</v>
+        <v>0.01025609564035569</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004159049193297649</v>
+        <v>0.01332255185955811</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01262762599758615</v>
+        <v>0.01658319669794117</v>
       </c>
       <c r="O25" t="n">
-        <v>0.05517571904466426</v>
+        <v>0.05288178670668026</v>
       </c>
       <c r="P25" t="n">
-        <v>0.03764152895504152</v>
+        <v>0.04584659901364443</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.004387107301787129</v>
+        <v>0.02629485165375925</v>
       </c>
       <c r="R25" t="n">
-        <v>0.09869183055392453</v>
+        <v>0.1489800427669876</v>
       </c>
       <c r="S25" t="n">
-        <v>0.05373499468041312</v>
+        <v>0.1167114748528156</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02963825297929206</v>
+        <v>0.0234590467056236</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1032521937811942</v>
+        <v>0.06632903844800965</v>
       </c>
       <c r="V25" t="n">
-        <v>0.08871400810795227</v>
+        <v>0.0415120652218224</v>
       </c>
       <c r="W25" t="n">
-        <v>0.09703156818552848</v>
+        <v>0.03090009001169137</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01127996538305498</v>
+        <v>0.04976728233367774</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.004254808900842014</v>
+        <v>0.002164867658972004</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.08488582453175629</v>
+        <v>0.04433528194756161</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.008275299281582943</v>
+        <v>0.04780481500621676</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.08292722623927103</v>
+        <v>0.01874683700488535</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1622800922161463</v>
+        <v>0.1226324375084204</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2413665123632751</v>
+        <v>0.2716563859378638</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02213081947508391</v>
+        <v>0.01415504182797987</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05829920065218219</v>
+        <v>0.02678563377625221</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03998997400485098</v>
+        <v>0.03873824059141266</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00221879455057606</v>
+        <v>0.05551624825980128</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0741914860761263</v>
+        <v>0.08756630487939644</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02432300531654062</v>
+        <v>0.04799497836514417</v>
       </c>
       <c r="L26" t="n">
-        <v>0.07142039543300729</v>
+        <v>0.06975898190224947</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06542318572140983</v>
+        <v>0.08058513520513867</v>
       </c>
       <c r="N26" t="n">
-        <v>0.06852796629969514</v>
+        <v>0.06469482932060329</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01245525257133879</v>
+        <v>0.002737440409508682</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07173189634807417</v>
+        <v>0.08140628567422158</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.04180953644738419</v>
+        <v>0.04806497446754392</v>
       </c>
       <c r="R26" t="n">
-        <v>0.06910686388777995</v>
+        <v>0.01517647903627303</v>
       </c>
       <c r="S26" t="n">
-        <v>0.08036888273098521</v>
+        <v>0.07810311734399672</v>
       </c>
       <c r="T26" t="n">
-        <v>0.02009555686521415</v>
+        <v>0.01643733718143046</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06987399729108669</v>
+        <v>0.01626255295566005</v>
       </c>
       <c r="V26" t="n">
-        <v>0.04878464798844814</v>
+        <v>0.05026923514386297</v>
       </c>
       <c r="W26" t="n">
-        <v>0.004517268420791873</v>
+        <v>0.007576168268700445</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0133860080141586</v>
+        <v>0.06228203261290201</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0541309983915854</v>
+        <v>0.0707102493523398</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.001424118920779546</v>
+        <v>0.001647201636588463</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.06868681086752347</v>
+        <v>0.04784293405123177</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01710333372537757</v>
+        <v>0.01568859773776209</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.005713554100652987</v>
+        <v>-0.001287223466226757</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.3171690565470814</v>
+        <v>0.2976680840945187</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08088453305238646</v>
+        <v>0.04123459244140513</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04526709728963891</v>
+        <v>0.07918784511777918</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08825346149562333</v>
+        <v>0.0513323176659481</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06349695383178555</v>
+        <v>0.08728358112179285</v>
       </c>
       <c r="J27" t="n">
-        <v>0.05264656915866021</v>
+        <v>0.06064022909144671</v>
       </c>
       <c r="K27" t="n">
-        <v>0.08078903082691341</v>
+        <v>0.0628447595482812</v>
       </c>
       <c r="L27" t="n">
-        <v>0.09131173148356388</v>
+        <v>0.03224701883284419</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04007843736198372</v>
+        <v>0.07903620063867797</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02624459751831319</v>
+        <v>0.02736113528295057</v>
       </c>
       <c r="O27" t="n">
-        <v>0.05620503934016197</v>
+        <v>0.06065024083819499</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03986563867421739</v>
+        <v>0.04714538616140049</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02177414422764387</v>
+        <v>0.01379855457361105</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0006557843204066302</v>
+        <v>0.07530796453736496</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01108087651583593</v>
+        <v>0.06155463766068178</v>
       </c>
       <c r="T27" t="n">
-        <v>0.009309316946079376</v>
+        <v>0.02914078764597773</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09791793127082545</v>
+        <v>0.08123628963889354</v>
       </c>
       <c r="V27" t="n">
-        <v>0.002081726191096023</v>
+        <v>0.01650959183088069</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01945138396755672</v>
+        <v>0.02105662423138199</v>
       </c>
       <c r="X27" t="n">
-        <v>0.04926004607641035</v>
+        <v>0.01882197470224461</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.07188935625505058</v>
+        <v>0.02504955337858665</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0009464639318016828</v>
+        <v>0.001792877202411453</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.02061668949390675</v>
+        <v>0.01667088126139371</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.02997319077013841</v>
+        <v>0.01009695659585056</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.03574884830703168</v>
+        <v>0.05428923575006182</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2800664917492006</v>
+        <v>0.2652090888995436</v>
       </c>
       <c r="F28" t="n">
-        <v>0.009362853881159948</v>
+        <v>0.004240273082435908</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07620250267741001</v>
+        <v>0.08459515941518664</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04116124698505892</v>
+        <v>0.06606037018097566</v>
       </c>
       <c r="I28" t="n">
-        <v>0.000945452929574466</v>
+        <v>0.01200275111279122</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02108982327426544</v>
+        <v>0.002734719884207512</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01411451443260447</v>
+        <v>0.0005026295500119905</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05737817792485135</v>
+        <v>0.03039326996540032</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07233515432657221</v>
+        <v>0.05893739058148694</v>
       </c>
       <c r="N28" t="n">
-        <v>0.07953261733588318</v>
+        <v>0.000139589555286197</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01099974486522925</v>
+        <v>0.004001563400519334</v>
       </c>
       <c r="P28" t="n">
-        <v>0.00671407289740883</v>
+        <v>0.07172095453875105</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02019847952436648</v>
+        <v>0.0240834958207993</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06977424434289661</v>
+        <v>0.03125934138483444</v>
       </c>
       <c r="S28" t="n">
-        <v>0.02945236269038314</v>
+        <v>0.05726628817798968</v>
       </c>
       <c r="T28" t="n">
-        <v>0.009667435295312344</v>
+        <v>0.01953325509193184</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07408992496458433</v>
+        <v>0.03394707670968174</v>
       </c>
       <c r="V28" t="n">
-        <v>0.03745335098748192</v>
+        <v>0.02037100839240977</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0492164809799609</v>
+        <v>0.1215648395611582</v>
       </c>
       <c r="X28" t="n">
-        <v>0.07453846006968183</v>
+        <v>0.04583027889119518</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.08739777130987712</v>
+        <v>0.04668808204375381</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.07391403554991095</v>
+        <v>0.09894215861786587</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.07947429582338969</v>
+        <v>0.1004005816347142</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.004986996932136577</v>
+        <v>0.06478492240661324</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1446675415400978</v>
+        <v>0.1642360865303584</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.7649124418557106</v>
+        <v>0.8796851625122067</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08671508259113556</v>
+        <v>0.08473789276953328</v>
       </c>
       <c r="G29" t="n">
-        <v>0.003996315880268076</v>
+        <v>0.03302744565635026</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08031762201409362</v>
+        <v>0.04377281223856531</v>
       </c>
       <c r="I29" t="n">
-        <v>0.05126744412975842</v>
+        <v>0.009162896482309845</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01527397490211281</v>
+        <v>0.01914410365161081</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01271605108384125</v>
+        <v>0.03108298179300736</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01123278132237312</v>
+        <v>0.04159330377851848</v>
       </c>
       <c r="M29" t="n">
-        <v>0.086707176524837</v>
+        <v>0.0782172677834891</v>
       </c>
       <c r="N29" t="n">
-        <v>0.09351201913985382</v>
+        <v>0.07462173574602697</v>
       </c>
       <c r="O29" t="n">
-        <v>0.001681290478590694</v>
+        <v>0.02628164760297857</v>
       </c>
       <c r="P29" t="n">
-        <v>0.04407564079491368</v>
+        <v>0.0489541362848048</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02840474155002046</v>
+        <v>0.02188334863435163</v>
       </c>
       <c r="R29" t="n">
-        <v>0.00229572940364424</v>
+        <v>0.06924135647906395</v>
       </c>
       <c r="S29" t="n">
-        <v>0.07798989931453805</v>
+        <v>0.06914992028977927</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03947719874243082</v>
+        <v>0.04070231649141669</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08386790620500298</v>
+        <v>0.08545733847123695</v>
       </c>
       <c r="V29" t="n">
-        <v>0.01492611489332864</v>
+        <v>0.006681319675705326</v>
       </c>
       <c r="W29" t="n">
-        <v>0.05921566724193325</v>
+        <v>0.07602530621072522</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01313152292369286</v>
+        <v>0.06139803695411355</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0702764349325757</v>
+        <v>0.003504756133183746</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.05505705860063254</v>
+        <v>0.03430145958813056</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.02633175564329656</v>
+        <v>0.0121125113166354</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.04153057168712593</v>
+        <v>0.02894610596846286</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.1504233297723364</v>
+        <v>0.1479946440853243</v>
       </c>
     </row>
     <row r="30">
@@ -3255,79 +3255,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1980376979907946</v>
+        <v>0.1985012606628979</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003396170941505365</v>
+        <v>0.09443964908487683</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002030748521740697</v>
+        <v>0.07275096168313877</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05860186140068804</v>
+        <v>0.02268932869499013</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01838430152827464</v>
+        <v>0.005705091776212238</v>
       </c>
       <c r="J30" t="n">
-        <v>0.08563961226440707</v>
+        <v>0.01167959506883238</v>
       </c>
       <c r="K30" t="n">
-        <v>0.002189575631711819</v>
+        <v>0.0166578419298092</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02715794755852044</v>
+        <v>0.05836398125262423</v>
       </c>
       <c r="M30" t="n">
-        <v>0.05992478063622485</v>
+        <v>0.1073281447663136</v>
       </c>
       <c r="N30" t="n">
-        <v>0.04427394848228198</v>
+        <v>0.02974371231632544</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01953248188014845</v>
+        <v>0.02096275032409573</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0005734749390285615</v>
+        <v>0.006759021932879263</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.08921679901150757</v>
+        <v>0.0481483836271266</v>
       </c>
       <c r="R30" t="n">
-        <v>0.08866763984355046</v>
+        <v>0.1315437265534902</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01070519369153504</v>
+        <v>0.0485802209538163</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0740122296825312</v>
+        <v>0.08128706840187197</v>
       </c>
       <c r="U30" t="n">
-        <v>0.003248487868460697</v>
+        <v>0.02464350168317642</v>
       </c>
       <c r="V30" t="n">
-        <v>0.009957067094012947</v>
+        <v>0.03004932250216067</v>
       </c>
       <c r="W30" t="n">
-        <v>0.03121603611743942</v>
+        <v>0.006942045199717332</v>
       </c>
       <c r="X30" t="n">
-        <v>0.03808131001246149</v>
+        <v>0.02363449063559427</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.08881073528176256</v>
+        <v>0.0008687032959302033</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.08472150236026209</v>
+        <v>0.1022551666528895</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.08664110254031927</v>
+        <v>0.01712127725824639</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.07301699271162516</v>
+        <v>0.03784601440588242</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.03686650458446161</v>
+        <v>-0.01357566026905447</v>
       </c>
     </row>
     <row r="31">
@@ -3350,79 +3350,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2691466807148268</v>
+        <v>0.3570356790502064</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08619478262249382</v>
+        <v>0.007116006843127495</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06195595526763727</v>
+        <v>0.0142119801366029</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04936542346057878</v>
+        <v>0.08246651683659388</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01587351517501199</v>
+        <v>0.03467535993182355</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05794547860756669</v>
+        <v>0.03227638987663529</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0704525477969323</v>
+        <v>0.09149395902531683</v>
       </c>
       <c r="L31" t="n">
-        <v>0.05164304279372346</v>
+        <v>0.04354706610416098</v>
       </c>
       <c r="M31" t="n">
-        <v>0.06085314978531088</v>
+        <v>0.02233531658690857</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0006845119129930505</v>
+        <v>0.02981247577444741</v>
       </c>
       <c r="O31" t="n">
-        <v>0.08753620092416414</v>
+        <v>0.08176589008799839</v>
       </c>
       <c r="P31" t="n">
-        <v>0.01947140887323624</v>
+        <v>0.03200590334948182</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.07224869715801584</v>
+        <v>0.04824284639789241</v>
       </c>
       <c r="R31" t="n">
-        <v>0.004415227936586481</v>
+        <v>0.03770417938461419</v>
       </c>
       <c r="S31" t="n">
-        <v>0.04514471185798707</v>
+        <v>0.02847513360673629</v>
       </c>
       <c r="T31" t="n">
-        <v>0.04044373618408428</v>
+        <v>0.04058018487388677</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04766206080096927</v>
+        <v>0.08914384501308646</v>
       </c>
       <c r="V31" t="n">
-        <v>0.08826477687757923</v>
+        <v>0.07146358963227126</v>
       </c>
       <c r="W31" t="n">
-        <v>0.03977439973849243</v>
+        <v>0.04109730065161982</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0206029828365046</v>
+        <v>0.04144625870360533</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.01269744374602119</v>
+        <v>0.004748277591997819</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.002699384035341873</v>
+        <v>0.02161925575501586</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.02042092238430153</v>
+        <v>0.08801125704765539</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.04364963922446776</v>
+        <v>0.01576100678852126</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.03731925139650764</v>
+        <v>0.04509623567294938</v>
       </c>
     </row>
     <row r="32">
@@ -3445,79 +3445,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1797580221376698</v>
+        <v>0.1807398885057703</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03518050223405551</v>
+        <v>0.01876302526280839</v>
       </c>
       <c r="G32" t="n">
-        <v>0.009620516986873624</v>
+        <v>0.01617183744586688</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09303761412090378</v>
+        <v>0.03047120281047039</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01749384607605033</v>
+        <v>0.02221071977380141</v>
       </c>
       <c r="J32" t="n">
-        <v>0.04443998091824011</v>
+        <v>0.06996541879568786</v>
       </c>
       <c r="K32" t="n">
-        <v>0.05267639752071987</v>
+        <v>0.04990293754914422</v>
       </c>
       <c r="L32" t="n">
-        <v>0.009756406458106624</v>
+        <v>0.005828240804062081</v>
       </c>
       <c r="M32" t="n">
-        <v>0.004031715607220765</v>
+        <v>0.01506687543455785</v>
       </c>
       <c r="N32" t="n">
-        <v>0.09901607941493928</v>
+        <v>0.1011703936189325</v>
       </c>
       <c r="O32" t="n">
-        <v>0.03641616828531155</v>
+        <v>0.002893847347056942</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0008546719408542404</v>
+        <v>0.08856258153342457</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.05261691198991521</v>
+        <v>0.06846061250348884</v>
       </c>
       <c r="R32" t="n">
-        <v>0.07946384238980002</v>
+        <v>0.07397910823807913</v>
       </c>
       <c r="S32" t="n">
-        <v>0.04492889745569651</v>
+        <v>0.09541413665666131</v>
       </c>
       <c r="T32" t="n">
-        <v>0.06761296756153977</v>
+        <v>0.009191942443166982</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05369865957445742</v>
+        <v>0.02289125428387979</v>
       </c>
       <c r="V32" t="n">
-        <v>0.001711019482910671</v>
+        <v>0.005532300041340821</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01001086988114198</v>
+        <v>0.002554391948772657</v>
       </c>
       <c r="X32" t="n">
-        <v>0.02051876112493846</v>
+        <v>0.05465338595791116</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.07769884648900537</v>
+        <v>0.06135571489719528</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.08231147845480426</v>
+        <v>0.09475073337052919</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.09958806130303119</v>
+        <v>0.0849709257523306</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.007315784729483542</v>
+        <v>0.005238413530831053</v>
       </c>
       <c r="AC32" t="n">
-        <v>-0.02204040112013462</v>
+        <v>0.009226091716359876</v>
       </c>
     </row>
     <row r="33">
@@ -3540,79 +3540,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2800770285494281</v>
+        <v>0.2775195237507391</v>
       </c>
       <c r="F33" t="n">
-        <v>0.000523947940774456</v>
+        <v>0.0140986077727863</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02918698899035363</v>
+        <v>0.07606168586922268</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07989330559066803</v>
+        <v>0.06917484198086297</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03555514610547968</v>
+        <v>0.04367347525422791</v>
       </c>
       <c r="J33" t="n">
-        <v>0.009238230348726279</v>
+        <v>0.02301089832511937</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1127920352422588</v>
+        <v>0.1154417390487511</v>
       </c>
       <c r="L33" t="n">
-        <v>0.07263056674346674</v>
+        <v>0.07086542016136413</v>
       </c>
       <c r="M33" t="n">
-        <v>0.09068660514784561</v>
+        <v>0.006647994439891185</v>
       </c>
       <c r="N33" t="n">
-        <v>0.01393272670932116</v>
+        <v>0.007931411817963118</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01394942286741523</v>
+        <v>0.06177955162613318</v>
       </c>
       <c r="P33" t="n">
-        <v>0.08428324013811109</v>
+        <v>0.07122725717821186</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.05404399841921829</v>
+        <v>0.04206371215848519</v>
       </c>
       <c r="R33" t="n">
-        <v>0.04280871714882842</v>
+        <v>0.01600588568649389</v>
       </c>
       <c r="S33" t="n">
-        <v>0.03808451443068081</v>
+        <v>0.09191554407597939</v>
       </c>
       <c r="T33" t="n">
-        <v>0.008422081451845337</v>
+        <v>0.03644510011883842</v>
       </c>
       <c r="U33" t="n">
-        <v>0.08481163805634551</v>
+        <v>0.03378888396006647</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1041976579228936</v>
+        <v>0.019853015553902</v>
       </c>
       <c r="W33" t="n">
-        <v>1.937952959941892e-06</v>
+        <v>0.08284909707221057</v>
       </c>
       <c r="X33" t="n">
-        <v>0.03434268785002893</v>
+        <v>0.01451642404405807</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.03525704948864954</v>
+        <v>0.01765058101336646</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0051797633574546</v>
+        <v>0.05204189762131869</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.02566896672449659</v>
+        <v>0.01928736173286302</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.02450877137217794</v>
+        <v>0.01366961348788407</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.001302360005632001</v>
+        <v>0.02827864203931553</v>
       </c>
     </row>
     <row r="34">
@@ -3635,79 +3635,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1709972278829509</v>
+        <v>0.1721082451580142</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03983815537583412</v>
+        <v>0.05990265462317169</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04034098280014679</v>
+        <v>0.01637420976963023</v>
       </c>
       <c r="H34" t="n">
-        <v>0.07616404775796455</v>
+        <v>0.0818858994266911</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02481136279805136</v>
+        <v>0.04719950518001091</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0118271894620477</v>
+        <v>0.06944642632319838</v>
       </c>
       <c r="K34" t="n">
-        <v>0.001561607191649357</v>
+        <v>0.003231765406394721</v>
       </c>
       <c r="L34" t="n">
-        <v>0.07141387722790928</v>
+        <v>0.05964043306205301</v>
       </c>
       <c r="M34" t="n">
-        <v>0.04184979671880394</v>
+        <v>0.02522449143898697</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03145190986731392</v>
+        <v>0.03136478473624394</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03915852339302281</v>
+        <v>0.05182116985513528</v>
       </c>
       <c r="P34" t="n">
-        <v>0.06459863634764992</v>
+        <v>0.08350793253143689</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.08582186329286465</v>
+        <v>0.0655781651428079</v>
       </c>
       <c r="R34" t="n">
-        <v>0.02598381144274261</v>
+        <v>0.0729166635228725</v>
       </c>
       <c r="S34" t="n">
-        <v>0.01307076998483988</v>
+        <v>0.01844430403913436</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0700796969395775</v>
+        <v>0.003938907708361064</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02820305932447918</v>
+        <v>0.006803306402051651</v>
       </c>
       <c r="V34" t="n">
-        <v>0.000699153328284719</v>
+        <v>0.005954296165053484</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02453401796785015</v>
+        <v>0.0209372708369677</v>
       </c>
       <c r="X34" t="n">
-        <v>0.077183115275237</v>
+        <v>0.02964990555032843</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.01165647082147439</v>
+        <v>0.05298069309471702</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.05999364789015466</v>
+        <v>0.06915853124047511</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.08476207330885227</v>
+        <v>0.05201337983817819</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.07499623148324926</v>
+        <v>0.07202530410609945</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.09656640136724229</v>
+        <v>0.09599430385424816</v>
       </c>
     </row>
     <row r="35">
@@ -3730,79 +3730,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2726542225371287</v>
+        <v>0.2308899496056215</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04314100410881643</v>
+        <v>0.009323559372188839</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01054405683613225</v>
+        <v>0.05585492119897445</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0686238394017705</v>
+        <v>0.08264886729475794</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0765522813095853</v>
+        <v>0.08528847028737711</v>
       </c>
       <c r="J35" t="n">
-        <v>0.04091347236680034</v>
+        <v>0.08524214437778761</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0791505030866383</v>
+        <v>0.03288451633863065</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0404074445297281</v>
+        <v>0.02309406485031395</v>
       </c>
       <c r="M35" t="n">
-        <v>0.08558742038824167</v>
+        <v>0.09046195196165868</v>
       </c>
       <c r="N35" t="n">
-        <v>0.02163121632061657</v>
+        <v>0.01089927034867235</v>
       </c>
       <c r="O35" t="n">
-        <v>0.008222300500945953</v>
+        <v>0.004510584396040988</v>
       </c>
       <c r="P35" t="n">
-        <v>0.1132107068058187</v>
+        <v>0.05953670386076336</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.003227818278120387</v>
+        <v>0.01947456503268168</v>
       </c>
       <c r="R35" t="n">
-        <v>0.07225833079802664</v>
+        <v>0.0820424148813656</v>
       </c>
       <c r="S35" t="n">
-        <v>0.005014611676355423</v>
+        <v>0.02023915443627479</v>
       </c>
       <c r="T35" t="n">
-        <v>0.004340215292454438</v>
+        <v>0.004150962853873708</v>
       </c>
       <c r="U35" t="n">
-        <v>0.005359650041869718</v>
+        <v>0.09117239964988226</v>
       </c>
       <c r="V35" t="n">
-        <v>0.08412204878614113</v>
+        <v>0.0513563460010864</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0910588358059599</v>
+        <v>0.08915482790534496</v>
       </c>
       <c r="X35" t="n">
-        <v>0.01591960667688807</v>
+        <v>0.04372988420408399</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.002693353036381981</v>
+        <v>0.01512260662283678</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.07369844791000682</v>
+        <v>0.005352324241844276</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.02706000877508356</v>
+        <v>0.000326625130038086</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.02726282726761756</v>
+        <v>0.03813283475352142</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1697810557233021</v>
+        <v>0.1504382581715381</v>
       </c>
     </row>
     <row r="36">
@@ -3825,79 +3825,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1612368834156259</v>
+        <v>0.1571436376234751</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07408215080172761</v>
+        <v>0.07955261388494601</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02762894599593305</v>
+        <v>0.02147949455414107</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07038826059894263</v>
+        <v>0.04075139812168117</v>
       </c>
       <c r="I36" t="n">
-        <v>0.001652900207925358</v>
+        <v>0.04236639702803728</v>
       </c>
       <c r="J36" t="n">
-        <v>0.006921738091321905</v>
+        <v>0.08502042086583972</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00658363878881876</v>
+        <v>0.005176349314928048</v>
       </c>
       <c r="L36" t="n">
-        <v>0.006700206226297753</v>
+        <v>0.0001397168123264824</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0367237567158647</v>
+        <v>0.05109863718278689</v>
       </c>
       <c r="N36" t="n">
-        <v>0.05088190520546861</v>
+        <v>0.07163121334189911</v>
       </c>
       <c r="O36" t="n">
-        <v>0.03874220692931514</v>
+        <v>0.04954180789311743</v>
       </c>
       <c r="P36" t="n">
-        <v>0.02962973892987628</v>
+        <v>0.01855881668085808</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.06711214952984729</v>
+        <v>0.04814681881811169</v>
       </c>
       <c r="R36" t="n">
-        <v>0.07179621014873369</v>
+        <v>0.07701786703405673</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0544991864416152</v>
+        <v>0.02516619743590397</v>
       </c>
       <c r="T36" t="n">
-        <v>0.01793742410482145</v>
+        <v>0.01569481935711028</v>
       </c>
       <c r="U36" t="n">
-        <v>0.007965052390094162</v>
+        <v>0.01805990114334815</v>
       </c>
       <c r="V36" t="n">
-        <v>0.06805441571986499</v>
+        <v>0.04364025606240925</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0428352644908972</v>
+        <v>0.01385774836654429</v>
       </c>
       <c r="X36" t="n">
-        <v>0.05911449866595776</v>
+        <v>0.05990815222544438</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.07503222574591802</v>
+        <v>0.06021883497307554</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.07036804469277724</v>
+        <v>0.07548172720230013</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.06427813093912929</v>
+        <v>0.05886228234995672</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.05107194863885191</v>
+        <v>0.03862852935117758</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.04102729632469536</v>
+        <v>-0.03377787299363369</v>
       </c>
     </row>
     <row r="37">
@@ -3920,79 +3920,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2166221987776458</v>
+        <v>0.2182785493065984</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005843898391323912</v>
+        <v>0.01009866716700677</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02045175754613603</v>
+        <v>0.01557237450997193</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03463361609906426</v>
+        <v>0.03250237905666055</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06889406270653414</v>
+        <v>0.0609422926064439</v>
       </c>
       <c r="J37" t="n">
-        <v>0.06780468431415763</v>
+        <v>0.06102892505313036</v>
       </c>
       <c r="K37" t="n">
-        <v>0.08767722381468264</v>
+        <v>0.02296931534474847</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01274324042467382</v>
+        <v>0.02437118599141854</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01823733855121672</v>
+        <v>0.03212639540308414</v>
       </c>
       <c r="N37" t="n">
-        <v>0.01849947086863932</v>
+        <v>0.0186385326785855</v>
       </c>
       <c r="O37" t="n">
-        <v>0.04227119240239217</v>
+        <v>0.03701975102835302</v>
       </c>
       <c r="P37" t="n">
-        <v>0.01418588913945671</v>
+        <v>0.08143021826432063</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.005190849411094153</v>
+        <v>0.02698531622507868</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0843535642139193</v>
+        <v>0.09005508562262463</v>
       </c>
       <c r="S37" t="n">
-        <v>0.02242935769755495</v>
+        <v>0.03554717310852196</v>
       </c>
       <c r="T37" t="n">
-        <v>0.07219243778026892</v>
+        <v>0.02877287103063939</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08747231419810729</v>
+        <v>0.07639711716167798</v>
       </c>
       <c r="V37" t="n">
-        <v>0.06114500868695969</v>
+        <v>0.09055327366655209</v>
       </c>
       <c r="W37" t="n">
-        <v>0.08495791940361215</v>
+        <v>0.0692807277063596</v>
       </c>
       <c r="X37" t="n">
-        <v>0.05329479538432462</v>
+        <v>0.08928917797723944</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02002111718041218</v>
+        <v>0.01962202199929894</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.05247437209694097</v>
+        <v>0.04134891968595201</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.0002069169357837504</v>
+        <v>0.02381492890684204</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.06501897275274478</v>
+        <v>0.01163334980548942</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.02215038138807492</v>
+        <v>0.01018000943508638</v>
       </c>
     </row>
     <row r="38">
@@ -4015,79 +4015,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2037366227841013</v>
+        <v>0.2039778851791894</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04537832259369459</v>
+        <v>0.037187523334544</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01188848017737082</v>
+        <v>0.01622499968202353</v>
       </c>
       <c r="H38" t="n">
-        <v>0.03466888072645116</v>
+        <v>0.05548073709942586</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03673932231131587</v>
+        <v>0.03151336074422059</v>
       </c>
       <c r="J38" t="n">
-        <v>0.04222848561186365</v>
+        <v>0.08845950885390121</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0491639443994806</v>
+        <v>0.02292038321598605</v>
       </c>
       <c r="L38" t="n">
-        <v>0.007032604633552601</v>
+        <v>0.03287213183555919</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02926574498883832</v>
+        <v>0.02027214439676311</v>
       </c>
       <c r="N38" t="n">
-        <v>0.06108638085432129</v>
+        <v>0.006118028163477621</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0316383679054014</v>
+        <v>0.02325307333186093</v>
       </c>
       <c r="P38" t="n">
-        <v>0.06393143570688871</v>
+        <v>0.003147841675024194</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01638565613536051</v>
+        <v>0.08593855729455756</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0393381205768692</v>
+        <v>0.002396752217952913</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01159910094148451</v>
+        <v>0.001796865059421694</v>
       </c>
       <c r="T38" t="n">
-        <v>0.08094506927606192</v>
+        <v>0.1102123940136018</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03771156859843387</v>
+        <v>0.05200910372240792</v>
       </c>
       <c r="V38" t="n">
-        <v>0.09336412981452151</v>
+        <v>0.05498154065099919</v>
       </c>
       <c r="W38" t="n">
-        <v>0.09189422550741248</v>
+        <v>0.08691993840894881</v>
       </c>
       <c r="X38" t="n">
-        <v>0.09312039480165765</v>
+        <v>0.116705009353907</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.007330114873065411</v>
+        <v>0.01243699204934638</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.005251947170801983</v>
+        <v>0.01528880168371375</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.07980104102369713</v>
+        <v>0.1063131779811311</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.0302366613714546</v>
+        <v>0.01755113523122538</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.05827896936535189</v>
+        <v>-0.0407672325299857</v>
       </c>
     </row>
     <row r="39">
@@ -4110,79 +4110,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.320805801814307</v>
+        <v>0.2662033053434053</v>
       </c>
       <c r="F39" t="n">
-        <v>0.07918698552407144</v>
+        <v>0.104060971268641</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05153107312925174</v>
+        <v>0.09757009946278367</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03581096957143005</v>
+        <v>0.04044499854057161</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01465636783880906</v>
+        <v>0.01578969379087251</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01590774990608706</v>
+        <v>0.008119345132738038</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07830140295629433</v>
+        <v>0.02648464935675457</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02355333292162188</v>
+        <v>0.0003953367242689951</v>
       </c>
       <c r="M39" t="n">
-        <v>0.07071455617659855</v>
+        <v>0.03053159380189746</v>
       </c>
       <c r="N39" t="n">
-        <v>0.03490402061444672</v>
+        <v>0.01766233071510696</v>
       </c>
       <c r="O39" t="n">
-        <v>0.02266131816163716</v>
+        <v>0.03730012126993447</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0520961225871876</v>
+        <v>0.01303675156030992</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.003373109294127213</v>
+        <v>0.007142980080849628</v>
       </c>
       <c r="R39" t="n">
-        <v>0.02017169688863234</v>
+        <v>0.01338791341719597</v>
       </c>
       <c r="S39" t="n">
-        <v>0.04642416973974433</v>
+        <v>0.03821163366423661</v>
       </c>
       <c r="T39" t="n">
-        <v>0.09304495590210336</v>
+        <v>0.07266016889370812</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09533488001188352</v>
+        <v>0.08534619942825647</v>
       </c>
       <c r="V39" t="n">
-        <v>0.1032856760464769</v>
+        <v>0.1011209623353399</v>
       </c>
       <c r="W39" t="n">
-        <v>0.00994138712154783</v>
+        <v>0.1010530630711068</v>
       </c>
       <c r="X39" t="n">
-        <v>0.004289498808470397</v>
+        <v>0.01153221619580966</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.02117648526883528</v>
+        <v>0.01848700407327767</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.07319702317861729</v>
+        <v>0.0530969694542069</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.03807686636189208</v>
+        <v>0.09912199787535202</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.0123603519902338</v>
+        <v>0.007442999886780793</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.02541269692003024</v>
+        <v>0.01770532028529215</v>
       </c>
     </row>
     <row r="40">
@@ -4205,79 +4205,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2101799669783669</v>
+        <v>0.2074822136138691</v>
       </c>
       <c r="F40" t="n">
-        <v>0.001558834432054109</v>
+        <v>0.0001104198841356321</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06916247583841509</v>
+        <v>0.02848822327482381</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04609450532372043</v>
+        <v>0.04646848869720341</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0100503009314114</v>
+        <v>0.01531711831792256</v>
       </c>
       <c r="J40" t="n">
-        <v>0.04880117449879887</v>
+        <v>0.02236304551925299</v>
       </c>
       <c r="K40" t="n">
-        <v>0.02307758884208642</v>
+        <v>0.03145707091096309</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0147218156651416</v>
+        <v>0.05521418980763677</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06863250026184974</v>
+        <v>0.04535269551495986</v>
       </c>
       <c r="N40" t="n">
-        <v>0.05701384742942076</v>
+        <v>0.02281478312579719</v>
       </c>
       <c r="O40" t="n">
-        <v>0.04570936691744228</v>
+        <v>0.03722705648930075</v>
       </c>
       <c r="P40" t="n">
-        <v>0.02212637386411226</v>
+        <v>0.04992528353368408</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.05889983332680038</v>
+        <v>0.05328145711238443</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0459470475245638</v>
+        <v>0.04559813938427813</v>
       </c>
       <c r="S40" t="n">
-        <v>0.02565513029944776</v>
+        <v>0.07685939911810759</v>
       </c>
       <c r="T40" t="n">
-        <v>0.02210175315734638</v>
+        <v>0.03460064186961558</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07667345464154197</v>
+        <v>0.0837040394834391</v>
       </c>
       <c r="V40" t="n">
-        <v>0.03915979352485392</v>
+        <v>0.01059210763222524</v>
       </c>
       <c r="W40" t="n">
-        <v>0.07334292188013279</v>
+        <v>0.06707087881566789</v>
       </c>
       <c r="X40" t="n">
-        <v>0.06137733073915845</v>
+        <v>0.08027825440897812</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.00906165731236736</v>
+        <v>0.01049229779336302</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.05517844123145679</v>
+        <v>0.08164964776253919</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.06739396863402584</v>
+        <v>0.06247383765151847</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.05825988372385163</v>
+        <v>0.03866092389220301</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1364616655626349</v>
+        <v>0.1274870066902942</v>
       </c>
     </row>
     <row r="41">
@@ -4300,79 +4300,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.6628384852828119</v>
+        <v>0.4558000999546342</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1062811504296639</v>
+        <v>0.07548912183977284</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1019691825058206</v>
+        <v>0.05525666636425992</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03303870588417535</v>
+        <v>0.02238842265784106</v>
       </c>
       <c r="I41" t="n">
-        <v>0.007302376027057264</v>
+        <v>0.02974430290378023</v>
       </c>
       <c r="J41" t="n">
-        <v>0.01254595166012598</v>
+        <v>0.03199285695252935</v>
       </c>
       <c r="K41" t="n">
-        <v>0.02310919677345473</v>
+        <v>0.02615522408388027</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0572897527969384</v>
+        <v>0.09097720267723275</v>
       </c>
       <c r="M41" t="n">
-        <v>0.04062294955320046</v>
+        <v>0.08566608400473914</v>
       </c>
       <c r="N41" t="n">
-        <v>0.02816352366603598</v>
+        <v>0.002187175330523178</v>
       </c>
       <c r="O41" t="n">
-        <v>0.01599939718552777</v>
+        <v>0.004554903988340725</v>
       </c>
       <c r="P41" t="n">
-        <v>0.07304004523775377</v>
+        <v>0.1074602008876877</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.05431703481558146</v>
+        <v>0.05378959778101794</v>
       </c>
       <c r="R41" t="n">
-        <v>0.009547364105724238</v>
+        <v>0.01253992776231453</v>
       </c>
       <c r="S41" t="n">
-        <v>0.07456886981852917</v>
+        <v>0.09887997077799518</v>
       </c>
       <c r="T41" t="n">
-        <v>0.07040395181277961</v>
+        <v>0.1001907456637969</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08765069584618862</v>
+        <v>0.03738187076221743</v>
       </c>
       <c r="V41" t="n">
-        <v>0.005351964030033975</v>
+        <v>0.02882270145209427</v>
       </c>
       <c r="W41" t="n">
-        <v>0.06311027467407576</v>
+        <v>0.01854231432855374</v>
       </c>
       <c r="X41" t="n">
-        <v>0.001560073755409222</v>
+        <v>0.01496710819093534</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.007580222347642224</v>
+        <v>0.002745083686941135</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.08501783349542698</v>
+        <v>0.07235286288401951</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.03746823563786882</v>
+        <v>0.02681744221025106</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.004061247940985749</v>
+        <v>0.001098212809275865</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1350205909486641</v>
+        <v>0.1364195183795629</v>
       </c>
     </row>
     <row r="42">
@@ -4395,79 +4395,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2076211367793734</v>
+        <v>0.2031648908029738</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1051929791698308</v>
+        <v>0.05657344910441155</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06249665915929059</v>
+        <v>0.08337783493516075</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0359125991330199</v>
+        <v>0.08104293747961855</v>
       </c>
       <c r="I42" t="n">
-        <v>0.05103303120184237</v>
+        <v>0.09183108170459625</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01484809132474264</v>
+        <v>0.007148371734159498</v>
       </c>
       <c r="K42" t="n">
-        <v>0.06167606080517969</v>
+        <v>0.01984617203983504</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02923652215978457</v>
+        <v>0.0007797483785965646</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1040921870572135</v>
+        <v>0.08867844132119361</v>
       </c>
       <c r="N42" t="n">
-        <v>0.02520841944402847</v>
+        <v>0.01300753225485372</v>
       </c>
       <c r="O42" t="n">
-        <v>0.006815209934463427</v>
+        <v>0.002124731292053236</v>
       </c>
       <c r="P42" t="n">
-        <v>0.06769813408519684</v>
+        <v>0.05298597998341219</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01210245055281499</v>
+        <v>0.06475872162957384</v>
       </c>
       <c r="R42" t="n">
-        <v>0.0787588394678566</v>
+        <v>0.0563550806627073</v>
       </c>
       <c r="S42" t="n">
-        <v>0.0007462166554607064</v>
+        <v>0.001684047601547104</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01259677225717444</v>
+        <v>0.02210574729444824</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02993272751913838</v>
+        <v>0.09604931051725522</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05528517585106349</v>
+        <v>0.05194276740944074</v>
       </c>
       <c r="W42" t="n">
-        <v>0.008698851253031298</v>
+        <v>0.04854278588325591</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0903147621084025</v>
+        <v>0.07375023442510664</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.06424758853513968</v>
+        <v>0.0317965637867627</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.0737758385513321</v>
+        <v>0.04707380030173933</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.003643676102421893</v>
+        <v>0.002428318195179993</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.005687207671571295</v>
+        <v>0.006116342065092178</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.07116193170672798</v>
+        <v>0.06980794863670302</v>
       </c>
     </row>
     <row r="43">
@@ -4490,79 +4490,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.299295257640974</v>
+        <v>0.4853276396996565</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0517502008814865</v>
+        <v>0.119986741040129</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04177449670851451</v>
+        <v>0.00841902747200584</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0415242160047961</v>
+        <v>0.08913493869013876</v>
       </c>
       <c r="I43" t="n">
-        <v>0.06432487062733756</v>
+        <v>0.001241915133886619</v>
       </c>
       <c r="J43" t="n">
-        <v>0.04144573624303634</v>
+        <v>0.07073756231131618</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01208183582955267</v>
+        <v>0.006825405273733725</v>
       </c>
       <c r="L43" t="n">
-        <v>0.03064845154724486</v>
+        <v>0.0249182465808754</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1223955039642455</v>
+        <v>0.0205269386778268</v>
       </c>
       <c r="N43" t="n">
-        <v>0.001375845057537586</v>
+        <v>0.001740394382319946</v>
       </c>
       <c r="O43" t="n">
-        <v>0.002245961846643247</v>
+        <v>0.01769315633984068</v>
       </c>
       <c r="P43" t="n">
-        <v>0.09418926254675115</v>
+        <v>0.06009312342636771</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.004470694198461715</v>
+        <v>0.009956611142968917</v>
       </c>
       <c r="R43" t="n">
-        <v>0.09891116553284326</v>
+        <v>0.03918387153430376</v>
       </c>
       <c r="S43" t="n">
-        <v>0.01682224908301556</v>
+        <v>0.1066799216358007</v>
       </c>
       <c r="T43" t="n">
-        <v>0.01159145861038914</v>
+        <v>0.08622692052114522</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0001432387091964965</v>
+        <v>0.007607265163833395</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0470466880852425</v>
+        <v>0.001441506588646786</v>
       </c>
       <c r="W43" t="n">
-        <v>0.07894667092509018</v>
+        <v>0.01549788949710476</v>
       </c>
       <c r="X43" t="n">
-        <v>0.001022321755398444</v>
+        <v>0.09675893089772217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.05330175949409654</v>
+        <v>0.06355932783475464</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.03672219423932579</v>
+        <v>0.09295919427187749</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.1388982298036377</v>
+        <v>0.05275941223868705</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.008366948306156818</v>
+        <v>0.006051699344714305</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.06067289311419088</v>
+        <v>0.0273683053257041</v>
       </c>
     </row>
     <row r="44">
@@ -4585,79 +4585,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.2250510982402824</v>
+        <v>0.2187587499292723</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0650678496267568</v>
+        <v>0.04724497170607848</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01247744644337202</v>
+        <v>0.007590598046614567</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02570664218654486</v>
+        <v>0.07583592895257692</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04107340158248491</v>
+        <v>0.02284027502186904</v>
       </c>
       <c r="J44" t="n">
-        <v>0.07522554363840743</v>
+        <v>0.07670167049507405</v>
       </c>
       <c r="K44" t="n">
-        <v>0.04860736214872941</v>
+        <v>0.07912009580018096</v>
       </c>
       <c r="L44" t="n">
-        <v>0.08822387647788572</v>
+        <v>0.003552683603676828</v>
       </c>
       <c r="M44" t="n">
-        <v>0.07141598045985575</v>
+        <v>0.1028795915240093</v>
       </c>
       <c r="N44" t="n">
-        <v>0.08272747818001122</v>
+        <v>0.02830108879685561</v>
       </c>
       <c r="O44" t="n">
-        <v>0.09053019888656107</v>
+        <v>0.02869527063385763</v>
       </c>
       <c r="P44" t="n">
-        <v>0.008659687545573542</v>
+        <v>0.05035328541554418</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.00616194637613504</v>
+        <v>0.04764623682927222</v>
       </c>
       <c r="R44" t="n">
-        <v>0.01637235216526362</v>
+        <v>0.01848631989796895</v>
       </c>
       <c r="S44" t="n">
-        <v>0.04745900194134086</v>
+        <v>0.1081824555533192</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0802266360961406</v>
+        <v>0.01044638608539953</v>
       </c>
       <c r="U44" t="n">
-        <v>0.003677045911947869</v>
+        <v>0.01763959088967848</v>
       </c>
       <c r="V44" t="n">
-        <v>0.0009299382362931611</v>
+        <v>0.02994975542376401</v>
       </c>
       <c r="W44" t="n">
-        <v>0.002672954600626937</v>
+        <v>0.02996586217297119</v>
       </c>
       <c r="X44" t="n">
-        <v>0.06346580387150694</v>
+        <v>0.09500953563679453</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.04004729239104713</v>
+        <v>0.0672550331078204</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.02074941900908424</v>
+        <v>0.03041627633263753</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.0475228380081555</v>
+        <v>0.01781493407262507</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.06099930421627529</v>
+        <v>0.004072154001411065</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.04280101998521783</v>
+        <v>0.01697176416668398</v>
       </c>
     </row>
     <row r="45">
@@ -4680,79 +4680,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.52689787553833</v>
+        <v>0.2831622697321021</v>
       </c>
       <c r="F45" t="n">
-        <v>0.004548546683842077</v>
+        <v>0.09732017153480085</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07995289811727047</v>
+        <v>0.01666148727041514</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03887130419211862</v>
+        <v>0.08919680534994037</v>
       </c>
       <c r="I45" t="n">
-        <v>0.04874167522781239</v>
+        <v>0.02484903234136816</v>
       </c>
       <c r="J45" t="n">
-        <v>0.04668349341960257</v>
+        <v>0.06277562115998139</v>
       </c>
       <c r="K45" t="n">
-        <v>0.02959324391684896</v>
+        <v>0.03264980493260761</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0001396040945295666</v>
+        <v>0.02796123352297131</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04156057971050744</v>
+        <v>0.02504384134308784</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0301193758206531</v>
+        <v>0.07934451681187164</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1482789955981867</v>
+        <v>0.04657772083809159</v>
       </c>
       <c r="P45" t="n">
-        <v>0.03027640150848473</v>
+        <v>0.1000324286077979</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.03818524693449071</v>
+        <v>0.04666401396993657</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01071601850390384</v>
+        <v>0.1001699018981894</v>
       </c>
       <c r="S45" t="n">
-        <v>0.03614229664573049</v>
+        <v>0.04478398336434417</v>
       </c>
       <c r="T45" t="n">
-        <v>0.04929980795053378</v>
+        <v>0.06846507628056361</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1104723202964947</v>
+        <v>0.007361352321998174</v>
       </c>
       <c r="V45" t="n">
-        <v>0.02285921066696504</v>
+        <v>0.04658987395179218</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01847635259809659</v>
+        <v>0.0001365774412374173</v>
       </c>
       <c r="X45" t="n">
-        <v>0.02727442744565697</v>
+        <v>0.005705977465425332</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.01226755255044296</v>
+        <v>0.06274182416561522</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.03600064403768384</v>
+        <v>0.001991544948771052</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.08325667878792047</v>
+        <v>0.0006232979676796616</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0562833252922242</v>
+        <v>0.01235391251151327</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.03808508437875471</v>
+        <v>0.03291857291657075</v>
       </c>
     </row>
     <row r="46">
@@ -4775,79 +4775,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1708660923267223</v>
+        <v>0.1701085457596762</v>
       </c>
       <c r="F46" t="n">
-        <v>0.008130305011219252</v>
+        <v>0.01653896591256479</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03719901900889785</v>
+        <v>0.05053048228428789</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02579924890391683</v>
+        <v>0.03934751714847359</v>
       </c>
       <c r="I46" t="n">
-        <v>0.05620842722790393</v>
+        <v>0.1052148364662606</v>
       </c>
       <c r="J46" t="n">
-        <v>0.06614723584407153</v>
+        <v>0.02638547278668899</v>
       </c>
       <c r="K46" t="n">
-        <v>0.04210855170425148</v>
+        <v>0.07114395762573937</v>
       </c>
       <c r="L46" t="n">
-        <v>0.06296240577717377</v>
+        <v>0.02562429467961878</v>
       </c>
       <c r="M46" t="n">
-        <v>0.03825840872390614</v>
+        <v>0.03718566275434309</v>
       </c>
       <c r="N46" t="n">
-        <v>0.02143003192057131</v>
+        <v>0.02414699619014637</v>
       </c>
       <c r="O46" t="n">
-        <v>0.03867841693030752</v>
+        <v>0.05967227347942246</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0627802641663061</v>
+        <v>0.08144034102362088</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0673223625373013</v>
+        <v>0.03520321834944611</v>
       </c>
       <c r="R46" t="n">
-        <v>0.07553503504119999</v>
+        <v>0.03602531431902246</v>
       </c>
       <c r="S46" t="n">
-        <v>0.0710297773085104</v>
+        <v>0.00960093070615697</v>
       </c>
       <c r="T46" t="n">
-        <v>0.05780445297118006</v>
+        <v>0.03040937327104052</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06439369915122842</v>
+        <v>0.02386037020990036</v>
       </c>
       <c r="V46" t="n">
-        <v>0.005523144711752942</v>
+        <v>0.01941265356851936</v>
       </c>
       <c r="W46" t="n">
-        <v>0.02381253925720276</v>
+        <v>0.1028873015651535</v>
       </c>
       <c r="X46" t="n">
-        <v>0.03275964181844821</v>
+        <v>0.04559722591178534</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.05035160568522557</v>
+        <v>0.03115765539897581</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.03492387884995063</v>
+        <v>0.01851167167770126</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.05620489819644913</v>
+        <v>0.1071889065196473</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.000636649253024975</v>
+        <v>0.002914578151484056</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.06522490415401151</v>
+        <v>-0.0812083982638054</v>
       </c>
     </row>
     <row r="47">
@@ -4870,79 +4870,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.8979880169014467</v>
+        <v>0.2189694602062522</v>
       </c>
       <c r="F47" t="n">
-        <v>0.009579074355398037</v>
+        <v>0.0385732056169824</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03825524662978423</v>
+        <v>0.02874817104670089</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0279544363631783</v>
+        <v>0.0287449113585747</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0206488346152623</v>
+        <v>0.065160168770676</v>
       </c>
       <c r="J47" t="n">
-        <v>0.07172455128751537</v>
+        <v>0.005767095484377703</v>
       </c>
       <c r="K47" t="n">
-        <v>0.005647052277660456</v>
+        <v>0.002219040943033022</v>
       </c>
       <c r="L47" t="n">
-        <v>0.04130347051708957</v>
+        <v>0.001724119938555576</v>
       </c>
       <c r="M47" t="n">
-        <v>0.09449031233267427</v>
+        <v>0.04427548207400419</v>
       </c>
       <c r="N47" t="n">
-        <v>0.08097718262363642</v>
+        <v>0.006940055119876514</v>
       </c>
       <c r="O47" t="n">
-        <v>0.03943144746551311</v>
+        <v>0.06101422845580361</v>
       </c>
       <c r="P47" t="n">
-        <v>0.04779197726155911</v>
+        <v>0.01706460402252833</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.04488361149336698</v>
+        <v>0.03547282032865771</v>
       </c>
       <c r="R47" t="n">
-        <v>0.01426137220406619</v>
+        <v>0.08997709531331445</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01034697603643796</v>
+        <v>0.01513768972326565</v>
       </c>
       <c r="T47" t="n">
-        <v>0.06700145603174373</v>
+        <v>0.09581912560668616</v>
       </c>
       <c r="U47" t="n">
-        <v>0.07420059379666243</v>
+        <v>0.08661673323646084</v>
       </c>
       <c r="V47" t="n">
-        <v>0.0007129166836951619</v>
+        <v>0.05659290184126212</v>
       </c>
       <c r="W47" t="n">
-        <v>0.05677599299521688</v>
+        <v>0.02846821752739359</v>
       </c>
       <c r="X47" t="n">
-        <v>0.001534444101178312</v>
+        <v>0.1074399115594139</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.07640386327648954</v>
+        <v>0.07688491956925099</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.05671957499421858</v>
+        <v>0.0980631012053583</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.008971670207416439</v>
+        <v>0.005118856810279749</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.1103839424502367</v>
+        <v>0.004177544447543626</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.0939668769660478</v>
+        <v>-0.03608251533009033</v>
       </c>
     </row>
     <row r="48">
@@ -4965,79 +4965,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1312043594766581</v>
+        <v>0.138140872027694</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04110967311688439</v>
+        <v>0.05210856930352935</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05281593099158455</v>
+        <v>0.08377012956346513</v>
       </c>
       <c r="H48" t="n">
-        <v>0.05351661712846686</v>
+        <v>0.07223847521081517</v>
       </c>
       <c r="I48" t="n">
-        <v>0.004585410150086249</v>
+        <v>0.007755275024107008</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0888572839066535</v>
+        <v>0.06994968244009132</v>
       </c>
       <c r="K48" t="n">
-        <v>0.02316337435320715</v>
+        <v>0.05477572972455152</v>
       </c>
       <c r="L48" t="n">
-        <v>0.009994021385037917</v>
+        <v>0.064915913541992</v>
       </c>
       <c r="M48" t="n">
-        <v>0.03243668764840753</v>
+        <v>0.09700234680434568</v>
       </c>
       <c r="N48" t="n">
-        <v>0.06081449972193696</v>
+        <v>0.0487296304135669</v>
       </c>
       <c r="O48" t="n">
-        <v>0.008924796429907966</v>
+        <v>0.008690737822310734</v>
       </c>
       <c r="P48" t="n">
-        <v>0.08964796624075581</v>
+        <v>0.09038633890604676</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0616970963676637</v>
+        <v>0.03992538378729412</v>
       </c>
       <c r="R48" t="n">
-        <v>0.01567186936737648</v>
+        <v>0.06022299128148426</v>
       </c>
       <c r="S48" t="n">
-        <v>0.02688303996959362</v>
+        <v>0.03408660039444782</v>
       </c>
       <c r="T48" t="n">
-        <v>0.06828444105018229</v>
+        <v>0.01186900244174346</v>
       </c>
       <c r="U48" t="n">
-        <v>0.01205056831276208</v>
+        <v>0.03886766425658679</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01949811098227789</v>
+        <v>0.0004487386450476199</v>
       </c>
       <c r="W48" t="n">
-        <v>0.07452623105475081</v>
+        <v>0.06872056664187938</v>
       </c>
       <c r="X48" t="n">
-        <v>0.08874607396266292</v>
+        <v>0.0001768001476256957</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.02943775976448997</v>
+        <v>0.02962238231716367</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.05050372871712813</v>
+        <v>0.03085156702711892</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.01585193089507862</v>
+        <v>0.01084388541803011</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.07098288848310448</v>
+        <v>0.02404158888675653</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.0989509775500266</v>
+        <v>-0.1367943811133881</v>
       </c>
     </row>
     <row r="49">
@@ -5060,79 +5060,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1921155663396338</v>
+        <v>0.1776452206894855</v>
       </c>
       <c r="F49" t="n">
-        <v>0.07820266704149821</v>
+        <v>0.03959530300730754</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08376396218777814</v>
+        <v>0.006807298282407971</v>
       </c>
       <c r="H49" t="n">
-        <v>0.00534649658556911</v>
+        <v>0.03384129842463617</v>
       </c>
       <c r="I49" t="n">
-        <v>0.02139382157659148</v>
+        <v>0.01893622549125988</v>
       </c>
       <c r="J49" t="n">
-        <v>0.02318417720566794</v>
+        <v>0.006890127328063597</v>
       </c>
       <c r="K49" t="n">
-        <v>0.027453004672657</v>
+        <v>0.03622089026878218</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01867284793711977</v>
+        <v>0.01951352019851039</v>
       </c>
       <c r="M49" t="n">
-        <v>0.08277377190524365</v>
+        <v>0.06217573580938788</v>
       </c>
       <c r="N49" t="n">
-        <v>0.01641015384786172</v>
+        <v>0.03397752057476938</v>
       </c>
       <c r="O49" t="n">
-        <v>0.07465023386872799</v>
+        <v>0.01955459072797041</v>
       </c>
       <c r="P49" t="n">
-        <v>0.01160300382036699</v>
+        <v>0.005081210715945126</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01214994881998812</v>
+        <v>0.0917240832393016</v>
       </c>
       <c r="R49" t="n">
-        <v>0.03149049327976668</v>
+        <v>0.09252295472774121</v>
       </c>
       <c r="S49" t="n">
-        <v>0.005920009868623395</v>
+        <v>0.001958816650423596</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0253603754269683</v>
+        <v>0.04651839780004208</v>
       </c>
       <c r="U49" t="n">
-        <v>0.08056247465744723</v>
+        <v>0.01110078286133331</v>
       </c>
       <c r="V49" t="n">
-        <v>0.03079731019016332</v>
+        <v>0.010624409137334</v>
       </c>
       <c r="W49" t="n">
-        <v>0.05015409244659167</v>
+        <v>0.05237941510664353</v>
       </c>
       <c r="X49" t="n">
-        <v>0.03301252637635694</v>
+        <v>0.1134979296009706</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.08649230270834936</v>
+        <v>0.1279607848394856</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.07745418569559052</v>
+        <v>0.08506936174466771</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.07534873761683933</v>
+        <v>0.01197560311196579</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.04780340226423322</v>
+        <v>0.07207374035105017</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.1107892339138908</v>
+        <v>-0.1278903752515947</v>
       </c>
     </row>
     <row r="50">
@@ -5155,79 +5155,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1219352493802871</v>
+        <v>0.1234344714993557</v>
       </c>
       <c r="F50" t="n">
-        <v>0.008246587132425192</v>
+        <v>0.02245770411187784</v>
       </c>
       <c r="G50" t="n">
-        <v>0.011416917151007</v>
+        <v>0.0545493093675871</v>
       </c>
       <c r="H50" t="n">
-        <v>0.06059168697125163</v>
+        <v>0.03320698953770668</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0555744315325031</v>
+        <v>0.02287904464407463</v>
       </c>
       <c r="J50" t="n">
-        <v>0.09640875176715932</v>
+        <v>0.09363990299866209</v>
       </c>
       <c r="K50" t="n">
-        <v>0.04033533723070182</v>
+        <v>0.04777032996699443</v>
       </c>
       <c r="L50" t="n">
-        <v>0.05237613323728902</v>
+        <v>0.06890364199926126</v>
       </c>
       <c r="M50" t="n">
-        <v>0.03270225286532642</v>
+        <v>0.03629621159966934</v>
       </c>
       <c r="N50" t="n">
-        <v>0.003572327892366096</v>
+        <v>0.01460686281213626</v>
       </c>
       <c r="O50" t="n">
-        <v>0.01759673901317706</v>
+        <v>0.04136644878891674</v>
       </c>
       <c r="P50" t="n">
-        <v>0.08918383647642952</v>
+        <v>0.05537475181185451</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.08641637029741914</v>
+        <v>0.03607043104637589</v>
       </c>
       <c r="R50" t="n">
-        <v>0.001829475473783947</v>
+        <v>0.01802259302198321</v>
       </c>
       <c r="S50" t="n">
-        <v>0.003817726429047816</v>
+        <v>0.006669170100488589</v>
       </c>
       <c r="T50" t="n">
-        <v>0.01389873590565385</v>
+        <v>0.05196326611315509</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0820125098515138</v>
+        <v>0.0783961981563578</v>
       </c>
       <c r="V50" t="n">
-        <v>0.06977689154174234</v>
+        <v>0.07471362033028789</v>
       </c>
       <c r="W50" t="n">
-        <v>0.06468313292502449</v>
+        <v>0.01883375524153186</v>
       </c>
       <c r="X50" t="n">
-        <v>0.04229873639903776</v>
+        <v>0.06842725903609471</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.01033428113403203</v>
+        <v>0.05735780411472263</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.01365947490417837</v>
+        <v>0.01075674325541323</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.08187892308147765</v>
+        <v>0.045521216555276</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.06138874078745241</v>
+        <v>0.04221674538957187</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.04625888833092191</v>
+        <v>0.07875579745486189</v>
       </c>
     </row>
     <row r="51">
@@ -5250,79 +5250,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1647113046838787</v>
+        <v>0.1633362964161232</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1109928237766953</v>
+        <v>0.09686025351473984</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03073334563862231</v>
+        <v>0.02094652909514512</v>
       </c>
       <c r="H51" t="n">
-        <v>0.008596701736347651</v>
+        <v>0.01826603439932335</v>
       </c>
       <c r="I51" t="n">
-        <v>0.006178231117692473</v>
+        <v>0.02724253494656542</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07777375376038212</v>
+        <v>0.09288490369785227</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01623783318219108</v>
+        <v>0.01759337323596181</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0621108552763572</v>
+        <v>0.05050683242442765</v>
       </c>
       <c r="M51" t="n">
-        <v>0.130539042444364</v>
+        <v>0.07295416883206511</v>
       </c>
       <c r="N51" t="n">
-        <v>0.05445998286541207</v>
+        <v>0.04776393970220451</v>
       </c>
       <c r="O51" t="n">
-        <v>0.05796386903084937</v>
+        <v>0.02997520624627073</v>
       </c>
       <c r="P51" t="n">
-        <v>0.04175662712093613</v>
+        <v>0.08256303770342276</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01659425871897616</v>
+        <v>0.03655628156959643</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0006831400500353889</v>
+        <v>0.002546625536134094</v>
       </c>
       <c r="S51" t="n">
-        <v>0.008830520700483383</v>
+        <v>0.01588084733097934</v>
       </c>
       <c r="T51" t="n">
-        <v>0.001782969543944843</v>
+        <v>0.01114495332354825</v>
       </c>
       <c r="U51" t="n">
-        <v>0.03660735459858451</v>
+        <v>0.01165303846094584</v>
       </c>
       <c r="V51" t="n">
-        <v>0.08407364421413543</v>
+        <v>0.01283111042325403</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0158538416429286</v>
+        <v>0.06740995113410878</v>
       </c>
       <c r="X51" t="n">
-        <v>0.08991363301995074</v>
+        <v>0.08940241152143602</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.08325049103602662</v>
+        <v>0.08740503515985222</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.03999020763498404</v>
+        <v>0.07755275744255642</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.01557208682951522</v>
+        <v>0.01872368928674531</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.009504786060585428</v>
+        <v>0.01133648501286471</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1201541862885204</v>
+        <v>0.1253540839503374</v>
       </c>
     </row>
     <row r="52">
@@ -5345,79 +5345,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1441534158119764</v>
+        <v>0.141538989431076</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0009419035419544917</v>
+        <v>0.004036499186184867</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06414767507348422</v>
+        <v>0.07292346182976765</v>
       </c>
       <c r="H52" t="n">
-        <v>0.05712414071712566</v>
+        <v>0.01224096624566857</v>
       </c>
       <c r="I52" t="n">
-        <v>0.02323904960091951</v>
+        <v>0.006962129664756268</v>
       </c>
       <c r="J52" t="n">
-        <v>0.09103091703067971</v>
+        <v>0.03667449952887383</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0790262811070888</v>
+        <v>0.03076536219938716</v>
       </c>
       <c r="L52" t="n">
-        <v>0.06045587897688375</v>
+        <v>0.03852943111392983</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0005810068960895893</v>
+        <v>0.006993327664236124</v>
       </c>
       <c r="N52" t="n">
-        <v>0.07166938460928615</v>
+        <v>0.03718387267611638</v>
       </c>
       <c r="O52" t="n">
-        <v>0.04257208735180555</v>
+        <v>0.0266536737218743</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0471935822148478</v>
+        <v>0.01383209154156079</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.08245423294658344</v>
+        <v>0.08073422557996501</v>
       </c>
       <c r="R52" t="n">
-        <v>0.01402788351304007</v>
+        <v>0.09046718807241229</v>
       </c>
       <c r="S52" t="n">
-        <v>0.01836353609346336</v>
+        <v>0.06002293289119482</v>
       </c>
       <c r="T52" t="n">
-        <v>0.05958397604187073</v>
+        <v>0.0554505549207693</v>
       </c>
       <c r="U52" t="n">
-        <v>0.08434586103670959</v>
+        <v>0.06488904174981795</v>
       </c>
       <c r="V52" t="n">
-        <v>0.01611676484717555</v>
+        <v>0.04589427614767811</v>
       </c>
       <c r="W52" t="n">
-        <v>0.04742108737236323</v>
+        <v>0.02424464815928557</v>
       </c>
       <c r="X52" t="n">
-        <v>0.02112578258731953</v>
+        <v>0.07153189067141305</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.008829555305493089</v>
+        <v>0.03294884196435126</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.01402894827925124</v>
+        <v>0.01354170776075962</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.009122108831905743</v>
+        <v>0.08550702930913651</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.08659835602465904</v>
+        <v>0.08797234740086064</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.04571569971152875</v>
+        <v>0.05870797280982552</v>
       </c>
     </row>
     <row r="53">
@@ -5440,79 +5440,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.3830903105625783</v>
+        <v>0.557620897258126</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09330898997885011</v>
+        <v>0.1044669047453987</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0256413096377377</v>
+        <v>0.02713525161009265</v>
       </c>
       <c r="H53" t="n">
-        <v>0.06662001255002641</v>
+        <v>0.04935488913653981</v>
       </c>
       <c r="I53" t="n">
-        <v>0.006251869496398565</v>
+        <v>0.0162177672710643</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02459896649005344</v>
+        <v>0.0300557779565075</v>
       </c>
       <c r="K53" t="n">
-        <v>0.001592474529393081</v>
+        <v>0.04015512546761713</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0108084704295223</v>
+        <v>0.01903149811097439</v>
       </c>
       <c r="M53" t="n">
-        <v>0.003525833406110928</v>
+        <v>0.09313336999502882</v>
       </c>
       <c r="N53" t="n">
-        <v>0.04960443829298984</v>
+        <v>0.003286850021522009</v>
       </c>
       <c r="O53" t="n">
-        <v>0.07539731252729359</v>
+        <v>0.002656762151029075</v>
       </c>
       <c r="P53" t="n">
-        <v>0.06984591453906075</v>
+        <v>0.08485356658893217</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.07039662181176272</v>
+        <v>0.0973608537230037</v>
       </c>
       <c r="R53" t="n">
-        <v>0.0709747512734471</v>
+        <v>0.05769094225385698</v>
       </c>
       <c r="S53" t="n">
-        <v>0.03819103131233059</v>
+        <v>0.033314330516614</v>
       </c>
       <c r="T53" t="n">
-        <v>0.02306119745364175</v>
+        <v>0.05286029624790373</v>
       </c>
       <c r="U53" t="n">
-        <v>0.02900274934530743</v>
+        <v>0.04532829912663423</v>
       </c>
       <c r="V53" t="n">
-        <v>0.07680866607161869</v>
+        <v>0.07393521115241414</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0158850036246921</v>
+        <v>0.04328607347212538</v>
       </c>
       <c r="X53" t="n">
-        <v>0.003837712033410079</v>
+        <v>0.01022286388497937</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.001848390644222653</v>
+        <v>0.04357501327337235</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.07829272718040102</v>
+        <v>0.06513789216588037</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.073906563005951</v>
+        <v>0.001848815252016672</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.09059899436577815</v>
+        <v>0.005091645876492473</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.05906170640851614</v>
+        <v>0.04377433202443114</v>
       </c>
     </row>
     <row r="54">
@@ -5535,79 +5535,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1682630071302641</v>
+        <v>0.1827258477229821</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03443834913731886</v>
+        <v>0.06807006432765263</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03323624086539857</v>
+        <v>0.08564280715440693</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01905674774242705</v>
+        <v>0.01202401429682999</v>
       </c>
       <c r="I54" t="n">
-        <v>0.03420727634039055</v>
+        <v>0.005882385830595671</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0347874448212066</v>
+        <v>0.08210284755130744</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01809826048825824</v>
+        <v>0.07552447467732949</v>
       </c>
       <c r="L54" t="n">
-        <v>0.05518611279759649</v>
+        <v>0.03442934730851639</v>
       </c>
       <c r="M54" t="n">
-        <v>0.06965068782455135</v>
+        <v>0.0501953605249001</v>
       </c>
       <c r="N54" t="n">
-        <v>0.01813156096737778</v>
+        <v>0.01143824587580078</v>
       </c>
       <c r="O54" t="n">
-        <v>0.003195253865886603</v>
+        <v>0.002818695477203895</v>
       </c>
       <c r="P54" t="n">
-        <v>0.07901940650312217</v>
+        <v>0.07573895792967163</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.08596168489141132</v>
+        <v>0.08560288259110164</v>
       </c>
       <c r="R54" t="n">
-        <v>0.06784828630572223</v>
+        <v>0.02298640293846804</v>
       </c>
       <c r="S54" t="n">
-        <v>0.05409379896178419</v>
+        <v>0.03711269952248256</v>
       </c>
       <c r="T54" t="n">
-        <v>0.01766226325183327</v>
+        <v>0.02561744311127473</v>
       </c>
       <c r="U54" t="n">
-        <v>0.04087275174377301</v>
+        <v>0.03359988385791199</v>
       </c>
       <c r="V54" t="n">
-        <v>0.0969025332801909</v>
+        <v>0.09222826051664579</v>
       </c>
       <c r="W54" t="n">
-        <v>0.08443248293159142</v>
+        <v>0.05637338813605511</v>
       </c>
       <c r="X54" t="n">
-        <v>0.03474743297830234</v>
+        <v>0.02694312465609475</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.02530384418305411</v>
+        <v>0.0113874580849234</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.008385715370789052</v>
+        <v>0.003946476738127631</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.05573973973079886</v>
+        <v>0.07311964771029636</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.02904212501721515</v>
+        <v>0.02721513118240308</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.06740290996951226</v>
+        <v>-0.1174739124882164</v>
       </c>
     </row>
     <row r="55">
@@ -5630,79 +5630,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.3011061398566915</v>
+        <v>0.3639960826770403</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0560991001800655</v>
+        <v>0.07550940344569866</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0282431269936463</v>
+        <v>0.07346707069828085</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01469323722404411</v>
+        <v>0.006616417551984543</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0371237210822227</v>
+        <v>0.006628665365448543</v>
       </c>
       <c r="J55" t="n">
-        <v>1.898171778631462e-05</v>
+        <v>0.01007303235306046</v>
       </c>
       <c r="K55" t="n">
-        <v>0.02807795551896337</v>
+        <v>0.002957232255898904</v>
       </c>
       <c r="L55" t="n">
-        <v>0.03201316879675803</v>
+        <v>0.0214873176944208</v>
       </c>
       <c r="M55" t="n">
-        <v>0.1006666330584967</v>
+        <v>0.1154567053867275</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01101397716637677</v>
+        <v>0.009361307075974034</v>
       </c>
       <c r="O55" t="n">
-        <v>0.01051308158293319</v>
+        <v>0.03514744126860603</v>
       </c>
       <c r="P55" t="n">
-        <v>0.085343082183634</v>
+        <v>0.09458166817555129</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.05284783750955026</v>
+        <v>0.04530016708429953</v>
       </c>
       <c r="R55" t="n">
-        <v>0.08438877666552468</v>
+        <v>0.01829025956836711</v>
       </c>
       <c r="S55" t="n">
-        <v>0.02228980009949408</v>
+        <v>0.06535725171899703</v>
       </c>
       <c r="T55" t="n">
-        <v>0.0003286286511170262</v>
+        <v>0.04355293180661177</v>
       </c>
       <c r="U55" t="n">
-        <v>0.05798884511450812</v>
+        <v>0.02321139320204918</v>
       </c>
       <c r="V55" t="n">
-        <v>0.02812824383062597</v>
+        <v>0.01640025354884924</v>
       </c>
       <c r="W55" t="n">
-        <v>0.07605041966318213</v>
+        <v>0.06034022869233637</v>
       </c>
       <c r="X55" t="n">
-        <v>0.05771050837843604</v>
+        <v>0.0009555022154881871</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.1010927446172678</v>
+        <v>0.1208617757968299</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.03615066832014105</v>
+        <v>0.02696126419527223</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.002053931389056203</v>
+        <v>0.09058678455419963</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.07716353025616972</v>
+        <v>0.03689592634504819</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.04325139647440099</v>
+        <v>-0.05661924419879241</v>
       </c>
     </row>
     <row r="56">
@@ -5725,79 +5725,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2185586386844048</v>
+        <v>0.2185832387733655</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05676731847034685</v>
+        <v>0.04139509752619575</v>
       </c>
       <c r="G56" t="n">
-        <v>0.02703728903340037</v>
+        <v>0.04389519835688667</v>
       </c>
       <c r="H56" t="n">
-        <v>0.001206994752903926</v>
+        <v>0.02290907322194582</v>
       </c>
       <c r="I56" t="n">
-        <v>0.06357320329114433</v>
+        <v>0.02934722253153665</v>
       </c>
       <c r="J56" t="n">
-        <v>0.05507230612203163</v>
+        <v>0.04791043342084895</v>
       </c>
       <c r="K56" t="n">
-        <v>0.01353390482569586</v>
+        <v>0.05756511764145938</v>
       </c>
       <c r="L56" t="n">
-        <v>0.02611381797397129</v>
+        <v>0.0003037114558950381</v>
       </c>
       <c r="M56" t="n">
-        <v>0.05822226106241175</v>
+        <v>0.09442621892423267</v>
       </c>
       <c r="N56" t="n">
-        <v>0.005649897352132918</v>
+        <v>0.004744741466855073</v>
       </c>
       <c r="O56" t="n">
-        <v>0.08808688125544507</v>
+        <v>0.03317793088914689</v>
       </c>
       <c r="P56" t="n">
-        <v>0.09358718699382362</v>
+        <v>0.02320823117089167</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01749574255901231</v>
+        <v>0.106965670314127</v>
       </c>
       <c r="R56" t="n">
-        <v>0.08580806271514946</v>
+        <v>0.07561116260363868</v>
       </c>
       <c r="S56" t="n">
-        <v>0.06114650872540747</v>
+        <v>0.1093199753712182</v>
       </c>
       <c r="T56" t="n">
-        <v>0.04491385008003993</v>
+        <v>0.05171108256440558</v>
       </c>
       <c r="U56" t="n">
-        <v>0.08022033638420799</v>
+        <v>0.101546694937075</v>
       </c>
       <c r="V56" t="n">
-        <v>0.01349837286387411</v>
+        <v>0.03038471898879061</v>
       </c>
       <c r="W56" t="n">
-        <v>0.09208804533620378</v>
+        <v>0.02574571024555613</v>
       </c>
       <c r="X56" t="n">
-        <v>0.002522995926658109</v>
+        <v>0.0003458785163850358</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.005000281875156257</v>
+        <v>0.005048929350149917</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.07374772368247355</v>
+        <v>0.0320794448483654</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.00120768757672976</v>
+        <v>0.01569231144149145</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.03349933114177987</v>
+        <v>0.04666544421290257</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.06389822096236623</v>
+        <v>0.04920039590137342</v>
       </c>
     </row>
     <row r="57">
@@ -5820,82 +5820,82 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2944631399076375</v>
+        <v>0.2601043717990741</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08714896519088683</v>
+        <v>0.07691992879375903</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05244972629420677</v>
+        <v>0.07925249508361858</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02078042896324075</v>
+        <v>0.07802594864029908</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01734029396616574</v>
+        <v>0.00873142392261851</v>
       </c>
       <c r="J57" t="n">
-        <v>0.05150967411339648</v>
+        <v>0.008780321422236247</v>
       </c>
       <c r="K57" t="n">
-        <v>0.04496512316985889</v>
+        <v>0.011335643885356</v>
       </c>
       <c r="L57" t="n">
-        <v>0.004262642355464741</v>
+        <v>0.001274182654659217</v>
       </c>
       <c r="M57" t="n">
-        <v>0.09050377528908457</v>
+        <v>0.04998571030533874</v>
       </c>
       <c r="N57" t="n">
-        <v>0.007426327136565035</v>
+        <v>0.009593907341788756</v>
       </c>
       <c r="O57" t="n">
-        <v>0.01737572262722719</v>
+        <v>0.07573069761937298</v>
       </c>
       <c r="P57" t="n">
-        <v>0.04557222679664685</v>
+        <v>0.007004812331405489</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02506982188352129</v>
+        <v>0.03037232665821789</v>
       </c>
       <c r="R57" t="n">
-        <v>0.05849909358324148</v>
+        <v>0.07421740736226287</v>
       </c>
       <c r="S57" t="n">
-        <v>0.004332528317352621</v>
+        <v>0.04267008541292958</v>
       </c>
       <c r="T57" t="n">
-        <v>0.06088808423370334</v>
+        <v>0.04199510110537152</v>
       </c>
       <c r="U57" t="n">
-        <v>0.01348173220114668</v>
+        <v>0.03815059799517664</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0437634533292383</v>
+        <v>0.07081268412891401</v>
       </c>
       <c r="W57" t="n">
-        <v>0.04304686938037149</v>
+        <v>0.04910098598334887</v>
       </c>
       <c r="X57" t="n">
-        <v>0.08687136734758187</v>
+        <v>0.07106293643764737</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.09815674803548972</v>
+        <v>0.05326153607197345</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.08339919370993941</v>
+        <v>0.07723507764308245</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.02571044286829319</v>
+        <v>0.03862044845539957</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.01744575920737665</v>
+        <v>0.005865740745223142</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.09823300568525047</v>
+        <v>0.1074112573784207</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>